--- a/shortcut_keys.xlsx
+++ b/shortcut_keys.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0477BC38-C37C-41BC-8FE4-8E12C9BE76C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E33B319B-49E4-452F-843D-586D0398D350}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="26700" windowHeight="16440" activeTab="3" xr2:uid="{43490DDC-BDDE-46A2-A177-1DE0A5EB93B9}"/>
   </bookViews>
@@ -150,7 +150,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4203" uniqueCount="1082">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4203" uniqueCount="1084">
   <si>
     <t>Ctrl</t>
   </si>
@@ -4937,6 +4937,14 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ズームUP</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ズームDOWN</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -21836,11 +21844,11 @@
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:K104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G32" sqref="G32"/>
+      <selection pane="bottomRight" activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -22947,10 +22955,10 @@
         <v>223</v>
       </c>
       <c r="H38" s="21" t="s">
-        <v>695</v>
+        <v>1083</v>
       </c>
       <c r="I38" s="25" t="s">
-        <v>695</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="12">

--- a/shortcut_keys.xlsx
+++ b/shortcut_keys.xlsx
@@ -2,8 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E33B319B-49E4-452F-843D-586D0398D350}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E1266F-80ED-4C85-8014-C6DD54439818}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="26700" windowHeight="16440" activeTab="3" xr2:uid="{43490DDC-BDDE-46A2-A177-1DE0A5EB93B9}"/>
   </bookViews>
@@ -21848,7 +21849,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I38" sqref="I38"/>
+      <selection pane="bottomRight" activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>

--- a/shortcut_keys.xlsx
+++ b/shortcut_keys.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E1266F-80ED-4C85-8014-C6DD54439818}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B21C9C-2EA5-44F5-9838-CACEDD49982D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="26700" windowHeight="16440" activeTab="3" xr2:uid="{43490DDC-BDDE-46A2-A177-1DE0A5EB93B9}"/>
   </bookViews>
@@ -151,7 +151,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4203" uniqueCount="1084">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4203" uniqueCount="1121">
   <si>
     <t>Ctrl</t>
   </si>
@@ -4946,6 +4946,313 @@
   </si>
   <si>
     <t>ズームDOWN</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>削除</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>日付入力</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>時刻入力</t>
+    <rPh sb="0" eb="2">
+      <t>ジコク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>太字</t>
+    <rPh sb="0" eb="2">
+      <t>フトジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>上のセルからコピー</t>
+    <rPh sb="0" eb="1">
+      <t>ウエ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>検索</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ジャンプダイアログ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>置換</t>
+    <rPh sb="0" eb="2">
+      <t>チカン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>イタリック</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ハイパーリンクの挿入</t>
+    <rPh sb="8" eb="10">
+      <t>ソウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>テーブル変換</t>
+    <rPh sb="4" eb="6">
+      <t>ヘンカン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>新規ブックを開く</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ブックを開く</t>
+    <rPh sb="4" eb="5">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>印刷プレビュー</t>
+    <rPh sb="0" eb="2">
+      <t>インサツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>左のセルからコピー</t>
+    <rPh sb="0" eb="1">
+      <t>ヒダリ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>保存</t>
+    <rPh sb="0" eb="2">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>下線</t>
+    <rPh sb="0" eb="1">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>セン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ブックを閉じる</t>
+    <rPh sb="4" eb="5">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>やり直し</t>
+    <rPh sb="2" eb="3">
+      <t>ナオ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>列選択</t>
+    <rPh sb="0" eb="1">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>行選択</t>
+    <rPh sb="0" eb="1">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>範囲選択</t>
+    <rPh sb="0" eb="2">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>左のセルへ移動</t>
+    <rPh sb="0" eb="1">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>上のセルへ移動</t>
+    <rPh sb="0" eb="1">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>セル移動</t>
+    <rPh sb="2" eb="4">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>右のセルへ移動</t>
+    <rPh sb="0" eb="1">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>下のセルへ移動</t>
+    <rPh sb="0" eb="1">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>セルクリア</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>先頭へ移動</t>
+    <rPh sb="0" eb="2">
+      <t>セントウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>末尾へ移動</t>
+    <rPh sb="0" eb="2">
+      <t>マツビ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>右端へ移動</t>
+    <rPh sb="0" eb="2">
+      <t>ミギハシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>左端へ移動</t>
+    <rPh sb="0" eb="2">
+      <t>ヒダリハシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>左上端へ移動</t>
+    <rPh sb="0" eb="1">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ハシ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>右下端へ移動</t>
+    <rPh sb="0" eb="2">
+      <t>ミギシタ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ハシ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>前のシートへ</t>
+    <rPh sb="0" eb="1">
+      <t>マエ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>次のシートへ</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -5230,7 +5537,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5374,6 +5681,12 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -21849,7 +22162,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H38" sqref="H38"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -22532,13 +22845,13 @@
         <v>698</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>695</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>695</v>
+        <v>1109</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>1106</v>
       </c>
       <c r="D24" s="44" t="s">
-        <v>695</v>
+        <v>1113</v>
       </c>
       <c r="E24" s="21" t="s">
         <v>695</v>
@@ -22561,13 +22874,13 @@
         <v>699</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>695</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>695</v>
+        <v>1109</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>1106</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>695</v>
+        <v>1114</v>
       </c>
       <c r="E25" s="21" t="s">
         <v>695</v>
@@ -22590,13 +22903,13 @@
         <v>696</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>695</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>695</v>
+        <v>1109</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>1106</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>695</v>
+        <v>1115</v>
       </c>
       <c r="E26" s="21" t="s">
         <v>999</v>
@@ -22619,13 +22932,13 @@
         <v>697</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>695</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>695</v>
+        <v>1109</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>1106</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>695</v>
+        <v>1116</v>
       </c>
       <c r="E27" s="21" t="s">
         <v>1000</v>
@@ -22648,13 +22961,13 @@
         <v>880</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>695</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>695</v>
+        <v>1109</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>1106</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>695</v>
+        <v>1117</v>
       </c>
       <c r="E28" s="21" t="s">
         <v>695</v>
@@ -22677,13 +22990,13 @@
         <v>881</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>695</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>695</v>
+        <v>1109</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>1106</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>695</v>
+        <v>1118</v>
       </c>
       <c r="E29" s="21" t="s">
         <v>695</v>
@@ -22706,13 +23019,13 @@
         <v>882</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>695</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>695</v>
+        <v>1109</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>1106</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>695</v>
+        <v>1119</v>
       </c>
       <c r="E30" s="21" t="s">
         <v>997</v>
@@ -22735,13 +23048,13 @@
         <v>883</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>695</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>695</v>
+        <v>1109</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>1106</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>695</v>
+        <v>1120</v>
       </c>
       <c r="E31" s="21" t="s">
         <v>998</v>
@@ -22764,10 +23077,10 @@
         <v>608</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>695</v>
+        <v>1110</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>695</v>
+        <v>1107</v>
       </c>
       <c r="D32" s="21" t="s">
         <v>695</v>
@@ -22796,10 +23109,10 @@
         <v>695</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>695</v>
+        <v>897</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>695</v>
+        <v>890</v>
       </c>
       <c r="E33" s="21" t="s">
         <v>695</v>
@@ -22822,10 +23135,10 @@
         <v>613</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>695</v>
+        <v>1112</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>695</v>
+        <v>899</v>
       </c>
       <c r="D34" s="21" t="s">
         <v>989</v>
@@ -22851,7 +23164,7 @@
         <v>617</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>695</v>
+        <v>1112</v>
       </c>
       <c r="C35" s="21" t="s">
         <v>695</v>
@@ -22909,10 +23222,10 @@
         <v>622</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>695</v>
+        <v>1111</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>695</v>
+        <v>1108</v>
       </c>
       <c r="D37" s="21" t="s">
         <v>695</v>
@@ -22943,8 +23256,8 @@
       <c r="C38" s="25" t="s">
         <v>1035</v>
       </c>
-      <c r="D38" s="21" t="s">
-        <v>695</v>
+      <c r="D38" s="49" t="s">
+        <v>1084</v>
       </c>
       <c r="E38" s="21" t="s">
         <v>695</v>
@@ -22972,7 +23285,7 @@
       <c r="C39" s="25" t="s">
         <v>1035</v>
       </c>
-      <c r="D39" s="21" t="s">
+      <c r="D39" s="50" t="s">
         <v>695</v>
       </c>
       <c r="E39" s="21" t="s">
@@ -23118,7 +23431,7 @@
         <v>1035</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>695</v>
+        <v>1085</v>
       </c>
       <c r="E44" s="21" t="s">
         <v>695</v>
@@ -23147,7 +23460,7 @@
         <v>1035</v>
       </c>
       <c r="D45" s="21" t="s">
-        <v>695</v>
+        <v>1086</v>
       </c>
       <c r="E45" s="21" t="s">
         <v>695</v>
@@ -23495,7 +23808,7 @@
         <v>1035</v>
       </c>
       <c r="D57" s="21" t="s">
-        <v>695</v>
+        <v>888</v>
       </c>
       <c r="E57" s="25" t="s">
         <v>695</v>
@@ -23524,7 +23837,7 @@
         <v>1035</v>
       </c>
       <c r="D58" s="21" t="s">
-        <v>695</v>
+        <v>1087</v>
       </c>
       <c r="E58" s="25" t="s">
         <v>695</v>
@@ -23553,7 +23866,7 @@
         <v>1035</v>
       </c>
       <c r="D59" s="21" t="s">
-        <v>695</v>
+        <v>890</v>
       </c>
       <c r="E59" s="25" t="s">
         <v>695</v>
@@ -23582,7 +23895,7 @@
         <v>1035</v>
       </c>
       <c r="D60" s="21" t="s">
-        <v>695</v>
+        <v>1088</v>
       </c>
       <c r="E60" s="25" t="s">
         <v>695</v>
@@ -23611,7 +23924,7 @@
         <v>1035</v>
       </c>
       <c r="D61" s="21" t="s">
-        <v>695</v>
+        <v>1089</v>
       </c>
       <c r="E61" s="25" t="s">
         <v>695</v>
@@ -23640,7 +23953,7 @@
         <v>1035</v>
       </c>
       <c r="D62" s="21" t="s">
-        <v>695</v>
+        <v>1090</v>
       </c>
       <c r="E62" s="25" t="s">
         <v>695</v>
@@ -23669,7 +23982,7 @@
         <v>1035</v>
       </c>
       <c r="D63" s="21" t="s">
-        <v>695</v>
+        <v>1091</v>
       </c>
       <c r="E63" s="25" t="s">
         <v>695</v>
@@ -23698,7 +24011,7 @@
         <v>1035</v>
       </c>
       <c r="D64" s="21" t="s">
-        <v>695</v>
+        <v>1092</v>
       </c>
       <c r="E64" s="25" t="s">
         <v>695</v>
@@ -23727,7 +24040,7 @@
         <v>1035</v>
       </c>
       <c r="D65" s="21" t="s">
-        <v>695</v>
+        <v>1093</v>
       </c>
       <c r="E65" s="25" t="s">
         <v>695</v>
@@ -23785,7 +24098,7 @@
         <v>1035</v>
       </c>
       <c r="D67" s="21" t="s">
-        <v>695</v>
+        <v>1094</v>
       </c>
       <c r="E67" s="25" t="s">
         <v>695</v>
@@ -23814,7 +24127,7 @@
         <v>1035</v>
       </c>
       <c r="D68" s="21" t="s">
-        <v>695</v>
+        <v>1095</v>
       </c>
       <c r="E68" s="25" t="s">
         <v>695</v>
@@ -23872,7 +24185,7 @@
         <v>1035</v>
       </c>
       <c r="D70" s="21" t="s">
-        <v>695</v>
+        <v>1096</v>
       </c>
       <c r="E70" s="25" t="s">
         <v>695</v>
@@ -23901,7 +24214,7 @@
         <v>1035</v>
       </c>
       <c r="D71" s="21" t="s">
-        <v>695</v>
+        <v>1097</v>
       </c>
       <c r="E71" s="25" t="s">
         <v>695</v>
@@ -23930,7 +24243,7 @@
         <v>1035</v>
       </c>
       <c r="D72" s="21" t="s">
-        <v>695</v>
+        <v>1098</v>
       </c>
       <c r="E72" s="25" t="s">
         <v>695</v>
@@ -23988,7 +24301,7 @@
         <v>1035</v>
       </c>
       <c r="D74" s="21" t="s">
-        <v>695</v>
+        <v>1099</v>
       </c>
       <c r="E74" s="25" t="s">
         <v>695</v>
@@ -24017,7 +24330,7 @@
         <v>1035</v>
       </c>
       <c r="D75" s="21" t="s">
-        <v>695</v>
+        <v>1100</v>
       </c>
       <c r="E75" s="25" t="s">
         <v>695</v>
@@ -24075,7 +24388,7 @@
         <v>1035</v>
       </c>
       <c r="D77" s="21" t="s">
-        <v>695</v>
+        <v>1101</v>
       </c>
       <c r="E77" s="25" t="s">
         <v>695</v>
@@ -24104,7 +24417,7 @@
         <v>1035</v>
       </c>
       <c r="D78" s="21" t="s">
-        <v>695</v>
+        <v>897</v>
       </c>
       <c r="E78" s="25" t="s">
         <v>695</v>
@@ -24133,7 +24446,7 @@
         <v>1035</v>
       </c>
       <c r="D79" s="21" t="s">
-        <v>695</v>
+        <v>1102</v>
       </c>
       <c r="E79" s="25" t="s">
         <v>695</v>
@@ -24162,7 +24475,7 @@
         <v>1035</v>
       </c>
       <c r="D80" s="21" t="s">
-        <v>695</v>
+        <v>899</v>
       </c>
       <c r="E80" s="25" t="s">
         <v>695</v>
@@ -24191,7 +24504,7 @@
         <v>1035</v>
       </c>
       <c r="D81" s="21" t="s">
-        <v>695</v>
+        <v>1103</v>
       </c>
       <c r="E81" s="25" t="s">
         <v>695</v>
@@ -24220,7 +24533,7 @@
         <v>1035</v>
       </c>
       <c r="D82" s="21" t="s">
-        <v>695</v>
+        <v>900</v>
       </c>
       <c r="E82" s="25" t="s">
         <v>695</v>
@@ -24245,11 +24558,11 @@
       <c r="B83" s="25" t="s">
         <v>1035</v>
       </c>
-      <c r="C83" s="25" t="s">
-        <v>1035</v>
+      <c r="C83" s="16" t="s">
+        <v>1105</v>
       </c>
       <c r="D83" s="21" t="s">
-        <v>695</v>
+        <v>1104</v>
       </c>
       <c r="E83" s="21" t="s">
         <v>695</v>

--- a/shortcut_keys.xlsx
+++ b/shortcut_keys.xlsx
@@ -4,9 +4,9 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{448F57FB-A962-4E66-AB3D-270FE1F85031}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE3A5B7-7A32-4FFD-BA2B-290A532083ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="26700" windowHeight="16440" firstSheet="6" activeTab="14" xr2:uid="{43490DDC-BDDE-46A2-A177-1DE0A5EB93B9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="26700" windowHeight="16440" xr2:uid="{43490DDC-BDDE-46A2-A177-1DE0A5EB93B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Windows10" sheetId="7" r:id="rId1"/>
@@ -151,7 +151,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4203" uniqueCount="1125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4203" uniqueCount="1126">
   <si>
     <t>Ctrl</t>
   </si>
@@ -4431,15 +4431,9 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ダイアログボックス表示 [ジャンプ]</t>
-  </si>
-  <si>
     <t>各ペインにフォーカスを当てる</t>
   </si>
   <si>
-    <t>ダイアログボックス表示 [スペルチェック]</t>
-  </si>
-  <si>
     <t>テーブル挿入</t>
   </si>
   <si>
@@ -4478,9 +4472,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ダイアログボックス表示 [マクロ]</t>
-  </si>
-  <si>
     <t>一画面分左に横スクロール</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -4522,9 +4513,6 @@
     <t>表示形式 [標準]</t>
   </si>
   <si>
-    <t>アクティブ セル領域 (アクティブ セルを含み、空白の行と列で囲まれているデータ領域) を選択</t>
-  </si>
-  <si>
     <t>表示切替 値⇔数式</t>
   </si>
   <si>
@@ -4547,9 +4535,6 @@
   </si>
   <si>
     <t>ブックのスタイルを設定</t>
-  </si>
-  <si>
-    <t>ダイアログボックス表示 [形式を選択して貼り付け]</t>
   </si>
   <si>
     <t>再計算（全シート全セル）</t>
@@ -4698,9 +4683,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>一行にまとめてセルコピー_設定変更</t>
-  </si>
-  <si>
     <t>文字入力</t>
     <rPh sb="0" eb="2">
       <t>モジ</t>
@@ -5309,6 +5291,30 @@
     <rPh sb="9" eb="11">
       <t>ツイカ</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>[ジャンプ]</t>
+  </si>
+  <si>
+    <t>[スペルチェック]</t>
+  </si>
+  <si>
+    <t>[マクロ]</t>
+  </si>
+  <si>
+    <t>[形式を選択して貼り付け]</t>
+  </si>
+  <si>
+    <t>一行にまとめてセルコピー_設定変更</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アクティブ セル領域 (アクティブ セルを含み、空白の行と列で囲まれているデータ領域) を選択</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>=Ctrl+p</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -5749,52 +5755,6 @@
     <cellStyle name="標準 3" xfId="2" xr:uid="{6574F17E-666C-4C25-887B-BEC40B73B388}"/>
   </cellStyles>
   <dxfs count="176">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -8053,8 +8013,54 @@
         <sz val="9"/>
         <color theme="1"/>
         <name val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <font>
@@ -8950,15 +8956,15 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="テーブル1" displayName="テーブル1" ref="A1:F99" headerRowDxfId="56" dataDxfId="55">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="テーブル1" displayName="テーブル1" ref="A1:F99" headerRowDxfId="54" dataDxfId="53">
   <autoFilter ref="A1:F99" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Ctrl" totalsRowLabel="集計" dataDxfId="54" totalsRowDxfId="53"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Shift" dataDxfId="52" totalsRowDxfId="51"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Alt" dataDxfId="50" totalsRowDxfId="49"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Key" dataDxfId="48" totalsRowDxfId="47"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="機能" dataDxfId="46" totalsRowDxfId="45"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="44" totalsRowDxfId="43" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Ctrl" totalsRowLabel="集計" dataDxfId="52" totalsRowDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Shift" dataDxfId="50" totalsRowDxfId="49"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Alt" dataDxfId="48" totalsRowDxfId="47"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Key" dataDxfId="46" totalsRowDxfId="45"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="機能" dataDxfId="44" totalsRowDxfId="43"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="42" totalsRowDxfId="41" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8967,15 +8973,15 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="テーブル13456" displayName="テーブル13456" ref="A1:F78" headerRowDxfId="42" dataDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="テーブル13456" displayName="テーブル13456" ref="A1:F78" headerRowDxfId="40" dataDxfId="39">
   <autoFilter ref="A1:F78" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Ctrl" totalsRowLabel="集計" dataDxfId="40" totalsRowDxfId="39"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Shift" dataDxfId="38" totalsRowDxfId="37"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="Alt" dataDxfId="36" totalsRowDxfId="35" dataCellStyle="標準 2"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Key" dataDxfId="34" totalsRowDxfId="33"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="機能" dataDxfId="32" totalsRowDxfId="31"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="30" totalsRowDxfId="29" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Ctrl" totalsRowLabel="集計" dataDxfId="38" totalsRowDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Shift" dataDxfId="36" totalsRowDxfId="35"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="Alt" dataDxfId="34" totalsRowDxfId="33" dataCellStyle="標準 2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Key" dataDxfId="32" totalsRowDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="機能" dataDxfId="30" totalsRowDxfId="29"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="28" totalsRowDxfId="27" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8984,15 +8990,15 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{74162BA7-0E42-48B6-B99F-4D7F769D24F9}" name="テーブル1789" displayName="テーブル1789" ref="A1:F99" headerRowDxfId="28" dataDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{74162BA7-0E42-48B6-B99F-4D7F769D24F9}" name="テーブル1789" displayName="テーブル1789" ref="A1:F99" headerRowDxfId="26" dataDxfId="25">
   <autoFilter ref="A1:F99" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{62FA586D-EF03-4D43-A10E-78D2AF735C71}" name="Ctrl" totalsRowLabel="集計" dataDxfId="26" totalsRowDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{C5A7C3F6-4F42-4530-8FD3-1990CF3F9124}" name="Shift" dataDxfId="24" totalsRowDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{A05CE0D9-140D-45A0-888F-253BF948A770}" name="Alt" dataDxfId="22" totalsRowDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{7DA7D284-C06D-4102-9404-5695C13F122B}" name="Key" dataDxfId="20" totalsRowDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{3D010DA0-57B1-4C00-9C5F-DCCF15D9FD17}" name="機能" dataDxfId="18" totalsRowDxfId="17"/>
-    <tableColumn id="7" xr3:uid="{E74BE0E9-7F88-484C-9AEE-D35FA3AED34A}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="16" totalsRowDxfId="15" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{62FA586D-EF03-4D43-A10E-78D2AF735C71}" name="Ctrl" totalsRowLabel="集計" dataDxfId="24" totalsRowDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{C5A7C3F6-4F42-4530-8FD3-1990CF3F9124}" name="Shift" dataDxfId="22" totalsRowDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{A05CE0D9-140D-45A0-888F-253BF948A770}" name="Alt" dataDxfId="20" totalsRowDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{7DA7D284-C06D-4102-9404-5695C13F122B}" name="Key" dataDxfId="18" totalsRowDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{3D010DA0-57B1-4C00-9C5F-DCCF15D9FD17}" name="機能" dataDxfId="16" totalsRowDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{E74BE0E9-7F88-484C-9AEE-D35FA3AED34A}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="14" totalsRowDxfId="13" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9001,15 +9007,15 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{E6EF7B9C-FAC1-42B1-BC95-AF668093141D}" name="テーブル1781011" displayName="テーブル1781011" ref="A1:F88" headerRowDxfId="14" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{E6EF7B9C-FAC1-42B1-BC95-AF668093141D}" name="テーブル1781011" displayName="テーブル1781011" ref="A1:F88" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="A1:F88" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{10591B97-DA49-4E0D-BF23-0888174E098F}" name="Ctrl" totalsRowLabel="集計" dataDxfId="12" totalsRowDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{EDA168A4-45CB-47AC-9F73-DAC9B98B27C9}" name="Shift" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{3CB7FF1C-24DD-4B0B-8123-C85716EAD21F}" name="Alt" dataDxfId="9" totalsRowDxfId="8" dataCellStyle="標準 2"/>
-    <tableColumn id="4" xr3:uid="{8AEA5FCE-4FCC-42AA-A7BC-DD61C011D20F}" name="Key" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{1A91CD22-6C43-43F8-AD49-13837BC29411}" name="機能" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{B88C40F9-0361-4D7D-B3EE-F9FB5D80EF07}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="3" totalsRowDxfId="2" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{10591B97-DA49-4E0D-BF23-0888174E098F}" name="Ctrl" totalsRowLabel="集計" dataDxfId="10" totalsRowDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{EDA168A4-45CB-47AC-9F73-DAC9B98B27C9}" name="Shift" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{3CB7FF1C-24DD-4B0B-8123-C85716EAD21F}" name="Alt" dataDxfId="7" totalsRowDxfId="6" dataCellStyle="標準 2"/>
+    <tableColumn id="4" xr3:uid="{8AEA5FCE-4FCC-42AA-A7BC-DD61C011D20F}" name="Key" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{1A91CD22-6C43-43F8-AD49-13837BC29411}" name="機能" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{B88C40F9-0361-4D7D-B3EE-F9FB5D80EF07}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9056,8 +9062,8 @@
   <autoFilter ref="A1:C92" xr:uid="{4CB39E0E-759A-4F48-9321-000A7B6C0DCA}"/>
   <tableColumns count="3">
     <tableColumn id="2" xr3:uid="{3AEEA09D-295D-4DA2-B1DC-7199FAFF0781}" name="Key" dataDxfId="129" totalsRowDxfId="128" dataCellStyle="標準 2"/>
-    <tableColumn id="5" xr3:uid="{A76CCD34-8166-44D0-8998-F212D2DFCFFB}" name="機能" dataDxfId="1" totalsRowDxfId="127" dataCellStyle="標準 2"/>
-    <tableColumn id="7" xr3:uid="{6F6BD55F-093D-4EEF-8239-C97ACF4A285C}" name="| Key | 機能 |" totalsRowFunction="count" dataDxfId="0" totalsRowDxfId="126" dataCellStyle="標準 2">
+    <tableColumn id="5" xr3:uid="{A76CCD34-8166-44D0-8998-F212D2DFCFFB}" name="機能" dataDxfId="127" totalsRowDxfId="126" dataCellStyle="標準 2"/>
+    <tableColumn id="7" xr3:uid="{6F6BD55F-093D-4EEF-8239-C97ACF4A285C}" name="| Key | 機能 |" totalsRowFunction="count" dataDxfId="125" totalsRowDxfId="124" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9066,15 +9072,15 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{CD3FDAAC-EA50-4891-82BC-D4E844A5127E}" name="テーブル17815" displayName="テーブル17815" ref="A1:F99" headerRowDxfId="125" dataDxfId="124">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{CD3FDAAC-EA50-4891-82BC-D4E844A5127E}" name="テーブル17815" displayName="テーブル17815" ref="A1:F99" headerRowDxfId="123" dataDxfId="122">
   <autoFilter ref="A1:F99" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{ABB88C56-03A7-4AE9-BC2E-9C94F6123CED}" name="Ctrl" totalsRowLabel="集計" dataDxfId="123" totalsRowDxfId="122"/>
-    <tableColumn id="2" xr3:uid="{54ED05C0-41E5-4D67-AC66-4C672B6FCEE0}" name="Shift" dataDxfId="121" totalsRowDxfId="120"/>
-    <tableColumn id="3" xr3:uid="{460AE638-8C55-41C3-AAF9-5CA7AE00D46C}" name="Alt" dataDxfId="119" totalsRowDxfId="118"/>
-    <tableColumn id="4" xr3:uid="{4A2D0730-8F61-4FC1-AD20-422CC8C8418A}" name="Key" dataDxfId="117" totalsRowDxfId="116"/>
-    <tableColumn id="5" xr3:uid="{52A22859-FCDA-42B4-A9B3-A252BE1722B5}" name="機能" dataDxfId="115" totalsRowDxfId="114"/>
-    <tableColumn id="7" xr3:uid="{FA9A7219-28FF-4D03-8D62-50F57A41243F}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="113" totalsRowDxfId="112" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{ABB88C56-03A7-4AE9-BC2E-9C94F6123CED}" name="Ctrl" totalsRowLabel="集計" dataDxfId="121" totalsRowDxfId="120"/>
+    <tableColumn id="2" xr3:uid="{54ED05C0-41E5-4D67-AC66-4C672B6FCEE0}" name="Shift" dataDxfId="119" totalsRowDxfId="118"/>
+    <tableColumn id="3" xr3:uid="{460AE638-8C55-41C3-AAF9-5CA7AE00D46C}" name="Alt" dataDxfId="117" totalsRowDxfId="116"/>
+    <tableColumn id="4" xr3:uid="{4A2D0730-8F61-4FC1-AD20-422CC8C8418A}" name="Key" dataDxfId="115" totalsRowDxfId="114"/>
+    <tableColumn id="5" xr3:uid="{52A22859-FCDA-42B4-A9B3-A252BE1722B5}" name="機能" dataDxfId="113" totalsRowDxfId="112"/>
+    <tableColumn id="7" xr3:uid="{FA9A7219-28FF-4D03-8D62-50F57A41243F}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="111" totalsRowDxfId="110" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル17815[[#This Row],[機能]]),"","|"&amp;テーブル17815[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17815[[#This Row],[Shift]]&amp;"|"&amp;テーブル17815[[#This Row],[Alt]]&amp;"|"&amp;テーブル17815[[#This Row],[Key]]&amp;"|"&amp;テーブル17815[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9083,15 +9089,15 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{64C7855A-AE6E-4D1B-95FD-A0F7F70CC417}" name="テーブル1312" displayName="テーブル1312" ref="A1:F80" headerRowDxfId="111" dataDxfId="110">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{64C7855A-AE6E-4D1B-95FD-A0F7F70CC417}" name="テーブル1312" displayName="テーブル1312" ref="A1:F80" headerRowDxfId="109" dataDxfId="108">
   <autoFilter ref="A1:F80" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{3B675F56-1F29-4E78-BDB6-CA41FB9B1F5C}" name="Ctrl" totalsRowLabel="集計" dataDxfId="109" totalsRowDxfId="108"/>
-    <tableColumn id="2" xr3:uid="{B7008E7C-6419-42EC-940A-5B6A0748F5B1}" name="Shift" dataDxfId="107" totalsRowDxfId="106"/>
-    <tableColumn id="3" xr3:uid="{D10E9664-9EFA-48AC-A609-71DE9D6B26CA}" name="Alt" dataDxfId="105" totalsRowDxfId="104"/>
-    <tableColumn id="4" xr3:uid="{04E5B1BB-D2DF-4C83-97E5-127E5BD91A73}" name="Key" dataDxfId="103" totalsRowDxfId="102"/>
-    <tableColumn id="5" xr3:uid="{1EE32BB4-F6DB-4221-AFF6-F34183FE5769}" name="機能" dataDxfId="101" totalsRowDxfId="100"/>
-    <tableColumn id="7" xr3:uid="{3266105D-4A94-4CBB-8500-927634878533}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="99" totalsRowDxfId="98" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{3B675F56-1F29-4E78-BDB6-CA41FB9B1F5C}" name="Ctrl" totalsRowLabel="集計" dataDxfId="107" totalsRowDxfId="106"/>
+    <tableColumn id="2" xr3:uid="{B7008E7C-6419-42EC-940A-5B6A0748F5B1}" name="Shift" dataDxfId="105" totalsRowDxfId="104"/>
+    <tableColumn id="3" xr3:uid="{D10E9664-9EFA-48AC-A609-71DE9D6B26CA}" name="Alt" dataDxfId="103" totalsRowDxfId="102"/>
+    <tableColumn id="4" xr3:uid="{04E5B1BB-D2DF-4C83-97E5-127E5BD91A73}" name="Key" dataDxfId="101" totalsRowDxfId="100"/>
+    <tableColumn id="5" xr3:uid="{1EE32BB4-F6DB-4221-AFF6-F34183FE5769}" name="機能" dataDxfId="99" totalsRowDxfId="98"/>
+    <tableColumn id="7" xr3:uid="{3266105D-4A94-4CBB-8500-927634878533}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="97" totalsRowDxfId="96" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9100,15 +9106,15 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0BE3AAD5-252A-42BC-B735-5702B821C9F5}" name="テーブル17810" displayName="テーブル17810" ref="A1:F40" headerRowDxfId="97" dataDxfId="96">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0BE3AAD5-252A-42BC-B735-5702B821C9F5}" name="テーブル17810" displayName="テーブル17810" ref="A1:F40" headerRowDxfId="95" dataDxfId="94">
   <autoFilter ref="A1:F40" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{AC738BBB-3009-41EE-B57C-C49F293EF770}" name="Ctrl" totalsRowLabel="集計" dataDxfId="95" totalsRowDxfId="94"/>
-    <tableColumn id="2" xr3:uid="{0FA728AD-25AD-41FC-AC69-C8FD9D439BB0}" name="Shift" dataDxfId="93"/>
-    <tableColumn id="3" xr3:uid="{A5C1728F-F016-41C4-894F-916122C25955}" name="Alt" dataDxfId="92" totalsRowDxfId="91" dataCellStyle="標準 2"/>
-    <tableColumn id="4" xr3:uid="{7A760A73-B1FA-44DC-9BF4-F09C9E1325A2}" name="Key" dataDxfId="90" totalsRowDxfId="89"/>
-    <tableColumn id="5" xr3:uid="{99F9108C-C22A-4625-A879-60C0A5850F2D}" name="機能" dataDxfId="88" totalsRowDxfId="87"/>
-    <tableColumn id="7" xr3:uid="{0F2ABE32-0915-4657-86F2-4FEBDC3CD8A8}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="86" totalsRowDxfId="85" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{AC738BBB-3009-41EE-B57C-C49F293EF770}" name="Ctrl" totalsRowLabel="集計" dataDxfId="93" totalsRowDxfId="92"/>
+    <tableColumn id="2" xr3:uid="{0FA728AD-25AD-41FC-AC69-C8FD9D439BB0}" name="Shift" dataDxfId="91"/>
+    <tableColumn id="3" xr3:uid="{A5C1728F-F016-41C4-894F-916122C25955}" name="Alt" dataDxfId="90" totalsRowDxfId="89" dataCellStyle="標準 2"/>
+    <tableColumn id="4" xr3:uid="{7A760A73-B1FA-44DC-9BF4-F09C9E1325A2}" name="Key" dataDxfId="88" totalsRowDxfId="87"/>
+    <tableColumn id="5" xr3:uid="{99F9108C-C22A-4625-A879-60C0A5850F2D}" name="機能" dataDxfId="86" totalsRowDxfId="85"/>
+    <tableColumn id="7" xr3:uid="{0F2ABE32-0915-4657-86F2-4FEBDC3CD8A8}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="84" totalsRowDxfId="83" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9117,15 +9123,15 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="テーブル134" displayName="テーブル134" ref="A1:F91" headerRowDxfId="84" dataDxfId="83">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="テーブル134" displayName="テーブル134" ref="A1:F91" headerRowDxfId="82" dataDxfId="81">
   <autoFilter ref="A1:F91" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Ctrl" totalsRowLabel="集計" dataDxfId="82" totalsRowDxfId="81"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Shift" dataDxfId="80" totalsRowDxfId="79"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Alt" dataDxfId="78" totalsRowDxfId="77"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Key" dataDxfId="76" totalsRowDxfId="75"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="機能" dataDxfId="74" totalsRowDxfId="73"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="72" totalsRowDxfId="71" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Ctrl" totalsRowLabel="集計" dataDxfId="80" totalsRowDxfId="79"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Shift" dataDxfId="78" totalsRowDxfId="77"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Alt" dataDxfId="76" totalsRowDxfId="75"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Key" dataDxfId="74" totalsRowDxfId="73"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="機能" dataDxfId="72" totalsRowDxfId="71"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="70" totalsRowDxfId="69" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9134,15 +9140,15 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="テーブル13" displayName="テーブル13" ref="A1:F90" headerRowDxfId="70" dataDxfId="69">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="テーブル13" displayName="テーブル13" ref="A1:F90" headerRowDxfId="68" dataDxfId="67">
   <autoFilter ref="A1:F90" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Ctrl" totalsRowLabel="集計" dataDxfId="68" totalsRowDxfId="67"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Shift" dataDxfId="66" totalsRowDxfId="65"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Alt" dataDxfId="64" totalsRowDxfId="63"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Key" dataDxfId="62" totalsRowDxfId="61"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="機能" dataDxfId="60" totalsRowDxfId="59"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="58" totalsRowDxfId="57" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Ctrl" totalsRowLabel="集計" dataDxfId="66" totalsRowDxfId="65"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Shift" dataDxfId="64" totalsRowDxfId="63"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Alt" dataDxfId="62" totalsRowDxfId="61"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Key" dataDxfId="60" totalsRowDxfId="59"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="機能" dataDxfId="58" totalsRowDxfId="57"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="56" totalsRowDxfId="55" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9474,7 +9480,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G85"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2" defaultRowHeight="11.25" customHeight="1"/>
   <cols>
@@ -14172,7 +14178,7 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2" defaultRowHeight="11.25" customHeight="1"/>
   <cols>
@@ -15033,9 +15039,7 @@
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:I102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
@@ -17734,10 +17738,10 @@
   <dimension ref="A1:I99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B40" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -18013,7 +18017,7 @@
         <v>238</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>269</v>
@@ -19823,7 +19827,7 @@
         <v>269</v>
       </c>
       <c r="F72" s="15" t="s">
-        <v>1120</v>
+        <v>1114</v>
       </c>
       <c r="G72" s="15" t="s">
         <v>269</v>
@@ -21124,9 +21128,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2" defaultRowHeight="11.25" customHeight="1"/>
   <cols>
@@ -22220,7 +22222,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -22264,22 +22266,22 @@
         <v>218</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>1065</v>
+        <v>1059</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>1044</v>
+        <v>1038</v>
       </c>
       <c r="E2" s="20" t="s">
         <v>219</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="H2" s="20" t="s">
         <v>694</v>
@@ -22293,16 +22295,16 @@
         <v>154</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>1059</v>
+        <v>1053</v>
       </c>
       <c r="D3" s="46" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>1066</v>
+        <v>1060</v>
       </c>
       <c r="F3" s="20" t="s">
         <v>694</v>
@@ -22322,19 +22324,19 @@
         <v>156</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>1122</v>
+        <v>1116</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>1043</v>
+        <v>1037</v>
       </c>
       <c r="E4" s="20" t="s">
         <v>694</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="G4" s="20" t="s">
         <v>694</v>
@@ -22351,19 +22353,19 @@
         <v>150</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>868</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
       <c r="G5" s="20" t="s">
         <v>694</v>
@@ -22380,13 +22382,13 @@
         <v>159</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>981</v>
+        <v>1119</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>1060</v>
+        <v>1054</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>1046</v>
+        <v>1040</v>
       </c>
       <c r="E6" s="20" t="s">
         <v>694</v>
@@ -22409,19 +22411,19 @@
         <v>53</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>1061</v>
+        <v>1055</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>1047</v>
+        <v>1041</v>
       </c>
       <c r="E7" s="20" t="s">
         <v>694</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="G7" s="20" t="s">
         <v>694</v>
@@ -22438,13 +22440,13 @@
         <v>227</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>983</v>
+        <v>1120</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>1048</v>
+        <v>1042</v>
       </c>
       <c r="E8" s="20" t="s">
         <v>694</v>
@@ -22467,16 +22469,16 @@
         <v>241</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>995</v>
+        <v>1121</v>
       </c>
       <c r="F9" s="20" t="s">
         <v>694</v>
@@ -22496,13 +22498,13 @@
         <v>238</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="E10" s="20" t="s">
         <v>694</v>
@@ -22514,10 +22516,10 @@
         <v>694</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>1016</v>
+        <v>1011</v>
       </c>
       <c r="I10" s="24" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="17" customFormat="1" ht="12">
@@ -22525,22 +22527,22 @@
         <v>141</v>
       </c>
       <c r="B11" s="47" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>1051</v>
+        <v>1045</v>
       </c>
       <c r="E11" s="20" t="s">
         <v>694</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>1079</v>
+        <v>1073</v>
       </c>
       <c r="H11" s="20" t="s">
         <v>694</v>
@@ -22554,19 +22556,19 @@
         <v>224</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>1057</v>
+        <v>1051</v>
       </c>
       <c r="C12" s="20" t="s">
         <v>225</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>1052</v>
+        <v>1046</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
       <c r="G12" s="20" t="s">
         <v>694</v>
@@ -22586,16 +22588,16 @@
         <v>229</v>
       </c>
       <c r="C13" s="47" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
       <c r="D13" s="47" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="E13" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="F13" s="20" t="s">
-        <v>1045</v>
+      <c r="F13" s="47" t="s">
+        <v>1125</v>
       </c>
       <c r="G13" s="20" t="s">
         <v>694</v>
@@ -22612,19 +22614,19 @@
         <v>1</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>1039</v>
+        <v>1033</v>
       </c>
       <c r="E14" s="24" t="s">
         <v>694</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>1070</v>
+        <v>1064</v>
       </c>
       <c r="G14" s="20" t="s">
         <v>694</v>
@@ -22641,25 +22643,25 @@
         <v>2</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>1035</v>
+        <v>1029</v>
       </c>
       <c r="E15" s="24" t="s">
         <v>694</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>1069</v>
+        <v>1063</v>
       </c>
       <c r="G15" s="20" t="s">
         <v>694</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="I15" s="24" t="s">
         <v>694</v>
@@ -22670,25 +22672,25 @@
         <v>3</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>1036</v>
+        <v>1030</v>
       </c>
       <c r="E16" s="24" t="s">
         <v>694</v>
       </c>
       <c r="F16" s="43" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="G16" s="20" t="s">
         <v>694</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>1038</v>
+        <v>1032</v>
       </c>
       <c r="I16" s="24" t="s">
         <v>694</v>
@@ -22700,19 +22702,19 @@
         <v>4</v>
       </c>
       <c r="B17" s="24" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D17" s="20" t="s">
         <v>1034</v>
       </c>
-      <c r="C17" s="24" t="s">
-        <v>1034</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>1040</v>
-      </c>
       <c r="E17" s="24" t="s">
         <v>694</v>
       </c>
       <c r="F17" s="43" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="G17" s="20" t="s">
         <v>694</v>
@@ -22729,19 +22731,19 @@
         <v>5</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>1041</v>
+        <v>1035</v>
       </c>
       <c r="E18" s="24" t="s">
         <v>694</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="G18" s="20" t="s">
         <v>694</v>
@@ -22758,19 +22760,19 @@
         <v>6</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="E19" s="24" t="s">
         <v>694</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="G19" s="20" t="s">
         <v>694</v>
@@ -22787,22 +22789,22 @@
         <v>7</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>1042</v>
+        <v>1036</v>
       </c>
       <c r="E20" s="24" t="s">
         <v>694</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>1073</v>
+        <v>1067</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="H20" s="20" t="s">
         <v>694</v>
@@ -22816,13 +22818,13 @@
         <v>8</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="E21" s="24" t="s">
         <v>694</v>
@@ -22845,19 +22847,19 @@
         <v>9</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="E22" s="24" t="s">
         <v>694</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="G22" s="20" t="s">
         <v>694</v>
@@ -22874,19 +22876,19 @@
         <v>0</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="E23" s="24" t="s">
         <v>694</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="G23" s="20" t="s">
         <v>694</v>
@@ -22903,13 +22905,13 @@
         <v>697</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
       <c r="D24" s="43" t="s">
-        <v>1112</v>
+        <v>1106</v>
       </c>
       <c r="E24" s="20" t="s">
         <v>694</v>
@@ -22921,7 +22923,7 @@
         <v>694</v>
       </c>
       <c r="H24" s="20" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="I24" s="24" t="s">
         <v>694</v>
@@ -22932,13 +22934,13 @@
         <v>698</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>1113</v>
+        <v>1107</v>
       </c>
       <c r="E25" s="20" t="s">
         <v>694</v>
@@ -22950,7 +22952,7 @@
         <v>694</v>
       </c>
       <c r="H25" s="20" t="s">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="I25" s="24" t="s">
         <v>694</v>
@@ -22961,25 +22963,25 @@
         <v>695</v>
       </c>
       <c r="B26" s="20" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D26" s="20" t="s">
         <v>1108</v>
       </c>
-      <c r="C26" s="24" t="s">
-        <v>1105</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>1114</v>
-      </c>
       <c r="E26" s="20" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="F26" s="20" t="s">
         <v>694</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="H26" s="20" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="I26" s="24" t="s">
         <v>694</v>
@@ -22990,25 +22992,25 @@
         <v>696</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>1115</v>
+        <v>1109</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="F27" s="20" t="s">
         <v>694</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="H27" s="20" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="I27" s="24" t="s">
         <v>694</v>
@@ -23019,13 +23021,13 @@
         <v>879</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>1116</v>
+        <v>1110</v>
       </c>
       <c r="E28" s="20" t="s">
         <v>694</v>
@@ -23037,7 +23039,7 @@
         <v>694</v>
       </c>
       <c r="H28" s="20" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="I28" s="24" t="s">
         <v>694</v>
@@ -23048,13 +23050,13 @@
         <v>880</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>1117</v>
+        <v>1111</v>
       </c>
       <c r="E29" s="20" t="s">
         <v>694</v>
@@ -23066,7 +23068,7 @@
         <v>694</v>
       </c>
       <c r="H29" s="20" t="s">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="I29" s="24" t="s">
         <v>694</v>
@@ -23077,25 +23079,25 @@
         <v>881</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>1118</v>
+        <v>1112</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>1123</v>
+        <v>1117</v>
       </c>
       <c r="G30" s="20" t="s">
         <v>694</v>
       </c>
       <c r="H30" s="20" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="I30" s="24" t="s">
         <v>694</v>
@@ -23106,25 +23108,25 @@
         <v>882</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>1119</v>
+        <v>1113</v>
       </c>
       <c r="E31" s="20" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>1124</v>
+        <v>1118</v>
       </c>
       <c r="G31" s="20" t="s">
         <v>694</v>
       </c>
       <c r="H31" s="20" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="I31" s="24" t="s">
         <v>694</v>
@@ -23135,10 +23137,10 @@
         <v>608</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
       <c r="D32" s="20" t="s">
         <v>694</v>
@@ -23164,7 +23166,7 @@
         <v>610</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>1121</v>
+        <v>1115</v>
       </c>
       <c r="C33" s="20" t="s">
         <v>896</v>
@@ -23193,13 +23195,13 @@
         <v>613</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>1111</v>
+        <v>1105</v>
       </c>
       <c r="C34" s="20" t="s">
         <v>898</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="E34" s="20" t="s">
         <v>694</v>
@@ -23222,7 +23224,7 @@
         <v>617</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>1111</v>
+        <v>1105</v>
       </c>
       <c r="C35" s="20" t="s">
         <v>694</v>
@@ -23280,10 +23282,10 @@
         <v>622</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="D37" s="20" t="s">
         <v>694</v>
@@ -23309,13 +23311,13 @@
         <v>941</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="D38" s="48" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
       <c r="E38" s="20" t="s">
         <v>694</v>
@@ -23327,10 +23329,10 @@
         <v>223</v>
       </c>
       <c r="H38" s="20" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="I38" s="24" t="s">
-        <v>1081</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="12">
@@ -23338,10 +23340,10 @@
         <v>943</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="D39" s="49" t="s">
         <v>694</v>
@@ -23350,7 +23352,7 @@
         <v>694</v>
       </c>
       <c r="F39" s="20" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="G39" s="20" t="s">
         <v>694</v>
@@ -23367,13 +23369,13 @@
         <v>945</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="E40" s="20" t="s">
         <v>694</v>
@@ -23396,10 +23398,10 @@
         <v>947</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="D41" s="20" t="s">
         <v>694</v>
@@ -23408,7 +23410,7 @@
         <v>694</v>
       </c>
       <c r="F41" s="20" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="G41" s="20" t="s">
         <v>694</v>
@@ -23425,10 +23427,10 @@
         <v>949</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="D42" s="20" t="s">
         <v>694</v>
@@ -23454,10 +23456,10 @@
         <v>951</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="D43" s="20" t="s">
         <v>694</v>
@@ -23483,13 +23485,13 @@
         <v>953</v>
       </c>
       <c r="B44" s="24" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="E44" s="20" t="s">
         <v>694</v>
@@ -23512,19 +23514,19 @@
         <v>955</v>
       </c>
       <c r="B45" s="24" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="E45" s="20" t="s">
         <v>694</v>
       </c>
       <c r="F45" s="20" t="s">
-        <v>1007</v>
+        <v>1124</v>
       </c>
       <c r="G45" s="20" t="s">
         <v>694</v>
@@ -23541,10 +23543,10 @@
         <v>957</v>
       </c>
       <c r="B46" s="24" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="C46" s="24" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="D46" s="20" t="s">
         <v>694</v>
@@ -23570,10 +23572,10 @@
         <v>959</v>
       </c>
       <c r="B47" s="24" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="D47" s="20" t="s">
         <v>694</v>
@@ -23599,10 +23601,10 @@
         <v>961</v>
       </c>
       <c r="B48" s="24" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="D48" s="20" t="s">
         <v>694</v>
@@ -23628,10 +23630,10 @@
         <v>963</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="D49" s="20" t="s">
         <v>694</v>
@@ -23860,10 +23862,10 @@
         <v>635</v>
       </c>
       <c r="B57" s="24" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="C57" s="24" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="D57" s="20" t="s">
         <v>887</v>
@@ -23889,13 +23891,13 @@
         <v>637</v>
       </c>
       <c r="B58" s="24" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="C58" s="24" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="D58" s="20" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="E58" s="24" t="s">
         <v>694</v>
@@ -23918,10 +23920,10 @@
         <v>638</v>
       </c>
       <c r="B59" s="24" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="C59" s="24" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="D59" s="20" t="s">
         <v>889</v>
@@ -23930,13 +23932,13 @@
         <v>694</v>
       </c>
       <c r="F59" s="20" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="G59" s="20" t="s">
         <v>694</v>
       </c>
       <c r="H59" s="20" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="I59" s="24" t="s">
         <v>694</v>
@@ -23947,25 +23949,25 @@
         <v>168</v>
       </c>
       <c r="B60" s="24" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="C60" s="24" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="E60" s="24" t="s">
         <v>694</v>
       </c>
       <c r="F60" s="20" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="G60" s="20" t="s">
         <v>694</v>
       </c>
       <c r="H60" s="20" t="s">
-        <v>1032</v>
+        <v>1123</v>
       </c>
       <c r="I60" s="24" t="s">
         <v>694</v>
@@ -23976,13 +23978,13 @@
         <v>115</v>
       </c>
       <c r="B61" s="24" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="C61" s="24" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="D61" s="20" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
       <c r="E61" s="24" t="s">
         <v>694</v>
@@ -24005,19 +24007,19 @@
         <v>49</v>
       </c>
       <c r="B62" s="24" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="C62" s="24" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="E62" s="24" t="s">
         <v>694</v>
       </c>
       <c r="F62" s="20" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
       <c r="G62" s="20" t="s">
         <v>694</v>
@@ -24034,19 +24036,19 @@
         <v>643</v>
       </c>
       <c r="B63" s="24" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="C63" s="24" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
       <c r="E63" s="24" t="s">
         <v>694</v>
       </c>
       <c r="F63" s="20" t="s">
-        <v>1031</v>
+        <v>1026</v>
       </c>
       <c r="G63" s="20" t="s">
         <v>694</v>
@@ -24063,13 +24065,13 @@
         <v>99</v>
       </c>
       <c r="B64" s="24" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="C64" s="24" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="D64" s="20" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
       <c r="E64" s="24" t="s">
         <v>694</v>
@@ -24092,13 +24094,13 @@
         <v>119</v>
       </c>
       <c r="B65" s="24" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="C65" s="24" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="D65" s="20" t="s">
-        <v>1092</v>
+        <v>1086</v>
       </c>
       <c r="E65" s="24" t="s">
         <v>694</v>
@@ -24121,10 +24123,10 @@
         <v>648</v>
       </c>
       <c r="B66" s="24" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="C66" s="24" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="D66" s="20" t="s">
         <v>694</v>
@@ -24133,7 +24135,7 @@
         <v>694</v>
       </c>
       <c r="F66" s="20" t="s">
-        <v>1029</v>
+        <v>1024</v>
       </c>
       <c r="G66" s="20" t="s">
         <v>694</v>
@@ -24150,13 +24152,13 @@
         <v>650</v>
       </c>
       <c r="B67" s="24" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="C67" s="24" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="D67" s="20" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
       <c r="E67" s="24" t="s">
         <v>694</v>
@@ -24179,13 +24181,13 @@
         <v>121</v>
       </c>
       <c r="B68" s="24" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="C68" s="24" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="D68" s="20" t="s">
-        <v>1094</v>
+        <v>1088</v>
       </c>
       <c r="E68" s="24" t="s">
         <v>694</v>
@@ -24208,10 +24210,10 @@
         <v>653</v>
       </c>
       <c r="B69" s="24" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="C69" s="24" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="D69" s="20" t="s">
         <v>694</v>
@@ -24237,13 +24239,13 @@
         <v>50</v>
       </c>
       <c r="B70" s="24" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="C70" s="24" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="D70" s="20" t="s">
-        <v>1095</v>
+        <v>1089</v>
       </c>
       <c r="E70" s="24" t="s">
         <v>694</v>
@@ -24266,19 +24268,19 @@
         <v>124</v>
       </c>
       <c r="B71" s="24" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="C71" s="24" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="D71" s="20" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="E71" s="24" t="s">
         <v>694</v>
       </c>
       <c r="F71" s="20" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="G71" s="20" t="s">
         <v>694</v>
@@ -24295,13 +24297,13 @@
         <v>51</v>
       </c>
       <c r="B72" s="24" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="C72" s="24" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="D72" s="20" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="E72" s="24" t="s">
         <v>694</v>
@@ -24324,10 +24326,10 @@
         <v>660</v>
       </c>
       <c r="B73" s="24" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="C73" s="24" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="D73" s="20" t="s">
         <v>694</v>
@@ -24353,13 +24355,13 @@
         <v>48</v>
       </c>
       <c r="B74" s="24" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="C74" s="24" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="D74" s="20" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="E74" s="24" t="s">
         <v>694</v>
@@ -24382,13 +24384,13 @@
         <v>662</v>
       </c>
       <c r="B75" s="24" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="C75" s="24" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="D75" s="20" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="E75" s="24" t="s">
         <v>694</v>
@@ -24411,13 +24413,13 @@
         <v>664</v>
       </c>
       <c r="B76" s="24" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="C76" s="24" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="D76" s="20" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="E76" s="24" t="s">
         <v>694</v>
@@ -24440,19 +24442,19 @@
         <v>665</v>
       </c>
       <c r="B77" s="24" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="C77" s="24" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="D77" s="20" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="E77" s="24" t="s">
         <v>694</v>
       </c>
       <c r="F77" s="20" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="G77" s="20" t="s">
         <v>694</v>
@@ -24469,10 +24471,10 @@
         <v>666</v>
       </c>
       <c r="B78" s="24" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="C78" s="24" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="D78" s="20" t="s">
         <v>896</v>
@@ -24487,7 +24489,7 @@
         <v>694</v>
       </c>
       <c r="H78" s="20" t="s">
-        <v>1015</v>
+        <v>1122</v>
       </c>
       <c r="I78" s="24" t="s">
         <v>694</v>
@@ -24498,13 +24500,13 @@
         <v>128</v>
       </c>
       <c r="B79" s="24" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="C79" s="24" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="D79" s="20" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="E79" s="24" t="s">
         <v>694</v>
@@ -24527,10 +24529,10 @@
         <v>669</v>
       </c>
       <c r="B80" s="24" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="C80" s="24" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="D80" s="20" t="s">
         <v>898</v>
@@ -24556,13 +24558,13 @@
         <v>672</v>
       </c>
       <c r="B81" s="24" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="C81" s="24" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="D81" s="20" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
       <c r="E81" s="24" t="s">
         <v>694</v>
@@ -24585,10 +24587,10 @@
         <v>674</v>
       </c>
       <c r="B82" s="24" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="C82" s="24" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="D82" s="20" t="s">
         <v>899</v>
@@ -24614,13 +24616,13 @@
         <v>692</v>
       </c>
       <c r="B83" s="24" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="D83" s="20" t="s">
-        <v>1103</v>
+        <v>1097</v>
       </c>
       <c r="E83" s="20" t="s">
         <v>694</v>
@@ -24955,9 +24957,7 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:C92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2" defaultRowHeight="11.25" customHeight="1"/>
   <cols>
@@ -28103,7 +28103,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -28495,7 +28495,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="C14" s="20" t="s">
         <v>269</v>
@@ -28524,7 +28524,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="C15" s="20" t="s">
         <v>269</v>
@@ -28553,7 +28553,7 @@
         <v>3</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="C16" s="20" t="s">
         <v>269</v>
@@ -28582,7 +28582,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="C17" s="20" t="s">
         <v>269</v>
@@ -28611,7 +28611,7 @@
         <v>5</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="C18" s="20" t="s">
         <v>269</v>
@@ -28640,7 +28640,7 @@
         <v>6</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="C19" s="20" t="s">
         <v>269</v>
@@ -28669,7 +28669,7 @@
         <v>7</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="C20" s="20" t="s">
         <v>269</v>
@@ -28698,7 +28698,7 @@
         <v>8</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="C21" s="20" t="s">
         <v>269</v>
@@ -28727,7 +28727,7 @@
         <v>9</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="C22" s="20" t="s">
         <v>269</v>
@@ -28756,7 +28756,7 @@
         <v>0</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="C23" s="20" t="s">
         <v>269</v>
@@ -29742,7 +29742,7 @@
         <v>635</v>
       </c>
       <c r="B57" s="24" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="C57" s="20" t="s">
         <v>269</v>
@@ -29771,7 +29771,7 @@
         <v>637</v>
       </c>
       <c r="B58" s="24" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="C58" s="20" t="s">
         <v>269</v>
@@ -29800,7 +29800,7 @@
         <v>638</v>
       </c>
       <c r="B59" s="24" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="C59" s="20" t="s">
         <v>269</v>
@@ -29829,7 +29829,7 @@
         <v>168</v>
       </c>
       <c r="B60" s="24" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="C60" s="20" t="s">
         <v>269</v>
@@ -29858,7 +29858,7 @@
         <v>115</v>
       </c>
       <c r="B61" s="24" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="C61" s="20" t="s">
         <v>269</v>
@@ -29887,7 +29887,7 @@
         <v>49</v>
       </c>
       <c r="B62" s="24" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="C62" s="20" t="s">
         <v>269</v>
@@ -29916,7 +29916,7 @@
         <v>643</v>
       </c>
       <c r="B63" s="24" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="C63" s="20" t="s">
         <v>269</v>
@@ -29945,7 +29945,7 @@
         <v>99</v>
       </c>
       <c r="B64" s="24" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="C64" s="20" t="s">
         <v>269</v>
@@ -29974,7 +29974,7 @@
         <v>119</v>
       </c>
       <c r="B65" s="24" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="C65" s="20" t="s">
         <v>269</v>
@@ -30003,7 +30003,7 @@
         <v>648</v>
       </c>
       <c r="B66" s="24" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="C66" s="20" t="s">
         <v>269</v>
@@ -30032,7 +30032,7 @@
         <v>650</v>
       </c>
       <c r="B67" s="24" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="C67" s="20" t="s">
         <v>269</v>
@@ -30061,7 +30061,7 @@
         <v>121</v>
       </c>
       <c r="B68" s="24" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="C68" s="20" t="s">
         <v>269</v>
@@ -30090,7 +30090,7 @@
         <v>653</v>
       </c>
       <c r="B69" s="24" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="C69" s="20" t="s">
         <v>269</v>
@@ -30119,7 +30119,7 @@
         <v>50</v>
       </c>
       <c r="B70" s="24" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="C70" s="20" t="s">
         <v>269</v>
@@ -30148,7 +30148,7 @@
         <v>124</v>
       </c>
       <c r="B71" s="24" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="C71" s="20" t="s">
         <v>269</v>
@@ -30177,7 +30177,7 @@
         <v>51</v>
       </c>
       <c r="B72" s="24" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="C72" s="20" t="s">
         <v>269</v>
@@ -30206,7 +30206,7 @@
         <v>660</v>
       </c>
       <c r="B73" s="24" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="C73" s="20" t="s">
         <v>269</v>
@@ -30235,7 +30235,7 @@
         <v>48</v>
       </c>
       <c r="B74" s="24" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="C74" s="20" t="s">
         <v>269</v>
@@ -30264,7 +30264,7 @@
         <v>662</v>
       </c>
       <c r="B75" s="24" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="C75" s="20" t="s">
         <v>269</v>
@@ -30293,7 +30293,7 @@
         <v>664</v>
       </c>
       <c r="B76" s="24" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="C76" s="20" t="s">
         <v>269</v>
@@ -30322,7 +30322,7 @@
         <v>665</v>
       </c>
       <c r="B77" s="24" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="C77" s="20" t="s">
         <v>269</v>
@@ -30351,7 +30351,7 @@
         <v>666</v>
       </c>
       <c r="B78" s="24" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="C78" s="20" t="s">
         <v>269</v>
@@ -30380,7 +30380,7 @@
         <v>128</v>
       </c>
       <c r="B79" s="24" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="C79" s="20" t="s">
         <v>269</v>
@@ -30409,7 +30409,7 @@
         <v>669</v>
       </c>
       <c r="B80" s="24" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="C80" s="20" t="s">
         <v>269</v>
@@ -30438,7 +30438,7 @@
         <v>672</v>
       </c>
       <c r="B81" s="24" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="C81" s="20" t="s">
         <v>269</v>
@@ -30467,7 +30467,7 @@
         <v>674</v>
       </c>
       <c r="B82" s="24" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="C82" s="20" t="s">
         <v>269</v>
@@ -30496,7 +30496,7 @@
         <v>692</v>
       </c>
       <c r="B83" s="24" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="C83" s="20" t="s">
         <v>269</v>

--- a/shortcut_keys.xlsx
+++ b/shortcut_keys.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE3A5B7-7A32-4FFD-BA2B-290A532083ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B572D912-9F1C-4F80-B098-78D02D8FC1A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="26700" windowHeight="16440" xr2:uid="{43490DDC-BDDE-46A2-A177-1DE0A5EB93B9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="26700" windowHeight="16440" activeTab="3" xr2:uid="{43490DDC-BDDE-46A2-A177-1DE0A5EB93B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Windows10" sheetId="7" r:id="rId1"/>
@@ -51,14 +51,6 @@
     <definedName name="_xlnm.Print_Area" localSheetId="16">秀丸表!$A$1:$I$87</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -151,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4203" uniqueCount="1126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4203" uniqueCount="1129">
   <si>
     <t>Ctrl</t>
   </si>
@@ -4703,20 +4695,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>背景色をトグル</t>
-    <rPh sb="0" eb="3">
-      <t>ハイケイショク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>フォント色をトグル</t>
-    <rPh sb="4" eb="5">
-      <t>イロ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>背景色をトグルの色を変更</t>
     <rPh sb="0" eb="3">
       <t>ハイケイショク</t>
@@ -5315,6 +5293,28 @@
   </si>
   <si>
     <t>=Ctrl+p</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Excel方眼紙</t>
+    <rPh sb="5" eb="8">
+      <t>ホウガンシ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Excel数式整形化解除</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Excel数式整形化実施</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>背景色をトグル</t>
+  </si>
+  <si>
+    <t>フォント色をトグル</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -5408,7 +5408,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5442,6 +5442,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC0C0C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5664,9 +5670,6 @@
     <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top"/>
     </xf>
@@ -5746,6 +5749,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="20" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -9480,7 +9486,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2" defaultRowHeight="11.25" customHeight="1"/>
   <cols>
@@ -15049,36 +15057,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>543</v>
       </c>
-      <c r="B1" s="30" t="s">
-        <v>269</v>
-      </c>
-      <c r="C1" s="30" t="s">
+      <c r="B1" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>545</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="29" t="s">
         <v>544</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="29" t="s">
         <v>546</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="29" t="s">
         <v>547</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="29" t="s">
         <v>548</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="29" t="s">
         <v>549</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="30" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="17" customFormat="1" ht="12">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="25" t="s">
         <v>218</v>
       </c>
       <c r="B2" s="20" t="s">
@@ -15102,12 +15110,12 @@
       <c r="H2" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="31" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="17" customFormat="1" ht="12">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="25" t="s">
         <v>154</v>
       </c>
       <c r="B3" s="20" t="s">
@@ -15131,12 +15139,12 @@
       <c r="H3" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I3" s="32" t="s">
+      <c r="I3" s="31" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="17" customFormat="1" ht="12">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="25" t="s">
         <v>156</v>
       </c>
       <c r="B4" s="20" t="s">
@@ -15160,12 +15168,12 @@
       <c r="H4" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I4" s="32" t="s">
+      <c r="I4" s="31" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="17" customFormat="1" ht="12">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="25" t="s">
         <v>150</v>
       </c>
       <c r="B5" s="20" t="s">
@@ -15189,12 +15197,12 @@
       <c r="H5" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I5" s="32" t="s">
+      <c r="I5" s="31" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="17" customFormat="1" ht="12">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="25" t="s">
         <v>159</v>
       </c>
       <c r="B6" s="20" t="s">
@@ -15218,12 +15226,12 @@
       <c r="H6" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I6" s="32" t="s">
+      <c r="I6" s="31" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="17" customFormat="1" ht="12">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="25" t="s">
         <v>53</v>
       </c>
       <c r="B7" s="20" t="s">
@@ -15247,12 +15255,12 @@
       <c r="H7" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I7" s="32" t="s">
+      <c r="I7" s="31" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="17" customFormat="1" ht="12">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="25" t="s">
         <v>227</v>
       </c>
       <c r="B8" s="20" t="s">
@@ -15276,12 +15284,12 @@
       <c r="H8" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I8" s="32" t="s">
+      <c r="I8" s="31" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="17" customFormat="1" ht="12">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="25" t="s">
         <v>241</v>
       </c>
       <c r="B9" s="20" t="s">
@@ -15305,12 +15313,12 @@
       <c r="H9" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I9" s="32" t="s">
+      <c r="I9" s="31" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="17" customFormat="1" ht="12">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="25" t="s">
         <v>238</v>
       </c>
       <c r="B10" s="20" t="s">
@@ -15334,12 +15342,12 @@
       <c r="H10" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I10" s="32" t="s">
+      <c r="I10" s="31" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="17" customFormat="1" ht="12">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="25" t="s">
         <v>141</v>
       </c>
       <c r="B11" s="20" t="s">
@@ -15363,12 +15371,12 @@
       <c r="H11" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I11" s="32" t="s">
+      <c r="I11" s="31" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="17" customFormat="1" ht="12">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="25" t="s">
         <v>224</v>
       </c>
       <c r="B12" s="20" t="s">
@@ -15392,12 +15400,12 @@
       <c r="H12" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I12" s="32" t="s">
+      <c r="I12" s="31" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="17" customFormat="1" ht="12">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="25" t="s">
         <v>228</v>
       </c>
       <c r="B13" s="20" t="s">
@@ -15421,12 +15429,12 @@
       <c r="H13" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I13" s="32" t="s">
+      <c r="I13" s="31" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="12">
-      <c r="A14" s="27">
+      <c r="A14" s="26">
         <v>1</v>
       </c>
       <c r="B14" s="20" t="s">
@@ -15450,12 +15458,12 @@
       <c r="H14" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I14" s="32" t="s">
+      <c r="I14" s="31" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="12">
-      <c r="A15" s="27">
+      <c r="A15" s="26">
         <v>2</v>
       </c>
       <c r="B15" s="20" t="s">
@@ -15479,12 +15487,12 @@
       <c r="H15" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I15" s="32" t="s">
+      <c r="I15" s="31" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="12">
-      <c r="A16" s="27">
+      <c r="A16" s="26">
         <v>3</v>
       </c>
       <c r="B16" s="20" t="s">
@@ -15508,12 +15516,12 @@
       <c r="H16" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I16" s="32" t="s">
+      <c r="I16" s="31" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="12">
-      <c r="A17" s="27">
+      <c r="A17" s="26">
         <v>4</v>
       </c>
       <c r="B17" s="20" t="s">
@@ -15537,12 +15545,12 @@
       <c r="H17" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I17" s="32" t="s">
+      <c r="I17" s="31" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="12">
-      <c r="A18" s="27">
+      <c r="A18" s="26">
         <v>5</v>
       </c>
       <c r="B18" s="20" t="s">
@@ -15566,12 +15574,12 @@
       <c r="H18" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I18" s="32" t="s">
+      <c r="I18" s="31" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="12">
-      <c r="A19" s="27">
+      <c r="A19" s="26">
         <v>6</v>
       </c>
       <c r="B19" s="20" t="s">
@@ -15595,12 +15603,12 @@
       <c r="H19" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I19" s="32" t="s">
+      <c r="I19" s="31" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="12">
-      <c r="A20" s="27">
+      <c r="A20" s="26">
         <v>7</v>
       </c>
       <c r="B20" s="20" t="s">
@@ -15624,12 +15632,12 @@
       <c r="H20" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I20" s="32" t="s">
+      <c r="I20" s="31" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="12">
-      <c r="A21" s="27">
+      <c r="A21" s="26">
         <v>8</v>
       </c>
       <c r="B21" s="20" t="s">
@@ -15653,12 +15661,12 @@
       <c r="H21" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I21" s="32" t="s">
+      <c r="I21" s="31" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="12">
-      <c r="A22" s="27">
+      <c r="A22" s="26">
         <v>9</v>
       </c>
       <c r="B22" s="20" t="s">
@@ -15682,12 +15690,12 @@
       <c r="H22" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I22" s="32" t="s">
+      <c r="I22" s="31" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="12">
-      <c r="A23" s="27">
+      <c r="A23" s="26">
         <v>0</v>
       </c>
       <c r="B23" s="20" t="s">
@@ -15711,15 +15719,15 @@
       <c r="H23" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I23" s="32" t="s">
+      <c r="I23" s="31" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="17" customFormat="1" ht="12">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="25" t="s">
         <v>697</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="23" t="s">
         <v>967</v>
       </c>
       <c r="C24" s="20" t="s">
@@ -15740,15 +15748,15 @@
       <c r="H24" s="20" t="s">
         <v>901</v>
       </c>
-      <c r="I24" s="32" t="s">
+      <c r="I24" s="31" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="17" customFormat="1" ht="12">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="25" t="s">
         <v>698</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="23" t="s">
         <v>967</v>
       </c>
       <c r="C25" s="20" t="s">
@@ -15769,15 +15777,15 @@
       <c r="H25" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I25" s="32" t="s">
+      <c r="I25" s="31" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="12">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="25" t="s">
         <v>695</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="23" t="s">
         <v>967</v>
       </c>
       <c r="C26" s="20" t="s">
@@ -15798,15 +15806,15 @@
       <c r="H26" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I26" s="32" t="s">
+      <c r="I26" s="31" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="12">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="25" t="s">
         <v>696</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="23" t="s">
         <v>967</v>
       </c>
       <c r="C27" s="20" t="s">
@@ -15827,12 +15835,12 @@
       <c r="H27" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I27" s="32" t="s">
+      <c r="I27" s="31" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="12">
-      <c r="A28" s="28" t="s">
+      <c r="A28" s="27" t="s">
         <v>608</v>
       </c>
       <c r="B28" s="20" t="s">
@@ -15856,12 +15864,12 @@
       <c r="H28" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I28" s="32" t="s">
+      <c r="I28" s="31" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="12">
-      <c r="A29" s="28" t="s">
+      <c r="A29" s="27" t="s">
         <v>610</v>
       </c>
       <c r="B29" s="20" t="s">
@@ -15885,12 +15893,12 @@
       <c r="H29" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I29" s="32" t="s">
+      <c r="I29" s="31" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="12">
-      <c r="A30" s="28" t="s">
+      <c r="A30" s="27" t="s">
         <v>613</v>
       </c>
       <c r="B30" s="20" t="s">
@@ -15914,12 +15922,12 @@
       <c r="H30" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I30" s="32" t="s">
+      <c r="I30" s="31" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="12">
-      <c r="A31" s="28" t="s">
+      <c r="A31" s="27" t="s">
         <v>617</v>
       </c>
       <c r="B31" s="20" t="s">
@@ -15943,12 +15951,12 @@
       <c r="H31" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I31" s="32" t="s">
+      <c r="I31" s="31" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="12">
-      <c r="A32" s="28" t="s">
+      <c r="A32" s="27" t="s">
         <v>693</v>
       </c>
       <c r="B32" s="20" t="s">
@@ -15972,12 +15980,12 @@
       <c r="H32" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I32" s="32" t="s">
+      <c r="I32" s="31" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="12">
-      <c r="A33" s="28" t="s">
+      <c r="A33" s="27" t="s">
         <v>620</v>
       </c>
       <c r="B33" s="20" t="s">
@@ -16001,12 +16009,12 @@
       <c r="H33" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I33" s="32" t="s">
+      <c r="I33" s="31" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="12">
-      <c r="A34" s="28" t="s">
+      <c r="A34" s="27" t="s">
         <v>621</v>
       </c>
       <c r="B34" s="20" t="s">
@@ -16030,12 +16038,12 @@
       <c r="H34" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I34" s="32" t="s">
+      <c r="I34" s="31" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="12">
-      <c r="A35" s="28" t="s">
+      <c r="A35" s="27" t="s">
         <v>622</v>
       </c>
       <c r="B35" s="20" t="s">
@@ -16059,12 +16067,12 @@
       <c r="H35" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I35" s="32" t="s">
+      <c r="I35" s="31" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="12">
-      <c r="A36" s="42" t="s">
+      <c r="A36" s="41" t="s">
         <v>942</v>
       </c>
       <c r="B36" s="20" t="s">
@@ -16088,12 +16096,12 @@
       <c r="H36" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I36" s="32" t="s">
+      <c r="I36" s="31" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="12">
-      <c r="A37" s="28" t="s">
+      <c r="A37" s="27" t="s">
         <v>944</v>
       </c>
       <c r="B37" s="20" t="s">
@@ -16117,12 +16125,12 @@
       <c r="H37" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I37" s="32" t="s">
+      <c r="I37" s="31" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="12">
-      <c r="A38" s="28" t="s">
+      <c r="A38" s="27" t="s">
         <v>946</v>
       </c>
       <c r="B38" s="20" t="s">
@@ -16146,12 +16154,12 @@
       <c r="H38" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I38" s="32" t="s">
+      <c r="I38" s="31" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="12">
-      <c r="A39" s="42" t="s">
+      <c r="A39" s="41" t="s">
         <v>948</v>
       </c>
       <c r="B39" s="20" t="s">
@@ -16175,12 +16183,12 @@
       <c r="H39" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I39" s="32" t="s">
+      <c r="I39" s="31" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="12">
-      <c r="A40" s="28" t="s">
+      <c r="A40" s="27" t="s">
         <v>950</v>
       </c>
       <c r="B40" s="20" t="s">
@@ -16204,12 +16212,12 @@
       <c r="H40" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I40" s="32" t="s">
+      <c r="I40" s="31" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="12">
-      <c r="A41" s="28" t="s">
+      <c r="A41" s="27" t="s">
         <v>952</v>
       </c>
       <c r="B41" s="20" t="s">
@@ -16233,12 +16241,12 @@
       <c r="H41" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I41" s="32" t="s">
+      <c r="I41" s="31" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="12">
-      <c r="A42" s="28" t="s">
+      <c r="A42" s="27" t="s">
         <v>954</v>
       </c>
       <c r="B42" s="20" t="s">
@@ -16262,12 +16270,12 @@
       <c r="H42" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I42" s="32" t="s">
+      <c r="I42" s="31" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="12">
-      <c r="A43" s="28" t="s">
+      <c r="A43" s="27" t="s">
         <v>956</v>
       </c>
       <c r="B43" s="20" t="s">
@@ -16291,12 +16299,12 @@
       <c r="H43" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I43" s="32" t="s">
+      <c r="I43" s="31" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="12">
-      <c r="A44" s="28" t="s">
+      <c r="A44" s="27" t="s">
         <v>958</v>
       </c>
       <c r="B44" s="20" t="s">
@@ -16320,12 +16328,12 @@
       <c r="H44" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I44" s="32" t="s">
+      <c r="I44" s="31" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="12">
-      <c r="A45" s="28" t="s">
+      <c r="A45" s="27" t="s">
         <v>960</v>
       </c>
       <c r="B45" s="20" t="s">
@@ -16349,12 +16357,12 @@
       <c r="H45" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I45" s="32" t="s">
+      <c r="I45" s="31" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="12">
-      <c r="A46" s="28" t="s">
+      <c r="A46" s="27" t="s">
         <v>962</v>
       </c>
       <c r="B46" s="20" t="s">
@@ -16378,12 +16386,12 @@
       <c r="H46" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I46" s="32" t="s">
+      <c r="I46" s="31" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="12">
-      <c r="A47" s="28" t="s">
+      <c r="A47" s="27" t="s">
         <v>964</v>
       </c>
       <c r="B47" s="20" t="s">
@@ -16407,12 +16415,12 @@
       <c r="H47" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I47" s="32" t="s">
+      <c r="I47" s="31" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="12">
-      <c r="A48" s="28" t="s">
+      <c r="A48" s="27" t="s">
         <v>691</v>
       </c>
       <c r="B48" s="20" t="s">
@@ -16436,12 +16444,12 @@
       <c r="H48" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I48" s="32" t="s">
+      <c r="I48" s="31" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="12">
-      <c r="A49" s="28" t="s">
+      <c r="A49" s="27" t="s">
         <v>629</v>
       </c>
       <c r="B49" s="20" t="s">
@@ -16465,12 +16473,12 @@
       <c r="H49" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I49" s="32" t="s">
+      <c r="I49" s="31" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="12">
-      <c r="A50" s="28" t="s">
+      <c r="A50" s="27" t="s">
         <v>631</v>
       </c>
       <c r="B50" s="20" t="s">
@@ -16494,12 +16502,12 @@
       <c r="H50" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I50" s="32" t="s">
+      <c r="I50" s="31" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="12">
-      <c r="A51" s="28" t="s">
+      <c r="A51" s="27" t="s">
         <v>632</v>
       </c>
       <c r="B51" s="20" t="s">
@@ -16523,12 +16531,12 @@
       <c r="H51" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I51" s="32" t="s">
+      <c r="I51" s="31" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="12">
-      <c r="A52" s="28" t="s">
+      <c r="A52" s="27" t="s">
         <v>633</v>
       </c>
       <c r="B52" s="20" t="s">
@@ -16552,12 +16560,12 @@
       <c r="H52" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I52" s="32" t="s">
+      <c r="I52" s="31" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="12">
-      <c r="A53" s="28" t="s">
+      <c r="A53" s="27" t="s">
         <v>973</v>
       </c>
       <c r="B53" s="20" t="s">
@@ -16581,12 +16589,12 @@
       <c r="H53" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I53" s="32" t="s">
+      <c r="I53" s="31" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="12">
-      <c r="A54" s="28" t="s">
+      <c r="A54" s="27" t="s">
         <v>634</v>
       </c>
       <c r="B54" s="20" t="s">
@@ -16610,15 +16618,15 @@
       <c r="H54" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I54" s="32" t="s">
+      <c r="I54" s="31" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="12">
-      <c r="A55" s="28" t="s">
+      <c r="A55" s="27" t="s">
         <v>635</v>
       </c>
-      <c r="B55" s="24" t="s">
+      <c r="B55" s="23" t="s">
         <v>968</v>
       </c>
       <c r="C55" s="20" t="s">
@@ -16639,15 +16647,15 @@
       <c r="H55" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I55" s="32" t="s">
+      <c r="I55" s="31" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="12">
-      <c r="A56" s="28" t="s">
+      <c r="A56" s="27" t="s">
         <v>637</v>
       </c>
-      <c r="B56" s="24" t="s">
+      <c r="B56" s="23" t="s">
         <v>968</v>
       </c>
       <c r="C56" s="20" t="s">
@@ -16668,15 +16676,15 @@
       <c r="H56" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I56" s="32" t="s">
+      <c r="I56" s="31" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="12">
-      <c r="A57" s="28" t="s">
+      <c r="A57" s="27" t="s">
         <v>638</v>
       </c>
-      <c r="B57" s="24" t="s">
+      <c r="B57" s="23" t="s">
         <v>968</v>
       </c>
       <c r="C57" s="20" t="s">
@@ -16697,15 +16705,15 @@
       <c r="H57" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I57" s="32" t="s">
+      <c r="I57" s="31" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="12">
-      <c r="A58" s="28" t="s">
+      <c r="A58" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="B58" s="24" t="s">
+      <c r="B58" s="23" t="s">
         <v>968</v>
       </c>
       <c r="C58" s="20" t="s">
@@ -16726,15 +16734,15 @@
       <c r="H58" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I58" s="32" t="s">
+      <c r="I58" s="31" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="12">
-      <c r="A59" s="28" t="s">
+      <c r="A59" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="B59" s="24" t="s">
+      <c r="B59" s="23" t="s">
         <v>968</v>
       </c>
       <c r="C59" s="20" t="s">
@@ -16755,15 +16763,15 @@
       <c r="H59" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I59" s="32" t="s">
+      <c r="I59" s="31" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="12">
-      <c r="A60" s="28" t="s">
+      <c r="A60" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="B60" s="24" t="s">
+      <c r="B60" s="23" t="s">
         <v>968</v>
       </c>
       <c r="C60" s="20" t="s">
@@ -16784,15 +16792,15 @@
       <c r="H60" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I60" s="32" t="s">
+      <c r="I60" s="31" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="12">
-      <c r="A61" s="28" t="s">
+      <c r="A61" s="27" t="s">
         <v>643</v>
       </c>
-      <c r="B61" s="24" t="s">
+      <c r="B61" s="23" t="s">
         <v>968</v>
       </c>
       <c r="C61" s="20" t="s">
@@ -16813,15 +16821,15 @@
       <c r="H61" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I61" s="32" t="s">
+      <c r="I61" s="31" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="12">
-      <c r="A62" s="28" t="s">
+      <c r="A62" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="B62" s="24" t="s">
+      <c r="B62" s="23" t="s">
         <v>968</v>
       </c>
       <c r="C62" s="20" t="s">
@@ -16842,15 +16850,15 @@
       <c r="H62" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I62" s="32" t="s">
+      <c r="I62" s="31" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="12">
-      <c r="A63" s="28" t="s">
+      <c r="A63" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="B63" s="24" t="s">
+      <c r="B63" s="23" t="s">
         <v>968</v>
       </c>
       <c r="C63" s="20" t="s">
@@ -16871,15 +16879,15 @@
       <c r="H63" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I63" s="32" t="s">
+      <c r="I63" s="31" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="64" spans="1:9" s="18" customFormat="1" ht="12">
-      <c r="A64" s="28" t="s">
+      <c r="A64" s="27" t="s">
         <v>648</v>
       </c>
-      <c r="B64" s="24" t="s">
+      <c r="B64" s="23" t="s">
         <v>968</v>
       </c>
       <c r="C64" s="20" t="s">
@@ -16900,15 +16908,15 @@
       <c r="H64" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I64" s="32" t="s">
+      <c r="I64" s="31" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="65" spans="1:9" s="18" customFormat="1" ht="12">
-      <c r="A65" s="28" t="s">
+      <c r="A65" s="27" t="s">
         <v>650</v>
       </c>
-      <c r="B65" s="24" t="s">
+      <c r="B65" s="23" t="s">
         <v>968</v>
       </c>
       <c r="C65" s="20" t="s">
@@ -16929,15 +16937,15 @@
       <c r="H65" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I65" s="32" t="s">
+      <c r="I65" s="31" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="12">
-      <c r="A66" s="28" t="s">
+      <c r="A66" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="B66" s="24" t="s">
+      <c r="B66" s="23" t="s">
         <v>968</v>
       </c>
       <c r="C66" s="20" t="s">
@@ -16958,15 +16966,15 @@
       <c r="H66" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I66" s="32" t="s">
+      <c r="I66" s="31" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="12">
-      <c r="A67" s="28" t="s">
+      <c r="A67" s="27" t="s">
         <v>653</v>
       </c>
-      <c r="B67" s="24" t="s">
+      <c r="B67" s="23" t="s">
         <v>968</v>
       </c>
       <c r="C67" s="20" t="s">
@@ -16987,15 +16995,15 @@
       <c r="H67" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I67" s="32" t="s">
+      <c r="I67" s="31" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="12">
-      <c r="A68" s="28" t="s">
+      <c r="A68" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="B68" s="24" t="s">
+      <c r="B68" s="23" t="s">
         <v>968</v>
       </c>
       <c r="C68" s="20" t="s">
@@ -17016,15 +17024,15 @@
       <c r="H68" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I68" s="32" t="s">
+      <c r="I68" s="31" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="12">
-      <c r="A69" s="28" t="s">
+      <c r="A69" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="B69" s="24" t="s">
+      <c r="B69" s="23" t="s">
         <v>968</v>
       </c>
       <c r="C69" s="20" t="s">
@@ -17045,15 +17053,15 @@
       <c r="H69" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I69" s="32" t="s">
+      <c r="I69" s="31" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="12">
-      <c r="A70" s="28" t="s">
+      <c r="A70" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="B70" s="24" t="s">
+      <c r="B70" s="23" t="s">
         <v>968</v>
       </c>
       <c r="C70" s="20" t="s">
@@ -17074,15 +17082,15 @@
       <c r="H70" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I70" s="32" t="s">
+      <c r="I70" s="31" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="12">
-      <c r="A71" s="28" t="s">
+      <c r="A71" s="27" t="s">
         <v>660</v>
       </c>
-      <c r="B71" s="24" t="s">
+      <c r="B71" s="23" t="s">
         <v>968</v>
       </c>
       <c r="C71" s="20" t="s">
@@ -17103,15 +17111,15 @@
       <c r="H71" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I71" s="32" t="s">
+      <c r="I71" s="31" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="12">
-      <c r="A72" s="28" t="s">
+      <c r="A72" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="B72" s="24" t="s">
+      <c r="B72" s="23" t="s">
         <v>968</v>
       </c>
       <c r="C72" s="20" t="s">
@@ -17132,15 +17140,15 @@
       <c r="H72" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I72" s="32" t="s">
+      <c r="I72" s="31" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="12">
-      <c r="A73" s="28" t="s">
+      <c r="A73" s="27" t="s">
         <v>662</v>
       </c>
-      <c r="B73" s="24" t="s">
+      <c r="B73" s="23" t="s">
         <v>968</v>
       </c>
       <c r="C73" s="20" t="s">
@@ -17161,15 +17169,15 @@
       <c r="H73" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I73" s="32" t="s">
+      <c r="I73" s="31" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="12">
-      <c r="A74" s="28" t="s">
+      <c r="A74" s="27" t="s">
         <v>664</v>
       </c>
-      <c r="B74" s="24" t="s">
+      <c r="B74" s="23" t="s">
         <v>968</v>
       </c>
       <c r="C74" s="20" t="s">
@@ -17190,15 +17198,15 @@
       <c r="H74" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I74" s="32" t="s">
+      <c r="I74" s="31" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="12">
-      <c r="A75" s="28" t="s">
+      <c r="A75" s="27" t="s">
         <v>665</v>
       </c>
-      <c r="B75" s="24" t="s">
+      <c r="B75" s="23" t="s">
         <v>968</v>
       </c>
       <c r="C75" s="20" t="s">
@@ -17219,15 +17227,15 @@
       <c r="H75" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I75" s="32" t="s">
+      <c r="I75" s="31" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="12">
-      <c r="A76" s="28" t="s">
+      <c r="A76" s="27" t="s">
         <v>666</v>
       </c>
-      <c r="B76" s="24" t="s">
+      <c r="B76" s="23" t="s">
         <v>968</v>
       </c>
       <c r="C76" s="20" t="s">
@@ -17248,15 +17256,15 @@
       <c r="H76" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I76" s="32" t="s">
+      <c r="I76" s="31" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="12">
-      <c r="A77" s="28" t="s">
+      <c r="A77" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="B77" s="24" t="s">
+      <c r="B77" s="23" t="s">
         <v>968</v>
       </c>
       <c r="C77" s="20" t="s">
@@ -17277,15 +17285,15 @@
       <c r="H77" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I77" s="32" t="s">
+      <c r="I77" s="31" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="12">
-      <c r="A78" s="28" t="s">
+      <c r="A78" s="27" t="s">
         <v>669</v>
       </c>
-      <c r="B78" s="24" t="s">
+      <c r="B78" s="23" t="s">
         <v>968</v>
       </c>
       <c r="C78" s="20" t="s">
@@ -17306,15 +17314,15 @@
       <c r="H78" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I78" s="32" t="s">
+      <c r="I78" s="31" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="12">
-      <c r="A79" s="28" t="s">
+      <c r="A79" s="27" t="s">
         <v>672</v>
       </c>
-      <c r="B79" s="24" t="s">
+      <c r="B79" s="23" t="s">
         <v>968</v>
       </c>
       <c r="C79" s="20" t="s">
@@ -17335,15 +17343,15 @@
       <c r="H79" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I79" s="32" t="s">
+      <c r="I79" s="31" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="12">
-      <c r="A80" s="28" t="s">
+      <c r="A80" s="27" t="s">
         <v>674</v>
       </c>
-      <c r="B80" s="24" t="s">
+      <c r="B80" s="23" t="s">
         <v>968</v>
       </c>
       <c r="C80" s="20" t="s">
@@ -17364,12 +17372,12 @@
       <c r="H80" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I80" s="32" t="s">
+      <c r="I80" s="31" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="12">
-      <c r="A81" s="28" t="s">
+      <c r="A81" s="27" t="s">
         <v>692</v>
       </c>
       <c r="B81" s="20" t="s">
@@ -17393,12 +17401,12 @@
       <c r="H81" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I81" s="32" t="s">
+      <c r="I81" s="31" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="12">
-      <c r="A82" s="28" t="s">
+      <c r="A82" s="27" t="s">
         <v>974</v>
       </c>
       <c r="B82" s="15" t="s">
@@ -17422,12 +17430,12 @@
       <c r="H82" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="I82" s="32" t="s">
+      <c r="I82" s="31" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="83" spans="1:9" s="19" customFormat="1" ht="12">
-      <c r="A83" s="28" t="s">
+      <c r="A83" s="27" t="s">
         <v>676</v>
       </c>
       <c r="B83" s="20" t="s">
@@ -17451,12 +17459,12 @@
       <c r="H83" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I83" s="32" t="s">
+      <c r="I83" s="31" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="12">
-      <c r="A84" s="28" t="s">
+      <c r="A84" s="27" t="s">
         <v>678</v>
       </c>
       <c r="B84" s="20" t="s">
@@ -17480,12 +17488,12 @@
       <c r="H84" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I84" s="32" t="s">
+      <c r="I84" s="31" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="12">
-      <c r="A85" s="28" t="s">
+      <c r="A85" s="27" t="s">
         <v>680</v>
       </c>
       <c r="B85" s="20" t="s">
@@ -17509,12 +17517,12 @@
       <c r="H85" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I85" s="32" t="s">
+      <c r="I85" s="31" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="12">
-      <c r="A86" s="28" t="s">
+      <c r="A86" s="27" t="s">
         <v>976</v>
       </c>
       <c r="B86" s="15" t="s">
@@ -17538,12 +17546,12 @@
       <c r="H86" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="I86" s="32" t="s">
+      <c r="I86" s="31" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="12">
-      <c r="A87" s="28" t="s">
+      <c r="A87" s="27" t="s">
         <v>978</v>
       </c>
       <c r="B87" s="15" t="s">
@@ -17567,12 +17575,12 @@
       <c r="H87" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="I87" s="32" t="s">
+      <c r="I87" s="31" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="12">
-      <c r="A88" s="28" t="s">
+      <c r="A88" s="27" t="s">
         <v>979</v>
       </c>
       <c r="B88" s="15" t="s">
@@ -17596,12 +17604,12 @@
       <c r="H88" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="I88" s="32" t="s">
+      <c r="I88" s="31" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="12">
-      <c r="A89" s="28" t="s">
+      <c r="A89" s="27" t="s">
         <v>682</v>
       </c>
       <c r="B89" s="20" t="s">
@@ -17625,36 +17633,36 @@
       <c r="H89" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I89" s="32" t="s">
+      <c r="I89" s="31" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="90" spans="1:9" s="18" customFormat="1" ht="12">
-      <c r="A90" s="29" t="s">
+      <c r="A90" s="28" t="s">
         <v>684</v>
       </c>
-      <c r="B90" s="23" t="s">
-        <v>694</v>
-      </c>
-      <c r="C90" s="23" t="s">
-        <v>694</v>
-      </c>
-      <c r="D90" s="23" t="s">
-        <v>694</v>
-      </c>
-      <c r="E90" s="23" t="s">
-        <v>694</v>
-      </c>
-      <c r="F90" s="23" t="s">
-        <v>694</v>
-      </c>
-      <c r="G90" s="23" t="s">
-        <v>694</v>
-      </c>
-      <c r="H90" s="23" t="s">
-        <v>694</v>
-      </c>
-      <c r="I90" s="33" t="s">
+      <c r="B90" s="22" t="s">
+        <v>694</v>
+      </c>
+      <c r="C90" s="22" t="s">
+        <v>694</v>
+      </c>
+      <c r="D90" s="22" t="s">
+        <v>694</v>
+      </c>
+      <c r="E90" s="22" t="s">
+        <v>694</v>
+      </c>
+      <c r="F90" s="22" t="s">
+        <v>694</v>
+      </c>
+      <c r="G90" s="22" t="s">
+        <v>694</v>
+      </c>
+      <c r="H90" s="22" t="s">
+        <v>694</v>
+      </c>
+      <c r="I90" s="32" t="s">
         <v>694</v>
       </c>
     </row>
@@ -17752,36 +17760,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="39" t="s">
         <v>543</v>
       </c>
-      <c r="B1" s="41" t="s">
-        <v>269</v>
-      </c>
-      <c r="C1" s="41" t="s">
+      <c r="B1" s="40" t="s">
+        <v>269</v>
+      </c>
+      <c r="C1" s="40" t="s">
         <v>545</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="40" t="s">
         <v>544</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="40" t="s">
         <v>546</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="40" t="s">
         <v>547</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="40" t="s">
         <v>548</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="40" t="s">
         <v>549</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="40" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="17" customFormat="1" ht="12">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="35" t="s">
         <v>218</v>
       </c>
       <c r="B2" s="15" t="s">
@@ -17810,7 +17818,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" s="17" customFormat="1" ht="12">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="35" t="s">
         <v>154</v>
       </c>
       <c r="B3" s="15" t="s">
@@ -17839,7 +17847,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" s="17" customFormat="1" ht="12">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="35" t="s">
         <v>156</v>
       </c>
       <c r="B4" s="15" t="s">
@@ -17868,7 +17876,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" s="17" customFormat="1" ht="12">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="35" t="s">
         <v>150</v>
       </c>
       <c r="B5" s="15" t="s">
@@ -17897,7 +17905,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" s="17" customFormat="1" ht="12">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="35" t="s">
         <v>159</v>
       </c>
       <c r="B6" s="15" t="s">
@@ -17926,7 +17934,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" s="17" customFormat="1" ht="12">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="35" t="s">
         <v>53</v>
       </c>
       <c r="B7" s="15" t="s">
@@ -17955,7 +17963,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" s="17" customFormat="1" ht="12">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="35" t="s">
         <v>227</v>
       </c>
       <c r="B8" s="15" t="s">
@@ -17984,7 +17992,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" s="17" customFormat="1" ht="12">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="35" t="s">
         <v>241</v>
       </c>
       <c r="B9" s="15" t="s">
@@ -18013,11 +18021,11 @@
       </c>
     </row>
     <row r="10" spans="1:9" s="17" customFormat="1" ht="12">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="35" t="s">
         <v>238</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>269</v>
@@ -18042,7 +18050,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" s="17" customFormat="1" ht="12">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="35" t="s">
         <v>141</v>
       </c>
       <c r="B11" s="15" t="s">
@@ -18071,7 +18079,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" s="17" customFormat="1" ht="12">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="35" t="s">
         <v>224</v>
       </c>
       <c r="B12" s="15" t="s">
@@ -18100,7 +18108,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" s="17" customFormat="1" ht="12">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="35" t="s">
         <v>228</v>
       </c>
       <c r="B13" s="15" t="s">
@@ -18129,7 +18137,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="12">
-      <c r="A14" s="37">
+      <c r="A14" s="36">
         <v>1</v>
       </c>
       <c r="B14" s="16" t="s">
@@ -18158,7 +18166,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="12">
-      <c r="A15" s="37">
+      <c r="A15" s="36">
         <v>2</v>
       </c>
       <c r="B15" s="16" t="s">
@@ -18187,7 +18195,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="12">
-      <c r="A16" s="37">
+      <c r="A16" s="36">
         <v>3</v>
       </c>
       <c r="B16" s="16" t="s">
@@ -18216,7 +18224,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="12">
-      <c r="A17" s="37">
+      <c r="A17" s="36">
         <v>4</v>
       </c>
       <c r="B17" s="16" t="s">
@@ -18245,7 +18253,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="12">
-      <c r="A18" s="37">
+      <c r="A18" s="36">
         <v>5</v>
       </c>
       <c r="B18" s="16" t="s">
@@ -18274,7 +18282,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="12">
-      <c r="A19" s="37">
+      <c r="A19" s="36">
         <v>6</v>
       </c>
       <c r="B19" s="16" t="s">
@@ -18303,7 +18311,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="12">
-      <c r="A20" s="37">
+      <c r="A20" s="36">
         <v>7</v>
       </c>
       <c r="B20" s="16" t="s">
@@ -18332,7 +18340,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="12">
-      <c r="A21" s="37">
+      <c r="A21" s="36">
         <v>8</v>
       </c>
       <c r="B21" s="16" t="s">
@@ -18361,7 +18369,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="12">
-      <c r="A22" s="37">
+      <c r="A22" s="36">
         <v>9</v>
       </c>
       <c r="B22" s="16" t="s">
@@ -18390,7 +18398,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="12">
-      <c r="A23" s="37">
+      <c r="A23" s="36">
         <v>0</v>
       </c>
       <c r="B23" s="16" t="s">
@@ -18419,7 +18427,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" s="17" customFormat="1" ht="12">
-      <c r="A24" s="36" t="s">
+      <c r="A24" s="35" t="s">
         <v>593</v>
       </c>
       <c r="B24" s="16" t="s">
@@ -18448,7 +18456,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" s="17" customFormat="1" ht="12">
-      <c r="A25" s="36" t="s">
+      <c r="A25" s="35" t="s">
         <v>601</v>
       </c>
       <c r="B25" s="16" t="s">
@@ -18477,7 +18485,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="12">
-      <c r="A26" s="38" t="s">
+      <c r="A26" s="37" t="s">
         <v>608</v>
       </c>
       <c r="B26" s="16" t="s">
@@ -18506,7 +18514,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="12">
-      <c r="A27" s="38" t="s">
+      <c r="A27" s="37" t="s">
         <v>610</v>
       </c>
       <c r="B27" s="15" t="s">
@@ -18535,7 +18543,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="12">
-      <c r="A28" s="38" t="s">
+      <c r="A28" s="37" t="s">
         <v>613</v>
       </c>
       <c r="B28" s="16" t="s">
@@ -18564,7 +18572,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="12">
-      <c r="A29" s="38" t="s">
+      <c r="A29" s="37" t="s">
         <v>617</v>
       </c>
       <c r="B29" s="16" t="s">
@@ -18593,7 +18601,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="12">
-      <c r="A30" s="38" t="s">
+      <c r="A30" s="37" t="s">
         <v>693</v>
       </c>
       <c r="B30" s="15" t="s">
@@ -18622,7 +18630,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="12">
-      <c r="A31" s="38" t="s">
+      <c r="A31" s="37" t="s">
         <v>620</v>
       </c>
       <c r="B31" s="16" t="s">
@@ -18651,7 +18659,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="12">
-      <c r="A32" s="38" t="s">
+      <c r="A32" s="37" t="s">
         <v>621</v>
       </c>
       <c r="B32" s="16" t="s">
@@ -18680,7 +18688,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="12">
-      <c r="A33" s="38" t="s">
+      <c r="A33" s="37" t="s">
         <v>622</v>
       </c>
       <c r="B33" s="16" t="s">
@@ -18709,7 +18717,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="12">
-      <c r="A34" s="39" t="s">
+      <c r="A34" s="38" t="s">
         <v>942</v>
       </c>
       <c r="B34" s="16" t="s">
@@ -18738,7 +18746,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="12">
-      <c r="A35" s="38" t="s">
+      <c r="A35" s="37" t="s">
         <v>944</v>
       </c>
       <c r="B35" s="16" t="s">
@@ -18767,7 +18775,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="12">
-      <c r="A36" s="38" t="s">
+      <c r="A36" s="37" t="s">
         <v>946</v>
       </c>
       <c r="B36" s="16" t="s">
@@ -18796,7 +18804,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="12">
-      <c r="A37" s="39" t="s">
+      <c r="A37" s="38" t="s">
         <v>948</v>
       </c>
       <c r="B37" s="16" t="s">
@@ -18825,7 +18833,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="12">
-      <c r="A38" s="38" t="s">
+      <c r="A38" s="37" t="s">
         <v>965</v>
       </c>
       <c r="B38" s="16" t="s">
@@ -18854,7 +18862,7 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="12">
-      <c r="A39" s="38" t="s">
+      <c r="A39" s="37" t="s">
         <v>953</v>
       </c>
       <c r="B39" s="16" t="s">
@@ -18883,7 +18891,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="12">
-      <c r="A40" s="38" t="s">
+      <c r="A40" s="37" t="s">
         <v>955</v>
       </c>
       <c r="B40" s="16" t="s">
@@ -18912,7 +18920,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="12">
-      <c r="A41" s="38" t="s">
+      <c r="A41" s="37" t="s">
         <v>966</v>
       </c>
       <c r="B41" s="16" t="s">
@@ -18941,7 +18949,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" ht="12">
-      <c r="A42" s="38" t="s">
+      <c r="A42" s="37" t="s">
         <v>961</v>
       </c>
       <c r="B42" s="16" t="s">
@@ -18970,7 +18978,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" ht="12">
-      <c r="A43" s="38" t="s">
+      <c r="A43" s="37" t="s">
         <v>963</v>
       </c>
       <c r="B43" s="16" t="s">
@@ -18999,7 +19007,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" ht="12">
-      <c r="A44" s="38" t="s">
+      <c r="A44" s="37" t="s">
         <v>691</v>
       </c>
       <c r="B44" s="15" t="s">
@@ -19028,7 +19036,7 @@
       </c>
     </row>
     <row r="45" spans="1:9" ht="12">
-      <c r="A45" s="38" t="s">
+      <c r="A45" s="37" t="s">
         <v>629</v>
       </c>
       <c r="B45" s="16" t="s">
@@ -19057,7 +19065,7 @@
       </c>
     </row>
     <row r="46" spans="1:9" ht="12">
-      <c r="A46" s="38" t="s">
+      <c r="A46" s="37" t="s">
         <v>631</v>
       </c>
       <c r="B46" s="15" t="s">
@@ -19086,7 +19094,7 @@
       </c>
     </row>
     <row r="47" spans="1:9" ht="12">
-      <c r="A47" s="38" t="s">
+      <c r="A47" s="37" t="s">
         <v>632</v>
       </c>
       <c r="B47" s="15" t="s">
@@ -19115,7 +19123,7 @@
       </c>
     </row>
     <row r="48" spans="1:9" ht="12">
-      <c r="A48" s="38" t="s">
+      <c r="A48" s="37" t="s">
         <v>633</v>
       </c>
       <c r="B48" s="15" t="s">
@@ -19144,7 +19152,7 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="12">
-      <c r="A49" s="38" t="s">
+      <c r="A49" s="37" t="s">
         <v>973</v>
       </c>
       <c r="B49" s="15" t="s">
@@ -19173,7 +19181,7 @@
       </c>
     </row>
     <row r="50" spans="1:9" ht="12">
-      <c r="A50" s="38" t="s">
+      <c r="A50" s="37" t="s">
         <v>634</v>
       </c>
       <c r="B50" s="15" t="s">
@@ -19202,7 +19210,7 @@
       </c>
     </row>
     <row r="51" spans="1:9" ht="12">
-      <c r="A51" s="38" t="s">
+      <c r="A51" s="37" t="s">
         <v>635</v>
       </c>
       <c r="B51" s="16" t="s">
@@ -19231,7 +19239,7 @@
       </c>
     </row>
     <row r="52" spans="1:9" ht="12">
-      <c r="A52" s="38" t="s">
+      <c r="A52" s="37" t="s">
         <v>637</v>
       </c>
       <c r="B52" s="16" t="s">
@@ -19260,7 +19268,7 @@
       </c>
     </row>
     <row r="53" spans="1:9" ht="12">
-      <c r="A53" s="38" t="s">
+      <c r="A53" s="37" t="s">
         <v>638</v>
       </c>
       <c r="B53" s="16" t="s">
@@ -19289,7 +19297,7 @@
       </c>
     </row>
     <row r="54" spans="1:9" ht="12">
-      <c r="A54" s="38" t="s">
+      <c r="A54" s="37" t="s">
         <v>168</v>
       </c>
       <c r="B54" s="16" t="s">
@@ -19318,7 +19326,7 @@
       </c>
     </row>
     <row r="55" spans="1:9" ht="12">
-      <c r="A55" s="38" t="s">
+      <c r="A55" s="37" t="s">
         <v>115</v>
       </c>
       <c r="B55" s="16" t="s">
@@ -19347,7 +19355,7 @@
       </c>
     </row>
     <row r="56" spans="1:9" ht="12">
-      <c r="A56" s="38" t="s">
+      <c r="A56" s="37" t="s">
         <v>49</v>
       </c>
       <c r="B56" s="16" t="s">
@@ -19376,7 +19384,7 @@
       </c>
     </row>
     <row r="57" spans="1:9" ht="12">
-      <c r="A57" s="38" t="s">
+      <c r="A57" s="37" t="s">
         <v>643</v>
       </c>
       <c r="B57" s="16" t="s">
@@ -19405,7 +19413,7 @@
       </c>
     </row>
     <row r="58" spans="1:9" ht="12">
-      <c r="A58" s="38" t="s">
+      <c r="A58" s="37" t="s">
         <v>99</v>
       </c>
       <c r="B58" s="16" t="s">
@@ -19434,7 +19442,7 @@
       </c>
     </row>
     <row r="59" spans="1:9" ht="12">
-      <c r="A59" s="38" t="s">
+      <c r="A59" s="37" t="s">
         <v>119</v>
       </c>
       <c r="B59" s="16" t="s">
@@ -19463,7 +19471,7 @@
       </c>
     </row>
     <row r="60" spans="1:9" ht="12">
-      <c r="A60" s="38" t="s">
+      <c r="A60" s="37" t="s">
         <v>648</v>
       </c>
       <c r="B60" s="16" t="s">
@@ -19492,7 +19500,7 @@
       </c>
     </row>
     <row r="61" spans="1:9" ht="12">
-      <c r="A61" s="38" t="s">
+      <c r="A61" s="37" t="s">
         <v>650</v>
       </c>
       <c r="B61" s="16" t="s">
@@ -19521,7 +19529,7 @@
       </c>
     </row>
     <row r="62" spans="1:9" ht="12">
-      <c r="A62" s="38" t="s">
+      <c r="A62" s="37" t="s">
         <v>121</v>
       </c>
       <c r="B62" s="16" t="s">
@@ -19550,7 +19558,7 @@
       </c>
     </row>
     <row r="63" spans="1:9" ht="12">
-      <c r="A63" s="38" t="s">
+      <c r="A63" s="37" t="s">
         <v>653</v>
       </c>
       <c r="B63" s="16" t="s">
@@ -19579,7 +19587,7 @@
       </c>
     </row>
     <row r="64" spans="1:9" s="18" customFormat="1" ht="12">
-      <c r="A64" s="38" t="s">
+      <c r="A64" s="37" t="s">
         <v>50</v>
       </c>
       <c r="B64" s="16" t="s">
@@ -19608,7 +19616,7 @@
       </c>
     </row>
     <row r="65" spans="1:9" s="18" customFormat="1" ht="12">
-      <c r="A65" s="38" t="s">
+      <c r="A65" s="37" t="s">
         <v>124</v>
       </c>
       <c r="B65" s="16" t="s">
@@ -19637,7 +19645,7 @@
       </c>
     </row>
     <row r="66" spans="1:9" ht="12">
-      <c r="A66" s="38" t="s">
+      <c r="A66" s="37" t="s">
         <v>51</v>
       </c>
       <c r="B66" s="16" t="s">
@@ -19666,7 +19674,7 @@
       </c>
     </row>
     <row r="67" spans="1:9" ht="12">
-      <c r="A67" s="38" t="s">
+      <c r="A67" s="37" t="s">
         <v>660</v>
       </c>
       <c r="B67" s="16" t="s">
@@ -19695,7 +19703,7 @@
       </c>
     </row>
     <row r="68" spans="1:9" ht="12">
-      <c r="A68" s="38" t="s">
+      <c r="A68" s="37" t="s">
         <v>48</v>
       </c>
       <c r="B68" s="16" t="s">
@@ -19724,7 +19732,7 @@
       </c>
     </row>
     <row r="69" spans="1:9" ht="12">
-      <c r="A69" s="38" t="s">
+      <c r="A69" s="37" t="s">
         <v>662</v>
       </c>
       <c r="B69" s="16" t="s">
@@ -19753,7 +19761,7 @@
       </c>
     </row>
     <row r="70" spans="1:9" ht="12">
-      <c r="A70" s="38" t="s">
+      <c r="A70" s="37" t="s">
         <v>664</v>
       </c>
       <c r="B70" s="16" t="s">
@@ -19782,7 +19790,7 @@
       </c>
     </row>
     <row r="71" spans="1:9" ht="12">
-      <c r="A71" s="38" t="s">
+      <c r="A71" s="37" t="s">
         <v>665</v>
       </c>
       <c r="B71" s="16" t="s">
@@ -19811,7 +19819,7 @@
       </c>
     </row>
     <row r="72" spans="1:9" ht="12">
-      <c r="A72" s="38" t="s">
+      <c r="A72" s="37" t="s">
         <v>666</v>
       </c>
       <c r="B72" s="16" t="s">
@@ -19827,7 +19835,7 @@
         <v>269</v>
       </c>
       <c r="F72" s="15" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="G72" s="15" t="s">
         <v>269</v>
@@ -19840,7 +19848,7 @@
       </c>
     </row>
     <row r="73" spans="1:9" ht="12">
-      <c r="A73" s="38" t="s">
+      <c r="A73" s="37" t="s">
         <v>128</v>
       </c>
       <c r="B73" s="16" t="s">
@@ -19869,7 +19877,7 @@
       </c>
     </row>
     <row r="74" spans="1:9" ht="12">
-      <c r="A74" s="38" t="s">
+      <c r="A74" s="37" t="s">
         <v>669</v>
       </c>
       <c r="B74" s="16" t="s">
@@ -19898,7 +19906,7 @@
       </c>
     </row>
     <row r="75" spans="1:9" ht="12">
-      <c r="A75" s="38" t="s">
+      <c r="A75" s="37" t="s">
         <v>672</v>
       </c>
       <c r="B75" s="16" t="s">
@@ -19927,7 +19935,7 @@
       </c>
     </row>
     <row r="76" spans="1:9" ht="12">
-      <c r="A76" s="38" t="s">
+      <c r="A76" s="37" t="s">
         <v>674</v>
       </c>
       <c r="B76" s="16" t="s">
@@ -19956,7 +19964,7 @@
       </c>
     </row>
     <row r="77" spans="1:9" ht="12">
-      <c r="A77" s="38" t="s">
+      <c r="A77" s="37" t="s">
         <v>692</v>
       </c>
       <c r="B77" s="15" t="s">
@@ -19985,7 +19993,7 @@
       </c>
     </row>
     <row r="78" spans="1:9" ht="12">
-      <c r="A78" s="38" t="s">
+      <c r="A78" s="37" t="s">
         <v>974</v>
       </c>
       <c r="B78" s="15" t="s">
@@ -20014,7 +20022,7 @@
       </c>
     </row>
     <row r="79" spans="1:9" ht="12">
-      <c r="A79" s="38" t="s">
+      <c r="A79" s="37" t="s">
         <v>975</v>
       </c>
       <c r="B79" s="15" t="s">
@@ -20043,7 +20051,7 @@
       </c>
     </row>
     <row r="80" spans="1:9" ht="12">
-      <c r="A80" s="38" t="s">
+      <c r="A80" s="37" t="s">
         <v>977</v>
       </c>
       <c r="B80" s="15" t="s">
@@ -20072,7 +20080,7 @@
       </c>
     </row>
     <row r="81" spans="1:9" ht="12">
-      <c r="A81" s="38" t="s">
+      <c r="A81" s="37" t="s">
         <v>680</v>
       </c>
       <c r="B81" s="15" t="s">
@@ -20101,7 +20109,7 @@
       </c>
     </row>
     <row r="82" spans="1:9" ht="12">
-      <c r="A82" s="38" t="s">
+      <c r="A82" s="37" t="s">
         <v>976</v>
       </c>
       <c r="B82" s="15" t="s">
@@ -20130,7 +20138,7 @@
       </c>
     </row>
     <row r="83" spans="1:9" s="19" customFormat="1" ht="12">
-      <c r="A83" s="38" t="s">
+      <c r="A83" s="37" t="s">
         <v>978</v>
       </c>
       <c r="B83" s="15" t="s">
@@ -20159,7 +20167,7 @@
       </c>
     </row>
     <row r="84" spans="1:9" ht="12">
-      <c r="A84" s="38" t="s">
+      <c r="A84" s="37" t="s">
         <v>979</v>
       </c>
       <c r="B84" s="15" t="s">
@@ -20188,7 +20196,7 @@
       </c>
     </row>
     <row r="85" spans="1:9" ht="12">
-      <c r="A85" s="38" t="s">
+      <c r="A85" s="37" t="s">
         <v>682</v>
       </c>
       <c r="B85" s="15" t="s">
@@ -20217,7 +20225,7 @@
       </c>
     </row>
     <row r="86" spans="1:9" ht="12">
-      <c r="A86" s="38" t="s">
+      <c r="A86" s="37" t="s">
         <v>684</v>
       </c>
       <c r="B86" s="15" t="s">
@@ -20246,7 +20254,7 @@
       </c>
     </row>
     <row r="87" spans="1:9" ht="12">
-      <c r="A87" s="38" t="s">
+      <c r="A87" s="37" t="s">
         <v>686</v>
       </c>
       <c r="B87" s="15" t="s">
@@ -22218,11 +22226,11 @@
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:K104"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -22233,78 +22241,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="24">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>543</v>
       </c>
-      <c r="B1" s="30" t="s">
-        <v>694</v>
-      </c>
-      <c r="C1" s="30" t="s">
+      <c r="B1" s="29" t="s">
+        <v>694</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>545</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="29" t="s">
         <v>544</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="29" t="s">
         <v>546</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="29" t="s">
         <v>547</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="29" t="s">
         <v>548</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="29" t="s">
         <v>549</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="30" t="s">
         <v>886</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="17" customFormat="1" ht="12">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="25" t="s">
         <v>218</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="E2" s="20" t="s">
         <v>219</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="H2" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="23" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="17" customFormat="1" ht="12">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="25" t="s">
         <v>154</v>
       </c>
       <c r="B3" s="20" t="s">
         <v>987</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>1053</v>
-      </c>
-      <c r="D3" s="46" t="s">
-        <v>1039</v>
+        <v>1051</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>1037</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="F3" s="20" t="s">
         <v>694</v>
@@ -22315,22 +22323,22 @@
       <c r="H3" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="23" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="17" customFormat="1" ht="12">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="25" t="s">
         <v>156</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="E4" s="20" t="s">
         <v>694</v>
@@ -22344,12 +22352,12 @@
       <c r="H4" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="I4" s="23" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="17" customFormat="1" ht="12">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="25" t="s">
         <v>150</v>
       </c>
       <c r="B5" s="20" t="s">
@@ -22362,10 +22370,10 @@
         <v>868</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="G5" s="20" t="s">
         <v>694</v>
@@ -22373,22 +22381,22 @@
       <c r="H5" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="I5" s="23" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="17" customFormat="1" ht="12">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="25" t="s">
         <v>159</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>1119</v>
-      </c>
-      <c r="C6" s="47" t="s">
-        <v>1054</v>
+        <v>1117</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>1052</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="E6" s="20" t="s">
         <v>694</v>
@@ -22402,28 +22410,28 @@
       <c r="H6" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I6" s="24" t="s">
+      <c r="I6" s="23" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="17" customFormat="1" ht="12">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="25" t="s">
         <v>53</v>
       </c>
       <c r="B7" s="20" t="s">
         <v>981</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="E7" s="20" t="s">
         <v>694</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="G7" s="20" t="s">
         <v>694</v>
@@ -22431,22 +22439,22 @@
       <c r="H7" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I7" s="24" t="s">
+      <c r="I7" s="23" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="17" customFormat="1" ht="12">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="25" t="s">
         <v>227</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="E8" s="20" t="s">
         <v>694</v>
@@ -22460,25 +22468,25 @@
       <c r="H8" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I8" s="24" t="s">
+      <c r="I8" s="23" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="17" customFormat="1" ht="12">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="25" t="s">
         <v>241</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>990</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="F9" s="20" t="s">
         <v>694</v>
@@ -22489,12 +22497,12 @@
       <c r="H9" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I9" s="24" t="s">
+      <c r="I9" s="23" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="17" customFormat="1" ht="12">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="25" t="s">
         <v>238</v>
       </c>
       <c r="B10" s="20" t="s">
@@ -22504,7 +22512,7 @@
         <v>992</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="E10" s="20" t="s">
         <v>694</v>
@@ -22518,56 +22526,56 @@
       <c r="H10" s="20" t="s">
         <v>1011</v>
       </c>
-      <c r="I10" s="24" t="s">
+      <c r="I10" s="23" t="s">
         <v>1012</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="17" customFormat="1" ht="12">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="B11" s="47" t="s">
-        <v>1050</v>
+      <c r="B11" s="46" t="s">
+        <v>1048</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="E11" s="20" t="s">
         <v>694</v>
       </c>
       <c r="F11" s="20" t="s">
+        <v>1069</v>
+      </c>
+      <c r="G11" s="20" t="s">
         <v>1071</v>
       </c>
-      <c r="G11" s="20" t="s">
-        <v>1073</v>
-      </c>
       <c r="H11" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I11" s="24" t="s">
+      <c r="I11" s="23" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="17" customFormat="1" ht="12">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="25" t="s">
         <v>224</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="C12" s="20" t="s">
         <v>225</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>1062</v>
-      </c>
-      <c r="F12" s="22" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F12" s="49" t="s">
         <v>1023</v>
       </c>
       <c r="G12" s="20" t="s">
@@ -22576,28 +22584,28 @@
       <c r="H12" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I12" s="24" t="s">
+      <c r="I12" s="23" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="17" customFormat="1" ht="12">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="25" t="s">
         <v>228</v>
       </c>
       <c r="B13" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="C13" s="47" t="s">
-        <v>1058</v>
-      </c>
-      <c r="D13" s="47" t="s">
-        <v>1047</v>
+      <c r="C13" s="46" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D13" s="46" t="s">
+        <v>1045</v>
       </c>
       <c r="E13" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="F13" s="47" t="s">
-        <v>1125</v>
+      <c r="F13" s="46" t="s">
+        <v>1123</v>
       </c>
       <c r="G13" s="20" t="s">
         <v>694</v>
@@ -22605,141 +22613,141 @@
       <c r="H13" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I13" s="24" t="s">
+      <c r="I13" s="23" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="12">
-      <c r="A14" s="27">
+      <c r="A14" s="26">
         <v>1</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="23" t="s">
         <v>1028</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="23" t="s">
         <v>1028</v>
       </c>
       <c r="D14" s="20" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>694</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>1062</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>694</v>
+      </c>
+      <c r="H14" s="43" t="s">
+        <v>694</v>
+      </c>
+      <c r="I14" s="23" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="12">
+      <c r="A15" s="26">
+        <v>2</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D15" s="49" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>694</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>1061</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>694</v>
+      </c>
+      <c r="H15" s="49" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I15" s="23" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="12">
+      <c r="A16" s="26">
+        <v>3</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D16" s="49" t="s">
+        <v>1128</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>694</v>
+      </c>
+      <c r="F16" s="42" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>694</v>
+      </c>
+      <c r="H16" s="49" t="s">
+        <v>1030</v>
+      </c>
+      <c r="I16" s="23" t="s">
+        <v>694</v>
+      </c>
+      <c r="K16" s="44"/>
+    </row>
+    <row r="17" spans="1:9" ht="12">
+      <c r="A17" s="26">
+        <v>4</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>694</v>
+      </c>
+      <c r="F17" s="42" t="s">
+        <v>1063</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>694</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>694</v>
+      </c>
+      <c r="I17" s="23" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="12">
+      <c r="A18" s="26">
+        <v>5</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D18" s="20" t="s">
         <v>1033</v>
       </c>
-      <c r="E14" s="24" t="s">
-        <v>694</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>1064</v>
-      </c>
-      <c r="G14" s="20" t="s">
-        <v>694</v>
-      </c>
-      <c r="H14" s="44" t="s">
-        <v>694</v>
-      </c>
-      <c r="I14" s="24" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="12">
-      <c r="A15" s="27">
-        <v>2</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>1028</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>1028</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>1029</v>
-      </c>
-      <c r="E15" s="24" t="s">
-        <v>694</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>1063</v>
-      </c>
-      <c r="G15" s="20" t="s">
-        <v>694</v>
-      </c>
-      <c r="H15" s="20" t="s">
-        <v>1031</v>
-      </c>
-      <c r="I15" s="24" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="12">
-      <c r="A16" s="27">
-        <v>3</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>1028</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>1028</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>1030</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>694</v>
-      </c>
-      <c r="F16" s="43" t="s">
-        <v>1002</v>
-      </c>
-      <c r="G16" s="20" t="s">
-        <v>694</v>
-      </c>
-      <c r="H16" s="20" t="s">
-        <v>1032</v>
-      </c>
-      <c r="I16" s="24" t="s">
-        <v>694</v>
-      </c>
-      <c r="K16" s="45"/>
-    </row>
-    <row r="17" spans="1:9" ht="12">
-      <c r="A17" s="27">
-        <v>4</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>1028</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>1028</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>1034</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>694</v>
-      </c>
-      <c r="F17" s="43" t="s">
-        <v>1065</v>
-      </c>
-      <c r="G17" s="20" t="s">
-        <v>694</v>
-      </c>
-      <c r="H17" s="20" t="s">
-        <v>694</v>
-      </c>
-      <c r="I17" s="24" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="12">
-      <c r="A18" s="27">
-        <v>5</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>1028</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>1028</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>1035</v>
-      </c>
-      <c r="E18" s="24" t="s">
+      <c r="E18" s="23" t="s">
         <v>694</v>
       </c>
       <c r="F18" s="20" t="s">
@@ -22751,28 +22759,28 @@
       <c r="H18" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I18" s="24" t="s">
+      <c r="I18" s="23" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="12">
-      <c r="A19" s="27">
+      <c r="A19" s="26">
         <v>6</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="23" t="s">
         <v>1028</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="23" t="s">
         <v>1028</v>
       </c>
       <c r="D19" s="20" t="s">
         <v>983</v>
       </c>
-      <c r="E19" s="24" t="s">
+      <c r="E19" s="23" t="s">
         <v>694</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="G19" s="20" t="s">
         <v>694</v>
@@ -22780,28 +22788,28 @@
       <c r="H19" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I19" s="24" t="s">
+      <c r="I19" s="23" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="12">
-      <c r="A20" s="27">
+      <c r="A20" s="26">
         <v>7</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="23" t="s">
         <v>1028</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="23" t="s">
         <v>1028</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>1036</v>
-      </c>
-      <c r="E20" s="24" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E20" s="23" t="s">
         <v>694</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="G20" s="20" t="s">
         <v>1010</v>
@@ -22809,24 +22817,24 @@
       <c r="H20" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I20" s="24" t="s">
+      <c r="I20" s="23" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="12">
-      <c r="A21" s="27">
+      <c r="A21" s="26">
         <v>8</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="23" t="s">
         <v>1028</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="23" t="s">
         <v>1028</v>
       </c>
       <c r="D21" s="20" t="s">
         <v>984</v>
       </c>
-      <c r="E21" s="24" t="s">
+      <c r="E21" s="23" t="s">
         <v>694</v>
       </c>
       <c r="F21" s="20" t="s">
@@ -22838,24 +22846,24 @@
       <c r="H21" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I21" s="24" t="s">
+      <c r="I21" s="23" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="12">
-      <c r="A22" s="27">
+      <c r="A22" s="26">
         <v>9</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="23" t="s">
         <v>1028</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="23" t="s">
         <v>1028</v>
       </c>
       <c r="D22" s="20" t="s">
         <v>997</v>
       </c>
-      <c r="E22" s="24" t="s">
+      <c r="E22" s="23" t="s">
         <v>694</v>
       </c>
       <c r="F22" s="20" t="s">
@@ -22867,24 +22875,24 @@
       <c r="H22" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I22" s="24" t="s">
+      <c r="I22" s="23" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="12">
-      <c r="A23" s="27">
+      <c r="A23" s="26">
         <v>0</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="23" t="s">
         <v>1028</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="23" t="s">
         <v>1028</v>
       </c>
       <c r="D23" s="20" t="s">
         <v>999</v>
       </c>
-      <c r="E23" s="24" t="s">
+      <c r="E23" s="23" t="s">
         <v>694</v>
       </c>
       <c r="F23" s="20" t="s">
@@ -22896,80 +22904,80 @@
       <c r="H23" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I23" s="24" t="s">
+      <c r="I23" s="23" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="17" customFormat="1" ht="12">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="25" t="s">
         <v>697</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>1102</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>1099</v>
-      </c>
-      <c r="D24" s="43" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D24" s="42" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>694</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>694</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>694</v>
+      </c>
+      <c r="H24" s="49" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I24" s="23" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="17" customFormat="1" ht="12">
+      <c r="A25" s="25" t="s">
+        <v>698</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>694</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>694</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>694</v>
+      </c>
+      <c r="H25" s="49" t="s">
+        <v>1020</v>
+      </c>
+      <c r="I25" s="23" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="12">
+      <c r="A26" s="25" t="s">
+        <v>695</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D26" s="20" t="s">
         <v>1106</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>694</v>
-      </c>
-      <c r="F24" s="20" t="s">
-        <v>694</v>
-      </c>
-      <c r="G24" s="20" t="s">
-        <v>694</v>
-      </c>
-      <c r="H24" s="20" t="s">
-        <v>1019</v>
-      </c>
-      <c r="I24" s="24" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" s="17" customFormat="1" ht="12">
-      <c r="A25" s="26" t="s">
-        <v>698</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>1102</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>1099</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>1107</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>694</v>
-      </c>
-      <c r="F25" s="20" t="s">
-        <v>694</v>
-      </c>
-      <c r="G25" s="20" t="s">
-        <v>694</v>
-      </c>
-      <c r="H25" s="20" t="s">
-        <v>1020</v>
-      </c>
-      <c r="I25" s="24" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="12">
-      <c r="A26" s="26" t="s">
-        <v>695</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>1102</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>1099</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>1108</v>
       </c>
       <c r="E26" s="20" t="s">
         <v>995</v>
@@ -22980,25 +22988,25 @@
       <c r="G26" s="20" t="s">
         <v>1008</v>
       </c>
-      <c r="H26" s="20" t="s">
+      <c r="H26" s="49" t="s">
         <v>1021</v>
       </c>
-      <c r="I26" s="24" t="s">
+      <c r="I26" s="23" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="12">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="25" t="s">
         <v>696</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>1102</v>
-      </c>
-      <c r="C27" s="24" t="s">
-        <v>1099</v>
+        <v>1100</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>1097</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="E27" s="20" t="s">
         <v>996</v>
@@ -23009,138 +23017,138 @@
       <c r="G27" s="20" t="s">
         <v>1009</v>
       </c>
-      <c r="H27" s="20" t="s">
+      <c r="H27" s="49" t="s">
         <v>1022</v>
       </c>
-      <c r="I27" s="24" t="s">
+      <c r="I27" s="23" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="12">
-      <c r="A28" s="28" t="s">
+      <c r="A28" s="27" t="s">
         <v>879</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>1102</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>1099</v>
+        <v>1100</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>1097</v>
       </c>
       <c r="D28" s="20" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>694</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>694</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>694</v>
+      </c>
+      <c r="H28" s="49" t="s">
+        <v>1017</v>
+      </c>
+      <c r="I28" s="23" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="12">
+      <c r="A29" s="27" t="s">
+        <v>880</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>694</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>694</v>
+      </c>
+      <c r="G29" s="20" t="s">
+        <v>694</v>
+      </c>
+      <c r="H29" s="49" t="s">
+        <v>1018</v>
+      </c>
+      <c r="I29" s="23" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="12">
+      <c r="A30" s="27" t="s">
+        <v>881</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D30" s="20" t="s">
         <v>1110</v>
-      </c>
-      <c r="E28" s="20" t="s">
-        <v>694</v>
-      </c>
-      <c r="F28" s="20" t="s">
-        <v>694</v>
-      </c>
-      <c r="G28" s="20" t="s">
-        <v>694</v>
-      </c>
-      <c r="H28" s="20" t="s">
-        <v>1017</v>
-      </c>
-      <c r="I28" s="24" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="12">
-      <c r="A29" s="28" t="s">
-        <v>880</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>1102</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>1099</v>
-      </c>
-      <c r="D29" s="20" t="s">
-        <v>1111</v>
-      </c>
-      <c r="E29" s="20" t="s">
-        <v>694</v>
-      </c>
-      <c r="F29" s="20" t="s">
-        <v>694</v>
-      </c>
-      <c r="G29" s="20" t="s">
-        <v>694</v>
-      </c>
-      <c r="H29" s="20" t="s">
-        <v>1018</v>
-      </c>
-      <c r="I29" s="24" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="12">
-      <c r="A30" s="28" t="s">
-        <v>881</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>1102</v>
-      </c>
-      <c r="C30" s="24" t="s">
-        <v>1099</v>
-      </c>
-      <c r="D30" s="20" t="s">
-        <v>1112</v>
       </c>
       <c r="E30" s="20" t="s">
         <v>993</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="G30" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="H30" s="20" t="s">
+      <c r="H30" s="49" t="s">
         <v>1016</v>
       </c>
-      <c r="I30" s="24" t="s">
+      <c r="I30" s="23" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="12">
-      <c r="A31" s="28" t="s">
+      <c r="A31" s="27" t="s">
         <v>882</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>1102</v>
-      </c>
-      <c r="C31" s="24" t="s">
-        <v>1099</v>
+        <v>1100</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>1097</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="E31" s="20" t="s">
         <v>994</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="G31" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="H31" s="20" t="s">
+      <c r="H31" s="49" t="s">
         <v>1016</v>
       </c>
-      <c r="I31" s="24" t="s">
+      <c r="I31" s="23" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="12">
-      <c r="A32" s="28" t="s">
+      <c r="A32" s="27" t="s">
         <v>608</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="D32" s="20" t="s">
         <v>694</v>
@@ -23157,16 +23165,16 @@
       <c r="H32" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I32" s="24" t="s">
+      <c r="I32" s="23" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="12">
-      <c r="A33" s="28" t="s">
+      <c r="A33" s="27" t="s">
         <v>610</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="C33" s="20" t="s">
         <v>896</v>
@@ -23186,16 +23194,16 @@
       <c r="H33" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I33" s="24" t="s">
+      <c r="I33" s="23" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="12">
-      <c r="A34" s="28" t="s">
+      <c r="A34" s="27" t="s">
         <v>613</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="C34" s="20" t="s">
         <v>898</v>
@@ -23215,16 +23223,16 @@
       <c r="H34" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I34" s="24" t="s">
+      <c r="I34" s="23" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="12">
-      <c r="A35" s="28" t="s">
+      <c r="A35" s="27" t="s">
         <v>617</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="C35" s="20" t="s">
         <v>694</v>
@@ -23244,12 +23252,12 @@
       <c r="H35" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I35" s="24" t="s">
+      <c r="I35" s="23" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="12">
-      <c r="A36" s="28" t="s">
+      <c r="A36" s="27" t="s">
         <v>693</v>
       </c>
       <c r="B36" s="20" t="s">
@@ -23273,19 +23281,19 @@
       <c r="H36" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I36" s="24" t="s">
+      <c r="I36" s="23" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="12">
-      <c r="A37" s="28" t="s">
+      <c r="A37" s="27" t="s">
         <v>622</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="D37" s="20" t="s">
         <v>694</v>
@@ -23302,22 +23310,22 @@
       <c r="H37" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I37" s="24" t="s">
+      <c r="I37" s="23" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="12">
-      <c r="A38" s="28" t="s">
+      <c r="A38" s="27" t="s">
         <v>941</v>
       </c>
-      <c r="B38" s="24" t="s">
+      <c r="B38" s="23" t="s">
         <v>1028</v>
       </c>
-      <c r="C38" s="24" t="s">
+      <c r="C38" s="23" t="s">
         <v>1028</v>
       </c>
-      <c r="D38" s="48" t="s">
-        <v>1077</v>
+      <c r="D38" s="47" t="s">
+        <v>1075</v>
       </c>
       <c r="E38" s="20" t="s">
         <v>694</v>
@@ -23329,23 +23337,23 @@
         <v>223</v>
       </c>
       <c r="H38" s="20" t="s">
-        <v>1076</v>
-      </c>
-      <c r="I38" s="24" t="s">
-        <v>1075</v>
+        <v>1074</v>
+      </c>
+      <c r="I38" s="23" t="s">
+        <v>1073</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="12">
-      <c r="A39" s="28" t="s">
+      <c r="A39" s="27" t="s">
         <v>943</v>
       </c>
-      <c r="B39" s="24" t="s">
+      <c r="B39" s="23" t="s">
         <v>1028</v>
       </c>
-      <c r="C39" s="24" t="s">
+      <c r="C39" s="23" t="s">
         <v>1028</v>
       </c>
-      <c r="D39" s="49" t="s">
+      <c r="D39" s="48" t="s">
         <v>694</v>
       </c>
       <c r="E39" s="20" t="s">
@@ -23360,18 +23368,18 @@
       <c r="H39" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I39" s="24" t="s">
+      <c r="I39" s="23" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="12">
-      <c r="A40" s="28" t="s">
+      <c r="A40" s="27" t="s">
         <v>945</v>
       </c>
-      <c r="B40" s="24" t="s">
+      <c r="B40" s="23" t="s">
         <v>1028</v>
       </c>
-      <c r="C40" s="24" t="s">
+      <c r="C40" s="23" t="s">
         <v>1028</v>
       </c>
       <c r="D40" s="20" t="s">
@@ -23389,18 +23397,18 @@
       <c r="H40" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I40" s="24" t="s">
+      <c r="I40" s="23" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="12">
-      <c r="A41" s="28" t="s">
+      <c r="A41" s="27" t="s">
         <v>947</v>
       </c>
-      <c r="B41" s="24" t="s">
+      <c r="B41" s="23" t="s">
         <v>1028</v>
       </c>
-      <c r="C41" s="24" t="s">
+      <c r="C41" s="23" t="s">
         <v>1028</v>
       </c>
       <c r="D41" s="20" t="s">
@@ -23418,18 +23426,18 @@
       <c r="H41" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I41" s="24" t="s">
+      <c r="I41" s="23" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="12">
-      <c r="A42" s="28" t="s">
+      <c r="A42" s="27" t="s">
         <v>949</v>
       </c>
-      <c r="B42" s="24" t="s">
+      <c r="B42" s="23" t="s">
         <v>1028</v>
       </c>
-      <c r="C42" s="24" t="s">
+      <c r="C42" s="23" t="s">
         <v>1028</v>
       </c>
       <c r="D42" s="20" t="s">
@@ -23447,18 +23455,18 @@
       <c r="H42" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I42" s="24" t="s">
+      <c r="I42" s="23" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="12">
-      <c r="A43" s="28" t="s">
+      <c r="A43" s="27" t="s">
         <v>951</v>
       </c>
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="23" t="s">
         <v>1028</v>
       </c>
-      <c r="C43" s="24" t="s">
+      <c r="C43" s="23" t="s">
         <v>1028</v>
       </c>
       <c r="D43" s="20" t="s">
@@ -23476,22 +23484,22 @@
       <c r="H43" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I43" s="24" t="s">
+      <c r="I43" s="23" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="12">
-      <c r="A44" s="28" t="s">
+      <c r="A44" s="27" t="s">
         <v>953</v>
       </c>
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="23" t="s">
         <v>1028</v>
       </c>
-      <c r="C44" s="24" t="s">
+      <c r="C44" s="23" t="s">
         <v>1028</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="E44" s="20" t="s">
         <v>694</v>
@@ -23505,28 +23513,28 @@
       <c r="H44" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I44" s="24" t="s">
+      <c r="I44" s="23" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="12">
-      <c r="A45" s="28" t="s">
+      <c r="A45" s="27" t="s">
         <v>955</v>
       </c>
-      <c r="B45" s="24" t="s">
+      <c r="B45" s="23" t="s">
         <v>1028</v>
       </c>
-      <c r="C45" s="24" t="s">
+      <c r="C45" s="23" t="s">
         <v>1028</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="E45" s="20" t="s">
         <v>694</v>
       </c>
       <c r="F45" s="20" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="G45" s="20" t="s">
         <v>694</v>
@@ -23534,18 +23542,18 @@
       <c r="H45" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I45" s="24" t="s">
+      <c r="I45" s="23" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="12">
-      <c r="A46" s="28" t="s">
+      <c r="A46" s="27" t="s">
         <v>957</v>
       </c>
-      <c r="B46" s="24" t="s">
+      <c r="B46" s="23" t="s">
         <v>1028</v>
       </c>
-      <c r="C46" s="24" t="s">
+      <c r="C46" s="23" t="s">
         <v>1028</v>
       </c>
       <c r="D46" s="20" t="s">
@@ -23563,18 +23571,18 @@
       <c r="H46" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I46" s="24" t="s">
+      <c r="I46" s="23" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="12">
-      <c r="A47" s="28" t="s">
+      <c r="A47" s="27" t="s">
         <v>959</v>
       </c>
-      <c r="B47" s="24" t="s">
+      <c r="B47" s="23" t="s">
         <v>1028</v>
       </c>
-      <c r="C47" s="24" t="s">
+      <c r="C47" s="23" t="s">
         <v>1028</v>
       </c>
       <c r="D47" s="20" t="s">
@@ -23592,18 +23600,18 @@
       <c r="H47" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I47" s="24" t="s">
+      <c r="I47" s="23" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="12">
-      <c r="A48" s="28" t="s">
+      <c r="A48" s="27" t="s">
         <v>961</v>
       </c>
-      <c r="B48" s="24" t="s">
+      <c r="B48" s="23" t="s">
         <v>1028</v>
       </c>
-      <c r="C48" s="24" t="s">
+      <c r="C48" s="23" t="s">
         <v>1028</v>
       </c>
       <c r="D48" s="20" t="s">
@@ -23621,18 +23629,18 @@
       <c r="H48" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I48" s="24" t="s">
+      <c r="I48" s="23" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="12">
-      <c r="A49" s="28" t="s">
+      <c r="A49" s="27" t="s">
         <v>963</v>
       </c>
-      <c r="B49" s="24" t="s">
+      <c r="B49" s="23" t="s">
         <v>1028</v>
       </c>
-      <c r="C49" s="24" t="s">
+      <c r="C49" s="23" t="s">
         <v>1028</v>
       </c>
       <c r="D49" s="20" t="s">
@@ -23650,12 +23658,12 @@
       <c r="H49" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I49" s="24" t="s">
+      <c r="I49" s="23" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="12">
-      <c r="A50" s="28" t="s">
+      <c r="A50" s="27" t="s">
         <v>691</v>
       </c>
       <c r="B50" s="20" t="s">
@@ -23679,12 +23687,12 @@
       <c r="H50" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I50" s="24" t="s">
+      <c r="I50" s="23" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="12">
-      <c r="A51" s="28" t="s">
+      <c r="A51" s="27" t="s">
         <v>629</v>
       </c>
       <c r="B51" s="20" t="s">
@@ -23708,12 +23716,12 @@
       <c r="H51" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I51" s="24" t="s">
+      <c r="I51" s="23" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="12">
-      <c r="A52" s="28" t="s">
+      <c r="A52" s="27" t="s">
         <v>631</v>
       </c>
       <c r="B52" s="20" t="s">
@@ -23737,12 +23745,12 @@
       <c r="H52" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I52" s="24" t="s">
+      <c r="I52" s="23" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="12">
-      <c r="A53" s="28" t="s">
+      <c r="A53" s="27" t="s">
         <v>632</v>
       </c>
       <c r="B53" s="20" t="s">
@@ -23766,12 +23774,12 @@
       <c r="H53" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I53" s="24" t="s">
+      <c r="I53" s="23" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="12">
-      <c r="A54" s="28" t="s">
+      <c r="A54" s="27" t="s">
         <v>633</v>
       </c>
       <c r="B54" s="20" t="s">
@@ -23795,12 +23803,12 @@
       <c r="H54" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I54" s="24" t="s">
+      <c r="I54" s="23" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="12">
-      <c r="A55" s="28" t="s">
+      <c r="A55" s="27" t="s">
         <v>973</v>
       </c>
       <c r="B55" s="20" t="s">
@@ -23824,12 +23832,12 @@
       <c r="H55" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I55" s="24" t="s">
+      <c r="I55" s="23" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="12">
-      <c r="A56" s="28" t="s">
+      <c r="A56" s="27" t="s">
         <v>634</v>
       </c>
       <c r="B56" s="20" t="s">
@@ -23853,24 +23861,24 @@
       <c r="H56" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I56" s="24" t="s">
+      <c r="I56" s="23" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="12">
-      <c r="A57" s="28" t="s">
+      <c r="A57" s="27" t="s">
         <v>635</v>
       </c>
-      <c r="B57" s="24" t="s">
+      <c r="B57" s="23" t="s">
         <v>1028</v>
       </c>
-      <c r="C57" s="24" t="s">
+      <c r="C57" s="23" t="s">
         <v>1028</v>
       </c>
       <c r="D57" s="20" t="s">
         <v>887</v>
       </c>
-      <c r="E57" s="24" t="s">
+      <c r="E57" s="23" t="s">
         <v>694</v>
       </c>
       <c r="F57" s="20" t="s">
@@ -23882,24 +23890,24 @@
       <c r="H57" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I57" s="24" t="s">
+      <c r="I57" s="23" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="12">
-      <c r="A58" s="28" t="s">
+      <c r="A58" s="27" t="s">
         <v>637</v>
       </c>
-      <c r="B58" s="24" t="s">
+      <c r="B58" s="23" t="s">
         <v>1028</v>
       </c>
-      <c r="C58" s="24" t="s">
+      <c r="C58" s="23" t="s">
         <v>1028</v>
       </c>
       <c r="D58" s="20" t="s">
-        <v>1080</v>
-      </c>
-      <c r="E58" s="24" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E58" s="23" t="s">
         <v>694</v>
       </c>
       <c r="F58" s="20" t="s">
@@ -23911,111 +23919,111 @@
       <c r="H58" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I58" s="24" t="s">
+      <c r="I58" s="23" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="12">
-      <c r="A59" s="28" t="s">
+      <c r="A59" s="27" t="s">
         <v>638</v>
       </c>
-      <c r="B59" s="24" t="s">
+      <c r="B59" s="23" t="s">
         <v>1028</v>
       </c>
-      <c r="C59" s="24" t="s">
+      <c r="C59" s="23" t="s">
         <v>1028</v>
       </c>
       <c r="D59" s="20" t="s">
         <v>889</v>
       </c>
-      <c r="E59" s="24" t="s">
-        <v>694</v>
-      </c>
-      <c r="F59" s="20" t="s">
+      <c r="E59" s="23" t="s">
+        <v>694</v>
+      </c>
+      <c r="F59" s="49" t="s">
         <v>1013</v>
       </c>
       <c r="G59" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="H59" s="20" t="s">
+      <c r="H59" s="49" t="s">
         <v>1015</v>
       </c>
-      <c r="I59" s="24" t="s">
+      <c r="I59" s="23" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="12">
-      <c r="A60" s="28" t="s">
+      <c r="A60" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="B60" s="24" t="s">
+      <c r="B60" s="23" t="s">
         <v>1028</v>
       </c>
-      <c r="C60" s="24" t="s">
+      <c r="C60" s="23" t="s">
         <v>1028</v>
       </c>
       <c r="D60" s="20" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E60" s="23" t="s">
+        <v>694</v>
+      </c>
+      <c r="F60" s="49" t="s">
+        <v>1014</v>
+      </c>
+      <c r="G60" s="20" t="s">
+        <v>694</v>
+      </c>
+      <c r="H60" s="49" t="s">
+        <v>1121</v>
+      </c>
+      <c r="I60" s="23" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="12">
+      <c r="A61" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="B61" s="23" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C61" s="23" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D61" s="20" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E61" s="23" t="s">
+        <v>694</v>
+      </c>
+      <c r="F61" s="20" t="s">
+        <v>694</v>
+      </c>
+      <c r="G61" s="20" t="s">
+        <v>694</v>
+      </c>
+      <c r="H61" s="20" t="s">
+        <v>694</v>
+      </c>
+      <c r="I61" s="23" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="12">
+      <c r="A62" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B62" s="23" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C62" s="23" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D62" s="20" t="s">
         <v>1081</v>
       </c>
-      <c r="E60" s="24" t="s">
-        <v>694</v>
-      </c>
-      <c r="F60" s="20" t="s">
-        <v>1014</v>
-      </c>
-      <c r="G60" s="20" t="s">
-        <v>694</v>
-      </c>
-      <c r="H60" s="20" t="s">
-        <v>1123</v>
-      </c>
-      <c r="I60" s="24" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="12">
-      <c r="A61" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="B61" s="24" t="s">
-        <v>1028</v>
-      </c>
-      <c r="C61" s="24" t="s">
-        <v>1028</v>
-      </c>
-      <c r="D61" s="20" t="s">
-        <v>1082</v>
-      </c>
-      <c r="E61" s="24" t="s">
-        <v>694</v>
-      </c>
-      <c r="F61" s="20" t="s">
-        <v>694</v>
-      </c>
-      <c r="G61" s="20" t="s">
-        <v>694</v>
-      </c>
-      <c r="H61" s="20" t="s">
-        <v>694</v>
-      </c>
-      <c r="I61" s="24" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="12">
-      <c r="A62" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="B62" s="24" t="s">
-        <v>1028</v>
-      </c>
-      <c r="C62" s="24" t="s">
-        <v>1028</v>
-      </c>
-      <c r="D62" s="20" t="s">
-        <v>1083</v>
-      </c>
-      <c r="E62" s="24" t="s">
+      <c r="E62" s="23" t="s">
         <v>694</v>
       </c>
       <c r="F62" s="20" t="s">
@@ -24027,24 +24035,24 @@
       <c r="H62" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I62" s="24" t="s">
+      <c r="I62" s="23" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="12">
-      <c r="A63" s="28" t="s">
+      <c r="A63" s="27" t="s">
         <v>643</v>
       </c>
-      <c r="B63" s="24" t="s">
+      <c r="B63" s="23" t="s">
         <v>1028</v>
       </c>
-      <c r="C63" s="24" t="s">
+      <c r="C63" s="23" t="s">
         <v>1028</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>1084</v>
-      </c>
-      <c r="E63" s="24" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E63" s="23" t="s">
         <v>694</v>
       </c>
       <c r="F63" s="20" t="s">
@@ -24056,227 +24064,227 @@
       <c r="H63" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I63" s="24" t="s">
+      <c r="I63" s="23" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="64" spans="1:9" s="18" customFormat="1" ht="12">
-      <c r="A64" s="28" t="s">
+      <c r="A64" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="B64" s="24" t="s">
+      <c r="B64" s="23" t="s">
         <v>1028</v>
       </c>
-      <c r="C64" s="24" t="s">
+      <c r="C64" s="23" t="s">
         <v>1028</v>
       </c>
       <c r="D64" s="20" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E64" s="23" t="s">
+        <v>694</v>
+      </c>
+      <c r="F64" s="20" t="s">
+        <v>694</v>
+      </c>
+      <c r="G64" s="20" t="s">
+        <v>694</v>
+      </c>
+      <c r="H64" s="49" t="s">
+        <v>1124</v>
+      </c>
+      <c r="I64" s="23" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" s="18" customFormat="1" ht="12">
+      <c r="A65" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="B65" s="23" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C65" s="23" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D65" s="20" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E65" s="23" t="s">
+        <v>694</v>
+      </c>
+      <c r="F65" s="49" t="s">
+        <v>1126</v>
+      </c>
+      <c r="G65" s="20" t="s">
+        <v>694</v>
+      </c>
+      <c r="H65" s="49" t="s">
+        <v>1125</v>
+      </c>
+      <c r="I65" s="23" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="12">
+      <c r="A66" s="27" t="s">
+        <v>648</v>
+      </c>
+      <c r="B66" s="23" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C66" s="23" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D66" s="20" t="s">
+        <v>694</v>
+      </c>
+      <c r="E66" s="23" t="s">
+        <v>694</v>
+      </c>
+      <c r="F66" s="49" t="s">
+        <v>1024</v>
+      </c>
+      <c r="G66" s="20" t="s">
+        <v>694</v>
+      </c>
+      <c r="H66" s="20" t="s">
+        <v>694</v>
+      </c>
+      <c r="I66" s="23" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="12">
+      <c r="A67" s="27" t="s">
+        <v>650</v>
+      </c>
+      <c r="B67" s="23" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C67" s="23" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D67" s="20" t="s">
         <v>1085</v>
       </c>
-      <c r="E64" s="24" t="s">
-        <v>694</v>
-      </c>
-      <c r="F64" s="20" t="s">
-        <v>694</v>
-      </c>
-      <c r="G64" s="20" t="s">
-        <v>694</v>
-      </c>
-      <c r="H64" s="20" t="s">
-        <v>694</v>
-      </c>
-      <c r="I64" s="24" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" s="18" customFormat="1" ht="12">
-      <c r="A65" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="B65" s="24" t="s">
+      <c r="E67" s="23" t="s">
+        <v>694</v>
+      </c>
+      <c r="F67" s="20" t="s">
+        <v>694</v>
+      </c>
+      <c r="G67" s="20" t="s">
+        <v>694</v>
+      </c>
+      <c r="H67" s="20" t="s">
+        <v>694</v>
+      </c>
+      <c r="I67" s="23" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="12">
+      <c r="A68" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="B68" s="23" t="s">
         <v>1028</v>
       </c>
-      <c r="C65" s="24" t="s">
+      <c r="C68" s="23" t="s">
         <v>1028</v>
       </c>
-      <c r="D65" s="20" t="s">
+      <c r="D68" s="20" t="s">
         <v>1086</v>
       </c>
-      <c r="E65" s="24" t="s">
-        <v>694</v>
-      </c>
-      <c r="F65" s="20" t="s">
-        <v>694</v>
-      </c>
-      <c r="G65" s="20" t="s">
-        <v>694</v>
-      </c>
-      <c r="H65" s="20" t="s">
-        <v>694</v>
-      </c>
-      <c r="I65" s="24" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="12">
-      <c r="A66" s="28" t="s">
-        <v>648</v>
-      </c>
-      <c r="B66" s="24" t="s">
+      <c r="E68" s="23" t="s">
+        <v>694</v>
+      </c>
+      <c r="F68" s="20" t="s">
+        <v>694</v>
+      </c>
+      <c r="G68" s="20" t="s">
+        <v>694</v>
+      </c>
+      <c r="H68" s="20" t="s">
+        <v>694</v>
+      </c>
+      <c r="I68" s="23" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="12">
+      <c r="A69" s="27" t="s">
+        <v>653</v>
+      </c>
+      <c r="B69" s="23" t="s">
         <v>1028</v>
       </c>
-      <c r="C66" s="24" t="s">
+      <c r="C69" s="23" t="s">
         <v>1028</v>
       </c>
-      <c r="D66" s="20" t="s">
-        <v>694</v>
-      </c>
-      <c r="E66" s="24" t="s">
-        <v>694</v>
-      </c>
-      <c r="F66" s="20" t="s">
-        <v>1024</v>
-      </c>
-      <c r="G66" s="20" t="s">
-        <v>694</v>
-      </c>
-      <c r="H66" s="20" t="s">
-        <v>694</v>
-      </c>
-      <c r="I66" s="24" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="12">
-      <c r="A67" s="28" t="s">
-        <v>650</v>
-      </c>
-      <c r="B67" s="24" t="s">
+      <c r="D69" s="20" t="s">
+        <v>694</v>
+      </c>
+      <c r="E69" s="23" t="s">
+        <v>694</v>
+      </c>
+      <c r="F69" s="20" t="s">
+        <v>694</v>
+      </c>
+      <c r="G69" s="20" t="s">
+        <v>694</v>
+      </c>
+      <c r="H69" s="20" t="s">
+        <v>694</v>
+      </c>
+      <c r="I69" s="23" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="12">
+      <c r="A70" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B70" s="23" t="s">
         <v>1028</v>
       </c>
-      <c r="C67" s="24" t="s">
+      <c r="C70" s="23" t="s">
         <v>1028</v>
       </c>
-      <c r="D67" s="20" t="s">
+      <c r="D70" s="20" t="s">
         <v>1087</v>
       </c>
-      <c r="E67" s="24" t="s">
-        <v>694</v>
-      </c>
-      <c r="F67" s="20" t="s">
-        <v>694</v>
-      </c>
-      <c r="G67" s="20" t="s">
-        <v>694</v>
-      </c>
-      <c r="H67" s="20" t="s">
-        <v>694</v>
-      </c>
-      <c r="I67" s="24" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="12">
-      <c r="A68" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="B68" s="24" t="s">
+      <c r="E70" s="23" t="s">
+        <v>694</v>
+      </c>
+      <c r="F70" s="20" t="s">
+        <v>694</v>
+      </c>
+      <c r="G70" s="20" t="s">
+        <v>694</v>
+      </c>
+      <c r="H70" s="20" t="s">
+        <v>694</v>
+      </c>
+      <c r="I70" s="23" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="12">
+      <c r="A71" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="B71" s="23" t="s">
         <v>1028</v>
       </c>
-      <c r="C68" s="24" t="s">
+      <c r="C71" s="23" t="s">
         <v>1028</v>
       </c>
-      <c r="D68" s="20" t="s">
+      <c r="D71" s="20" t="s">
         <v>1088</v>
       </c>
-      <c r="E68" s="24" t="s">
-        <v>694</v>
-      </c>
-      <c r="F68" s="20" t="s">
-        <v>694</v>
-      </c>
-      <c r="G68" s="20" t="s">
-        <v>694</v>
-      </c>
-      <c r="H68" s="20" t="s">
-        <v>694</v>
-      </c>
-      <c r="I68" s="24" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="12">
-      <c r="A69" s="28" t="s">
-        <v>653</v>
-      </c>
-      <c r="B69" s="24" t="s">
-        <v>1028</v>
-      </c>
-      <c r="C69" s="24" t="s">
-        <v>1028</v>
-      </c>
-      <c r="D69" s="20" t="s">
-        <v>694</v>
-      </c>
-      <c r="E69" s="24" t="s">
-        <v>694</v>
-      </c>
-      <c r="F69" s="20" t="s">
-        <v>694</v>
-      </c>
-      <c r="G69" s="20" t="s">
-        <v>694</v>
-      </c>
-      <c r="H69" s="20" t="s">
-        <v>694</v>
-      </c>
-      <c r="I69" s="24" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="12">
-      <c r="A70" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="B70" s="24" t="s">
-        <v>1028</v>
-      </c>
-      <c r="C70" s="24" t="s">
-        <v>1028</v>
-      </c>
-      <c r="D70" s="20" t="s">
-        <v>1089</v>
-      </c>
-      <c r="E70" s="24" t="s">
-        <v>694</v>
-      </c>
-      <c r="F70" s="20" t="s">
-        <v>694</v>
-      </c>
-      <c r="G70" s="20" t="s">
-        <v>694</v>
-      </c>
-      <c r="H70" s="20" t="s">
-        <v>694</v>
-      </c>
-      <c r="I70" s="24" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="12">
-      <c r="A71" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="B71" s="24" t="s">
-        <v>1028</v>
-      </c>
-      <c r="C71" s="24" t="s">
-        <v>1028</v>
-      </c>
-      <c r="D71" s="20" t="s">
-        <v>1090</v>
-      </c>
-      <c r="E71" s="24" t="s">
+      <c r="E71" s="23" t="s">
         <v>694</v>
       </c>
       <c r="F71" s="20" t="s">
@@ -24288,140 +24296,140 @@
       <c r="H71" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I71" s="24" t="s">
+      <c r="I71" s="23" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="12">
-      <c r="A72" s="28" t="s">
+      <c r="A72" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="B72" s="24" t="s">
+      <c r="B72" s="23" t="s">
         <v>1028</v>
       </c>
-      <c r="C72" s="24" t="s">
+      <c r="C72" s="23" t="s">
         <v>1028</v>
       </c>
       <c r="D72" s="20" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E72" s="23" t="s">
+        <v>694</v>
+      </c>
+      <c r="F72" s="20" t="s">
+        <v>694</v>
+      </c>
+      <c r="G72" s="20" t="s">
+        <v>694</v>
+      </c>
+      <c r="H72" s="20" t="s">
+        <v>694</v>
+      </c>
+      <c r="I72" s="23" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="12">
+      <c r="A73" s="27" t="s">
+        <v>660</v>
+      </c>
+      <c r="B73" s="23" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C73" s="23" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D73" s="20" t="s">
+        <v>694</v>
+      </c>
+      <c r="E73" s="23" t="s">
+        <v>694</v>
+      </c>
+      <c r="F73" s="20" t="s">
+        <v>694</v>
+      </c>
+      <c r="G73" s="20" t="s">
+        <v>694</v>
+      </c>
+      <c r="H73" s="20" t="s">
+        <v>694</v>
+      </c>
+      <c r="I73" s="23" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="12">
+      <c r="A74" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B74" s="23" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C74" s="23" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D74" s="20" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E74" s="23" t="s">
+        <v>694</v>
+      </c>
+      <c r="F74" s="20" t="s">
+        <v>694</v>
+      </c>
+      <c r="G74" s="20" t="s">
+        <v>694</v>
+      </c>
+      <c r="H74" s="20" t="s">
+        <v>694</v>
+      </c>
+      <c r="I74" s="23" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="12">
+      <c r="A75" s="27" t="s">
+        <v>662</v>
+      </c>
+      <c r="B75" s="23" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C75" s="23" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D75" s="20" t="s">
         <v>1091</v>
       </c>
-      <c r="E72" s="24" t="s">
-        <v>694</v>
-      </c>
-      <c r="F72" s="20" t="s">
-        <v>694</v>
-      </c>
-      <c r="G72" s="20" t="s">
-        <v>694</v>
-      </c>
-      <c r="H72" s="20" t="s">
-        <v>694</v>
-      </c>
-      <c r="I72" s="24" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="12">
-      <c r="A73" s="28" t="s">
-        <v>660</v>
-      </c>
-      <c r="B73" s="24" t="s">
+      <c r="E75" s="23" t="s">
+        <v>694</v>
+      </c>
+      <c r="F75" s="20" t="s">
+        <v>694</v>
+      </c>
+      <c r="G75" s="20" t="s">
+        <v>694</v>
+      </c>
+      <c r="H75" s="20" t="s">
+        <v>694</v>
+      </c>
+      <c r="I75" s="23" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="12">
+      <c r="A76" s="27" t="s">
+        <v>664</v>
+      </c>
+      <c r="B76" s="23" t="s">
         <v>1028</v>
       </c>
-      <c r="C73" s="24" t="s">
-        <v>1028</v>
-      </c>
-      <c r="D73" s="20" t="s">
-        <v>694</v>
-      </c>
-      <c r="E73" s="24" t="s">
-        <v>694</v>
-      </c>
-      <c r="F73" s="20" t="s">
-        <v>694</v>
-      </c>
-      <c r="G73" s="20" t="s">
-        <v>694</v>
-      </c>
-      <c r="H73" s="20" t="s">
-        <v>694</v>
-      </c>
-      <c r="I73" s="24" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="12">
-      <c r="A74" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="B74" s="24" t="s">
-        <v>1028</v>
-      </c>
-      <c r="C74" s="24" t="s">
-        <v>1028</v>
-      </c>
-      <c r="D74" s="20" t="s">
-        <v>1092</v>
-      </c>
-      <c r="E74" s="24" t="s">
-        <v>694</v>
-      </c>
-      <c r="F74" s="20" t="s">
-        <v>694</v>
-      </c>
-      <c r="G74" s="20" t="s">
-        <v>694</v>
-      </c>
-      <c r="H74" s="20" t="s">
-        <v>694</v>
-      </c>
-      <c r="I74" s="24" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="12">
-      <c r="A75" s="28" t="s">
-        <v>662</v>
-      </c>
-      <c r="B75" s="24" t="s">
-        <v>1028</v>
-      </c>
-      <c r="C75" s="24" t="s">
-        <v>1028</v>
-      </c>
-      <c r="D75" s="20" t="s">
-        <v>1093</v>
-      </c>
-      <c r="E75" s="24" t="s">
-        <v>694</v>
-      </c>
-      <c r="F75" s="20" t="s">
-        <v>694</v>
-      </c>
-      <c r="G75" s="20" t="s">
-        <v>694</v>
-      </c>
-      <c r="H75" s="20" t="s">
-        <v>694</v>
-      </c>
-      <c r="I75" s="24" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="12">
-      <c r="A76" s="28" t="s">
-        <v>664</v>
-      </c>
-      <c r="B76" s="24" t="s">
-        <v>1028</v>
-      </c>
-      <c r="C76" s="24" t="s">
+      <c r="C76" s="23" t="s">
         <v>1028</v>
       </c>
       <c r="D76" s="20" t="s">
         <v>982</v>
       </c>
-      <c r="E76" s="24" t="s">
+      <c r="E76" s="23" t="s">
         <v>694</v>
       </c>
       <c r="F76" s="20" t="s">
@@ -24433,24 +24441,24 @@
       <c r="H76" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I76" s="24" t="s">
+      <c r="I76" s="23" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="12">
-      <c r="A77" s="28" t="s">
+      <c r="A77" s="27" t="s">
         <v>665</v>
       </c>
-      <c r="B77" s="24" t="s">
+      <c r="B77" s="23" t="s">
         <v>1028</v>
       </c>
-      <c r="C77" s="24" t="s">
+      <c r="C77" s="23" t="s">
         <v>1028</v>
       </c>
       <c r="D77" s="20" t="s">
-        <v>1094</v>
-      </c>
-      <c r="E77" s="24" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E77" s="23" t="s">
         <v>694</v>
       </c>
       <c r="F77" s="20" t="s">
@@ -24462,24 +24470,24 @@
       <c r="H77" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I77" s="24" t="s">
+      <c r="I77" s="23" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="12">
-      <c r="A78" s="28" t="s">
+      <c r="A78" s="27" t="s">
         <v>666</v>
       </c>
-      <c r="B78" s="24" t="s">
+      <c r="B78" s="23" t="s">
         <v>1028</v>
       </c>
-      <c r="C78" s="24" t="s">
+      <c r="C78" s="23" t="s">
         <v>1028</v>
       </c>
       <c r="D78" s="20" t="s">
         <v>896</v>
       </c>
-      <c r="E78" s="24" t="s">
+      <c r="E78" s="23" t="s">
         <v>694</v>
       </c>
       <c r="F78" s="20" t="s">
@@ -24489,26 +24497,26 @@
         <v>694</v>
       </c>
       <c r="H78" s="20" t="s">
-        <v>1122</v>
-      </c>
-      <c r="I78" s="24" t="s">
+        <v>1120</v>
+      </c>
+      <c r="I78" s="23" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="12">
-      <c r="A79" s="28" t="s">
+      <c r="A79" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="B79" s="24" t="s">
+      <c r="B79" s="23" t="s">
         <v>1028</v>
       </c>
-      <c r="C79" s="24" t="s">
+      <c r="C79" s="23" t="s">
         <v>1028</v>
       </c>
       <c r="D79" s="20" t="s">
-        <v>1095</v>
-      </c>
-      <c r="E79" s="24" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E79" s="23" t="s">
         <v>694</v>
       </c>
       <c r="F79" s="20" t="s">
@@ -24520,24 +24528,24 @@
       <c r="H79" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I79" s="24" t="s">
+      <c r="I79" s="23" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="12">
-      <c r="A80" s="28" t="s">
+      <c r="A80" s="27" t="s">
         <v>669</v>
       </c>
-      <c r="B80" s="24" t="s">
+      <c r="B80" s="23" t="s">
         <v>1028</v>
       </c>
-      <c r="C80" s="24" t="s">
+      <c r="C80" s="23" t="s">
         <v>1028</v>
       </c>
       <c r="D80" s="20" t="s">
         <v>898</v>
       </c>
-      <c r="E80" s="24" t="s">
+      <c r="E80" s="23" t="s">
         <v>694</v>
       </c>
       <c r="F80" s="20" t="s">
@@ -24549,24 +24557,24 @@
       <c r="H80" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I80" s="24" t="s">
+      <c r="I80" s="23" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="12">
-      <c r="A81" s="28" t="s">
+      <c r="A81" s="27" t="s">
         <v>672</v>
       </c>
-      <c r="B81" s="24" t="s">
+      <c r="B81" s="23" t="s">
         <v>1028</v>
       </c>
-      <c r="C81" s="24" t="s">
+      <c r="C81" s="23" t="s">
         <v>1028</v>
       </c>
       <c r="D81" s="20" t="s">
-        <v>1096</v>
-      </c>
-      <c r="E81" s="24" t="s">
+        <v>1094</v>
+      </c>
+      <c r="E81" s="23" t="s">
         <v>694</v>
       </c>
       <c r="F81" s="20" t="s">
@@ -24578,24 +24586,24 @@
       <c r="H81" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I81" s="24" t="s">
+      <c r="I81" s="23" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="12">
-      <c r="A82" s="28" t="s">
+      <c r="A82" s="27" t="s">
         <v>674</v>
       </c>
-      <c r="B82" s="24" t="s">
+      <c r="B82" s="23" t="s">
         <v>1028</v>
       </c>
-      <c r="C82" s="24" t="s">
+      <c r="C82" s="23" t="s">
         <v>1028</v>
       </c>
       <c r="D82" s="20" t="s">
         <v>899</v>
       </c>
-      <c r="E82" s="24" t="s">
+      <c r="E82" s="23" t="s">
         <v>694</v>
       </c>
       <c r="F82" s="20" t="s">
@@ -24607,22 +24615,22 @@
       <c r="H82" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I82" s="24" t="s">
+      <c r="I82" s="23" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="83" spans="1:9" s="19" customFormat="1" ht="12">
-      <c r="A83" s="28" t="s">
+      <c r="A83" s="27" t="s">
         <v>692</v>
       </c>
-      <c r="B83" s="24" t="s">
+      <c r="B83" s="23" t="s">
         <v>1028</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="D83" s="20" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="E83" s="20" t="s">
         <v>694</v>
@@ -24636,12 +24644,12 @@
       <c r="H83" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I83" s="24" t="s">
+      <c r="I83" s="23" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="12">
-      <c r="A84" s="28" t="s">
+      <c r="A84" s="27" t="s">
         <v>974</v>
       </c>
       <c r="B84" s="15" t="s">
@@ -24665,12 +24673,12 @@
       <c r="H84" s="15" t="s">
         <v>694</v>
       </c>
-      <c r="I84" s="34" t="s">
+      <c r="I84" s="33" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="12">
-      <c r="A85" s="28" t="s">
+      <c r="A85" s="27" t="s">
         <v>676</v>
       </c>
       <c r="B85" s="20" t="s">
@@ -24694,12 +24702,12 @@
       <c r="H85" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I85" s="34" t="s">
+      <c r="I85" s="33" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="12">
-      <c r="A86" s="28" t="s">
+      <c r="A86" s="27" t="s">
         <v>678</v>
       </c>
       <c r="B86" s="20" t="s">
@@ -24723,12 +24731,12 @@
       <c r="H86" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I86" s="34" t="s">
+      <c r="I86" s="33" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="87" spans="1:9" s="18" customFormat="1" ht="12">
-      <c r="A87" s="28" t="s">
+      <c r="A87" s="27" t="s">
         <v>680</v>
       </c>
       <c r="B87" s="20" t="s">
@@ -24752,12 +24760,12 @@
       <c r="H87" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I87" s="34" t="s">
+      <c r="I87" s="33" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="88" spans="1:9" s="18" customFormat="1" ht="12">
-      <c r="A88" s="28" t="s">
+      <c r="A88" s="27" t="s">
         <v>976</v>
       </c>
       <c r="B88" s="15" t="s">
@@ -24781,12 +24789,12 @@
       <c r="H88" s="15" t="s">
         <v>694</v>
       </c>
-      <c r="I88" s="34" t="s">
+      <c r="I88" s="33" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="89" spans="1:9" s="18" customFormat="1" ht="12">
-      <c r="A89" s="28" t="s">
+      <c r="A89" s="27" t="s">
         <v>978</v>
       </c>
       <c r="B89" s="15" t="s">
@@ -24810,12 +24818,12 @@
       <c r="H89" s="15" t="s">
         <v>694</v>
       </c>
-      <c r="I89" s="34" t="s">
+      <c r="I89" s="33" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="12">
-      <c r="A90" s="28" t="s">
+      <c r="A90" s="27" t="s">
         <v>979</v>
       </c>
       <c r="B90" s="15" t="s">
@@ -24839,12 +24847,12 @@
       <c r="H90" s="15" t="s">
         <v>694</v>
       </c>
-      <c r="I90" s="34" t="s">
+      <c r="I90" s="33" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="12">
-      <c r="A91" s="28" t="s">
+      <c r="A91" s="27" t="s">
         <v>682</v>
       </c>
       <c r="B91" s="20" t="s">
@@ -24868,36 +24876,36 @@
       <c r="H91" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I91" s="34" t="s">
+      <c r="I91" s="33" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="12">
-      <c r="A92" s="29" t="s">
+      <c r="A92" s="28" t="s">
         <v>684</v>
       </c>
-      <c r="B92" s="23" t="s">
-        <v>694</v>
-      </c>
-      <c r="C92" s="23" t="s">
-        <v>694</v>
-      </c>
-      <c r="D92" s="23" t="s">
-        <v>694</v>
-      </c>
-      <c r="E92" s="23" t="s">
-        <v>694</v>
-      </c>
-      <c r="F92" s="23" t="s">
-        <v>694</v>
-      </c>
-      <c r="G92" s="23" t="s">
-        <v>694</v>
-      </c>
-      <c r="H92" s="23" t="s">
-        <v>694</v>
-      </c>
-      <c r="I92" s="35" t="s">
+      <c r="B92" s="22" t="s">
+        <v>694</v>
+      </c>
+      <c r="C92" s="22" t="s">
+        <v>694</v>
+      </c>
+      <c r="D92" s="22" t="s">
+        <v>694</v>
+      </c>
+      <c r="E92" s="22" t="s">
+        <v>694</v>
+      </c>
+      <c r="F92" s="22" t="s">
+        <v>694</v>
+      </c>
+      <c r="G92" s="22" t="s">
+        <v>694</v>
+      </c>
+      <c r="H92" s="22" t="s">
+        <v>694</v>
+      </c>
+      <c r="I92" s="34" t="s">
         <v>694</v>
       </c>
     </row>
@@ -28114,36 +28122,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>543</v>
       </c>
-      <c r="B1" s="30" t="s">
-        <v>694</v>
-      </c>
-      <c r="C1" s="30" t="s">
+      <c r="B1" s="29" t="s">
+        <v>694</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>545</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="29" t="s">
         <v>544</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="29" t="s">
         <v>546</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="29" t="s">
         <v>547</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="29" t="s">
         <v>548</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="29" t="s">
         <v>549</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="30" t="s">
         <v>886</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="17" customFormat="1" ht="12">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="25" t="s">
         <v>218</v>
       </c>
       <c r="B2" s="20" t="s">
@@ -28167,12 +28175,12 @@
       <c r="H2" s="20" t="s">
         <v>743</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="23" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="17" customFormat="1" ht="12">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="25" t="s">
         <v>154</v>
       </c>
       <c r="B3" s="20" t="s">
@@ -28196,12 +28204,12 @@
       <c r="H3" s="20" t="s">
         <v>797</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="23" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="17" customFormat="1" ht="12">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="25" t="s">
         <v>156</v>
       </c>
       <c r="B4" s="20" t="s">
@@ -28225,12 +28233,12 @@
       <c r="H4" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="I4" s="23" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="17" customFormat="1" ht="12">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="25" t="s">
         <v>150</v>
       </c>
       <c r="B5" s="20" t="s">
@@ -28254,12 +28262,12 @@
       <c r="H5" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="I5" s="23" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="17" customFormat="1" ht="12">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="25" t="s">
         <v>159</v>
       </c>
       <c r="B6" s="20" t="s">
@@ -28283,12 +28291,12 @@
       <c r="H6" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="I6" s="24" t="s">
+      <c r="I6" s="23" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="17" customFormat="1" ht="12">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="25" t="s">
         <v>53</v>
       </c>
       <c r="B7" s="20" t="s">
@@ -28312,12 +28320,12 @@
       <c r="H7" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="I7" s="24" t="s">
+      <c r="I7" s="23" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="17" customFormat="1" ht="12">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="25" t="s">
         <v>227</v>
       </c>
       <c r="B8" s="20" t="s">
@@ -28341,12 +28349,12 @@
       <c r="H8" s="20" t="s">
         <v>760</v>
       </c>
-      <c r="I8" s="24" t="s">
+      <c r="I8" s="23" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="17" customFormat="1" ht="12">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="25" t="s">
         <v>241</v>
       </c>
       <c r="B9" s="20" t="s">
@@ -28370,12 +28378,12 @@
       <c r="H9" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="I9" s="24" t="s">
+      <c r="I9" s="23" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="17" customFormat="1" ht="12">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="25" t="s">
         <v>238</v>
       </c>
       <c r="B10" s="20" t="s">
@@ -28399,12 +28407,12 @@
       <c r="H10" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="I10" s="24" t="s">
+      <c r="I10" s="23" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="17" customFormat="1" ht="12">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="25" t="s">
         <v>141</v>
       </c>
       <c r="B11" s="20" t="s">
@@ -28428,12 +28436,12 @@
       <c r="H11" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="I11" s="24" t="s">
+      <c r="I11" s="23" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="17" customFormat="1" ht="12">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="25" t="s">
         <v>224</v>
       </c>
       <c r="B12" s="20" t="s">
@@ -28457,12 +28465,12 @@
       <c r="H12" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="I12" s="24" t="s">
+      <c r="I12" s="23" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="17" customFormat="1" ht="12">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="25" t="s">
         <v>228</v>
       </c>
       <c r="B13" s="20" t="s">
@@ -28486,15 +28494,15 @@
       <c r="H13" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="I13" s="24" t="s">
+      <c r="I13" s="23" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="12">
-      <c r="A14" s="27">
+      <c r="A14" s="26">
         <v>1</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="23" t="s">
         <v>1027</v>
       </c>
       <c r="C14" s="20" t="s">
@@ -28503,7 +28511,7 @@
       <c r="D14" s="20" t="s">
         <v>846</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="E14" s="23" t="s">
         <v>980</v>
       </c>
       <c r="F14" s="20" t="s">
@@ -28515,15 +28523,15 @@
       <c r="H14" s="20" t="s">
         <v>746</v>
       </c>
-      <c r="I14" s="24" t="s">
+      <c r="I14" s="23" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="12">
-      <c r="A15" s="27">
+      <c r="A15" s="26">
         <v>2</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="23" t="s">
         <v>1027</v>
       </c>
       <c r="C15" s="20" t="s">
@@ -28532,7 +28540,7 @@
       <c r="D15" s="20" t="s">
         <v>846</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="23" t="s">
         <v>980</v>
       </c>
       <c r="F15" s="20" t="s">
@@ -28544,15 +28552,15 @@
       <c r="H15" s="20" t="s">
         <v>746</v>
       </c>
-      <c r="I15" s="24" t="s">
+      <c r="I15" s="23" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="12">
-      <c r="A16" s="27">
+      <c r="A16" s="26">
         <v>3</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="23" t="s">
         <v>1027</v>
       </c>
       <c r="C16" s="20" t="s">
@@ -28561,7 +28569,7 @@
       <c r="D16" s="20" t="s">
         <v>763</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="23" t="s">
         <v>980</v>
       </c>
       <c r="F16" s="20" t="s">
@@ -28573,15 +28581,15 @@
       <c r="H16" s="20" t="s">
         <v>746</v>
       </c>
-      <c r="I16" s="24" t="s">
+      <c r="I16" s="23" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="12">
-      <c r="A17" s="27">
+      <c r="A17" s="26">
         <v>4</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="23" t="s">
         <v>1027</v>
       </c>
       <c r="C17" s="20" t="s">
@@ -28590,7 +28598,7 @@
       <c r="D17" s="20" t="s">
         <v>761</v>
       </c>
-      <c r="E17" s="24" t="s">
+      <c r="E17" s="23" t="s">
         <v>980</v>
       </c>
       <c r="F17" s="20" t="s">
@@ -28602,15 +28610,15 @@
       <c r="H17" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="I17" s="24" t="s">
+      <c r="I17" s="23" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="12">
-      <c r="A18" s="27">
+      <c r="A18" s="26">
         <v>5</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="23" t="s">
         <v>1027</v>
       </c>
       <c r="C18" s="20" t="s">
@@ -28619,7 +28627,7 @@
       <c r="D18" s="20" t="s">
         <v>846</v>
       </c>
-      <c r="E18" s="24" t="s">
+      <c r="E18" s="23" t="s">
         <v>980</v>
       </c>
       <c r="F18" s="20" t="s">
@@ -28631,15 +28639,15 @@
       <c r="H18" s="20" t="s">
         <v>728</v>
       </c>
-      <c r="I18" s="24" t="s">
+      <c r="I18" s="23" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="12">
-      <c r="A19" s="27">
+      <c r="A19" s="26">
         <v>6</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="23" t="s">
         <v>1027</v>
       </c>
       <c r="C19" s="20" t="s">
@@ -28648,7 +28656,7 @@
       <c r="D19" s="20" t="s">
         <v>762</v>
       </c>
-      <c r="E19" s="24" t="s">
+      <c r="E19" s="23" t="s">
         <v>980</v>
       </c>
       <c r="F19" s="20" t="s">
@@ -28660,15 +28668,15 @@
       <c r="H19" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="I19" s="24" t="s">
+      <c r="I19" s="23" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="12">
-      <c r="A20" s="27">
+      <c r="A20" s="26">
         <v>7</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="23" t="s">
         <v>1027</v>
       </c>
       <c r="C20" s="20" t="s">
@@ -28677,7 +28685,7 @@
       <c r="D20" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="E20" s="24" t="s">
+      <c r="E20" s="23" t="s">
         <v>980</v>
       </c>
       <c r="F20" s="20" t="s">
@@ -28689,15 +28697,15 @@
       <c r="H20" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="I20" s="24" t="s">
+      <c r="I20" s="23" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="12">
-      <c r="A21" s="27">
+      <c r="A21" s="26">
         <v>8</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="23" t="s">
         <v>1027</v>
       </c>
       <c r="C21" s="20" t="s">
@@ -28706,7 +28714,7 @@
       <c r="D21" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="E21" s="24" t="s">
+      <c r="E21" s="23" t="s">
         <v>980</v>
       </c>
       <c r="F21" s="20" t="s">
@@ -28718,15 +28726,15 @@
       <c r="H21" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="I21" s="24" t="s">
+      <c r="I21" s="23" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="12">
-      <c r="A22" s="27">
+      <c r="A22" s="26">
         <v>9</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="23" t="s">
         <v>1027</v>
       </c>
       <c r="C22" s="20" t="s">
@@ -28735,7 +28743,7 @@
       <c r="D22" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="E22" s="24" t="s">
+      <c r="E22" s="23" t="s">
         <v>980</v>
       </c>
       <c r="F22" s="20" t="s">
@@ -28747,15 +28755,15 @@
       <c r="H22" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="I22" s="24" t="s">
+      <c r="I22" s="23" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="12">
-      <c r="A23" s="27">
+      <c r="A23" s="26">
         <v>0</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="23" t="s">
         <v>1027</v>
       </c>
       <c r="C23" s="20" t="s">
@@ -28764,7 +28772,7 @@
       <c r="D23" s="20" t="s">
         <v>849</v>
       </c>
-      <c r="E23" s="24" t="s">
+      <c r="E23" s="23" t="s">
         <v>980</v>
       </c>
       <c r="F23" s="20" t="s">
@@ -28776,12 +28784,12 @@
       <c r="H23" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="I23" s="24" t="s">
+      <c r="I23" s="23" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="17" customFormat="1" ht="12">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="25" t="s">
         <v>697</v>
       </c>
       <c r="B24" s="20" t="s">
@@ -28805,12 +28813,12 @@
       <c r="H24" s="20" t="s">
         <v>884</v>
       </c>
-      <c r="I24" s="24" t="s">
+      <c r="I24" s="23" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="17" customFormat="1" ht="12">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="25" t="s">
         <v>698</v>
       </c>
       <c r="B25" s="20" t="s">
@@ -28834,12 +28842,12 @@
       <c r="H25" s="20" t="s">
         <v>883</v>
       </c>
-      <c r="I25" s="24" t="s">
+      <c r="I25" s="23" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="12">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="25" t="s">
         <v>695</v>
       </c>
       <c r="B26" s="20" t="s">
@@ -28863,12 +28871,12 @@
       <c r="H26" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="I26" s="24" t="s">
+      <c r="I26" s="23" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="12">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="25" t="s">
         <v>696</v>
       </c>
       <c r="B27" s="20" t="s">
@@ -28892,12 +28900,12 @@
       <c r="H27" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="I27" s="24" t="s">
+      <c r="I27" s="23" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="12">
-      <c r="A28" s="28" t="s">
+      <c r="A28" s="27" t="s">
         <v>608</v>
       </c>
       <c r="B28" s="20" t="s">
@@ -28921,12 +28929,12 @@
       <c r="H28" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="I28" s="24" t="s">
+      <c r="I28" s="23" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="12">
-      <c r="A29" s="28" t="s">
+      <c r="A29" s="27" t="s">
         <v>610</v>
       </c>
       <c r="B29" s="20" t="s">
@@ -28950,12 +28958,12 @@
       <c r="H29" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="I29" s="24" t="s">
+      <c r="I29" s="23" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="12">
-      <c r="A30" s="28" t="s">
+      <c r="A30" s="27" t="s">
         <v>613</v>
       </c>
       <c r="B30" s="20" t="s">
@@ -28979,12 +28987,12 @@
       <c r="H30" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="I30" s="24" t="s">
+      <c r="I30" s="23" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="12">
-      <c r="A31" s="28" t="s">
+      <c r="A31" s="27" t="s">
         <v>617</v>
       </c>
       <c r="B31" s="20" t="s">
@@ -29008,12 +29016,12 @@
       <c r="H31" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="I31" s="24" t="s">
+      <c r="I31" s="23" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="12">
-      <c r="A32" s="28" t="s">
+      <c r="A32" s="27" t="s">
         <v>693</v>
       </c>
       <c r="B32" s="20" t="s">
@@ -29037,12 +29045,12 @@
       <c r="H32" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="I32" s="24" t="s">
+      <c r="I32" s="23" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="12">
-      <c r="A33" s="28" t="s">
+      <c r="A33" s="27" t="s">
         <v>879</v>
       </c>
       <c r="B33" s="20" t="s">
@@ -29066,12 +29074,12 @@
       <c r="H33" s="20" t="s">
         <v>745</v>
       </c>
-      <c r="I33" s="24" t="s">
+      <c r="I33" s="23" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="12">
-      <c r="A34" s="28" t="s">
+      <c r="A34" s="27" t="s">
         <v>880</v>
       </c>
       <c r="B34" s="20" t="s">
@@ -29095,12 +29103,12 @@
       <c r="H34" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="I34" s="24" t="s">
+      <c r="I34" s="23" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="12">
-      <c r="A35" s="28" t="s">
+      <c r="A35" s="27" t="s">
         <v>881</v>
       </c>
       <c r="B35" s="20" t="s">
@@ -29124,12 +29132,12 @@
       <c r="H35" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="I35" s="24" t="s">
+      <c r="I35" s="23" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="12">
-      <c r="A36" s="28" t="s">
+      <c r="A36" s="27" t="s">
         <v>882</v>
       </c>
       <c r="B36" s="20" t="s">
@@ -29153,12 +29161,12 @@
       <c r="H36" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="I36" s="24" t="s">
+      <c r="I36" s="23" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="12">
-      <c r="A37" s="28" t="s">
+      <c r="A37" s="27" t="s">
         <v>622</v>
       </c>
       <c r="B37" s="20" t="s">
@@ -29182,12 +29190,12 @@
       <c r="H37" s="20" t="s">
         <v>748</v>
       </c>
-      <c r="I37" s="24" t="s">
+      <c r="I37" s="23" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="12">
-      <c r="A38" s="28" t="s">
+      <c r="A38" s="27" t="s">
         <v>941</v>
       </c>
       <c r="B38" s="20" t="s">
@@ -29211,12 +29219,12 @@
       <c r="H38" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="I38" s="24" t="s">
+      <c r="I38" s="23" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="12">
-      <c r="A39" s="28" t="s">
+      <c r="A39" s="27" t="s">
         <v>943</v>
       </c>
       <c r="B39" s="20" t="s">
@@ -29240,12 +29248,12 @@
       <c r="H39" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="I39" s="24" t="s">
+      <c r="I39" s="23" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="12">
-      <c r="A40" s="28" t="s">
+      <c r="A40" s="27" t="s">
         <v>945</v>
       </c>
       <c r="B40" s="20" t="s">
@@ -29269,12 +29277,12 @@
       <c r="H40" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="I40" s="24" t="s">
+      <c r="I40" s="23" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="12">
-      <c r="A41" s="28" t="s">
+      <c r="A41" s="27" t="s">
         <v>947</v>
       </c>
       <c r="B41" s="20" t="s">
@@ -29298,12 +29306,12 @@
       <c r="H41" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="I41" s="24" t="s">
+      <c r="I41" s="23" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="12">
-      <c r="A42" s="28" t="s">
+      <c r="A42" s="27" t="s">
         <v>949</v>
       </c>
       <c r="B42" s="20" t="s">
@@ -29327,12 +29335,12 @@
       <c r="H42" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="I42" s="24" t="s">
+      <c r="I42" s="23" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="12">
-      <c r="A43" s="28" t="s">
+      <c r="A43" s="27" t="s">
         <v>951</v>
       </c>
       <c r="B43" s="20" t="s">
@@ -29356,12 +29364,12 @@
       <c r="H43" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="I43" s="24" t="s">
+      <c r="I43" s="23" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="12">
-      <c r="A44" s="28" t="s">
+      <c r="A44" s="27" t="s">
         <v>953</v>
       </c>
       <c r="B44" s="20" t="s">
@@ -29385,12 +29393,12 @@
       <c r="H44" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="I44" s="24" t="s">
+      <c r="I44" s="23" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="12">
-      <c r="A45" s="28" t="s">
+      <c r="A45" s="27" t="s">
         <v>955</v>
       </c>
       <c r="B45" s="20" t="s">
@@ -29414,12 +29422,12 @@
       <c r="H45" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="I45" s="24" t="s">
+      <c r="I45" s="23" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="12">
-      <c r="A46" s="28" t="s">
+      <c r="A46" s="27" t="s">
         <v>957</v>
       </c>
       <c r="B46" s="20" t="s">
@@ -29443,12 +29451,12 @@
       <c r="H46" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="I46" s="24" t="s">
+      <c r="I46" s="23" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="12">
-      <c r="A47" s="28" t="s">
+      <c r="A47" s="27" t="s">
         <v>959</v>
       </c>
       <c r="B47" s="20" t="s">
@@ -29472,12 +29480,12 @@
       <c r="H47" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="I47" s="24" t="s">
+      <c r="I47" s="23" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="12">
-      <c r="A48" s="28" t="s">
+      <c r="A48" s="27" t="s">
         <v>961</v>
       </c>
       <c r="B48" s="20" t="s">
@@ -29501,12 +29509,12 @@
       <c r="H48" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="I48" s="24" t="s">
+      <c r="I48" s="23" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="12">
-      <c r="A49" s="28" t="s">
+      <c r="A49" s="27" t="s">
         <v>963</v>
       </c>
       <c r="B49" s="20" t="s">
@@ -29530,12 +29538,12 @@
       <c r="H49" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="I49" s="24" t="s">
+      <c r="I49" s="23" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="12">
-      <c r="A50" s="28" t="s">
+      <c r="A50" s="27" t="s">
         <v>691</v>
       </c>
       <c r="B50" s="20" t="s">
@@ -29559,12 +29567,12 @@
       <c r="H50" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="I50" s="24" t="s">
+      <c r="I50" s="23" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="12">
-      <c r="A51" s="28" t="s">
+      <c r="A51" s="27" t="s">
         <v>629</v>
       </c>
       <c r="B51" s="20" t="s">
@@ -29588,12 +29596,12 @@
       <c r="H51" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="I51" s="24" t="s">
+      <c r="I51" s="23" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="12">
-      <c r="A52" s="28" t="s">
+      <c r="A52" s="27" t="s">
         <v>631</v>
       </c>
       <c r="B52" s="20" t="s">
@@ -29617,12 +29625,12 @@
       <c r="H52" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="I52" s="24" t="s">
+      <c r="I52" s="23" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="12">
-      <c r="A53" s="28" t="s">
+      <c r="A53" s="27" t="s">
         <v>632</v>
       </c>
       <c r="B53" s="20" t="s">
@@ -29646,12 +29654,12 @@
       <c r="H53" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="I53" s="24" t="s">
+      <c r="I53" s="23" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="12">
-      <c r="A54" s="28" t="s">
+      <c r="A54" s="27" t="s">
         <v>633</v>
       </c>
       <c r="B54" s="20" t="s">
@@ -29675,12 +29683,12 @@
       <c r="H54" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="I54" s="24" t="s">
+      <c r="I54" s="23" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="12">
-      <c r="A55" s="28" t="s">
+      <c r="A55" s="27" t="s">
         <v>973</v>
       </c>
       <c r="B55" s="20" t="s">
@@ -29704,12 +29712,12 @@
       <c r="H55" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="I55" s="24" t="s">
+      <c r="I55" s="23" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="12">
-      <c r="A56" s="28" t="s">
+      <c r="A56" s="27" t="s">
         <v>634</v>
       </c>
       <c r="B56" s="20" t="s">
@@ -29733,15 +29741,15 @@
       <c r="H56" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="I56" s="24" t="s">
+      <c r="I56" s="23" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="12">
-      <c r="A57" s="28" t="s">
+      <c r="A57" s="27" t="s">
         <v>635</v>
       </c>
-      <c r="B57" s="24" t="s">
+      <c r="B57" s="23" t="s">
         <v>1027</v>
       </c>
       <c r="C57" s="20" t="s">
@@ -29750,7 +29758,7 @@
       <c r="D57" s="20" t="s">
         <v>753</v>
       </c>
-      <c r="E57" s="24" t="s">
+      <c r="E57" s="23" t="s">
         <v>980</v>
       </c>
       <c r="F57" s="20" t="s">
@@ -29762,15 +29770,15 @@
       <c r="H57" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="I57" s="24" t="s">
+      <c r="I57" s="23" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="12">
-      <c r="A58" s="28" t="s">
+      <c r="A58" s="27" t="s">
         <v>637</v>
       </c>
-      <c r="B58" s="24" t="s">
+      <c r="B58" s="23" t="s">
         <v>1027</v>
       </c>
       <c r="C58" s="20" t="s">
@@ -29779,7 +29787,7 @@
       <c r="D58" s="20" t="s">
         <v>843</v>
       </c>
-      <c r="E58" s="24" t="s">
+      <c r="E58" s="23" t="s">
         <v>980</v>
       </c>
       <c r="F58" s="20" t="s">
@@ -29791,15 +29799,15 @@
       <c r="H58" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="I58" s="24" t="s">
+      <c r="I58" s="23" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="12">
-      <c r="A59" s="28" t="s">
+      <c r="A59" s="27" t="s">
         <v>638</v>
       </c>
-      <c r="B59" s="24" t="s">
+      <c r="B59" s="23" t="s">
         <v>1027</v>
       </c>
       <c r="C59" s="20" t="s">
@@ -29808,7 +29816,7 @@
       <c r="D59" s="20" t="s">
         <v>639</v>
       </c>
-      <c r="E59" s="24" t="s">
+      <c r="E59" s="23" t="s">
         <v>980</v>
       </c>
       <c r="F59" s="20" t="s">
@@ -29820,15 +29828,15 @@
       <c r="H59" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="I59" s="24" t="s">
+      <c r="I59" s="23" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="12">
-      <c r="A60" s="28" t="s">
+      <c r="A60" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="B60" s="24" t="s">
+      <c r="B60" s="23" t="s">
         <v>1027</v>
       </c>
       <c r="C60" s="20" t="s">
@@ -29837,7 +29845,7 @@
       <c r="D60" s="20" t="s">
         <v>767</v>
       </c>
-      <c r="E60" s="24" t="s">
+      <c r="E60" s="23" t="s">
         <v>980</v>
       </c>
       <c r="F60" s="20" t="s">
@@ -29849,15 +29857,15 @@
       <c r="H60" s="20" t="s">
         <v>871</v>
       </c>
-      <c r="I60" s="24" t="s">
+      <c r="I60" s="23" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="12">
-      <c r="A61" s="28" t="s">
+      <c r="A61" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="B61" s="24" t="s">
+      <c r="B61" s="23" t="s">
         <v>1027</v>
       </c>
       <c r="C61" s="20" t="s">
@@ -29866,7 +29874,7 @@
       <c r="D61" s="20" t="s">
         <v>847</v>
       </c>
-      <c r="E61" s="24" t="s">
+      <c r="E61" s="23" t="s">
         <v>980</v>
       </c>
       <c r="F61" s="20" t="s">
@@ -29878,15 +29886,15 @@
       <c r="H61" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="I61" s="24" t="s">
+      <c r="I61" s="23" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="12">
-      <c r="A62" s="28" t="s">
+      <c r="A62" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="B62" s="24" t="s">
+      <c r="B62" s="23" t="s">
         <v>1027</v>
       </c>
       <c r="C62" s="20" t="s">
@@ -29895,7 +29903,7 @@
       <c r="D62" s="20" t="s">
         <v>801</v>
       </c>
-      <c r="E62" s="24" t="s">
+      <c r="E62" s="23" t="s">
         <v>980</v>
       </c>
       <c r="F62" s="20" t="s">
@@ -29907,15 +29915,15 @@
       <c r="H62" s="20" t="s">
         <v>798</v>
       </c>
-      <c r="I62" s="24" t="s">
+      <c r="I62" s="23" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="12">
-      <c r="A63" s="28" t="s">
+      <c r="A63" s="27" t="s">
         <v>643</v>
       </c>
-      <c r="B63" s="24" t="s">
+      <c r="B63" s="23" t="s">
         <v>1027</v>
       </c>
       <c r="C63" s="20" t="s">
@@ -29924,7 +29932,7 @@
       <c r="D63" s="20" t="s">
         <v>744</v>
       </c>
-      <c r="E63" s="24" t="s">
+      <c r="E63" s="23" t="s">
         <v>980</v>
       </c>
       <c r="F63" s="20" t="s">
@@ -29936,15 +29944,15 @@
       <c r="H63" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="I63" s="24" t="s">
+      <c r="I63" s="23" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="64" spans="1:9" s="18" customFormat="1" ht="12">
-      <c r="A64" s="28" t="s">
+      <c r="A64" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="B64" s="24" t="s">
+      <c r="B64" s="23" t="s">
         <v>1027</v>
       </c>
       <c r="C64" s="20" t="s">
@@ -29953,7 +29961,7 @@
       <c r="D64" s="20" t="s">
         <v>850</v>
       </c>
-      <c r="E64" s="24" t="s">
+      <c r="E64" s="23" t="s">
         <v>980</v>
       </c>
       <c r="F64" s="20" t="s">
@@ -29965,15 +29973,15 @@
       <c r="H64" s="20" t="s">
         <v>759</v>
       </c>
-      <c r="I64" s="24" t="s">
+      <c r="I64" s="23" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="65" spans="1:9" s="18" customFormat="1" ht="12">
-      <c r="A65" s="28" t="s">
+      <c r="A65" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="B65" s="24" t="s">
+      <c r="B65" s="23" t="s">
         <v>1027</v>
       </c>
       <c r="C65" s="20" t="s">
@@ -29982,7 +29990,7 @@
       <c r="D65" s="20" t="s">
         <v>825</v>
       </c>
-      <c r="E65" s="24" t="s">
+      <c r="E65" s="23" t="s">
         <v>980</v>
       </c>
       <c r="F65" s="20" t="s">
@@ -29994,15 +30002,15 @@
       <c r="H65" s="20" t="s">
         <v>788</v>
       </c>
-      <c r="I65" s="24" t="s">
+      <c r="I65" s="23" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="12">
-      <c r="A66" s="28" t="s">
+      <c r="A66" s="27" t="s">
         <v>648</v>
       </c>
-      <c r="B66" s="24" t="s">
+      <c r="B66" s="23" t="s">
         <v>1027</v>
       </c>
       <c r="C66" s="20" t="s">
@@ -30011,7 +30019,7 @@
       <c r="D66" s="20" t="s">
         <v>847</v>
       </c>
-      <c r="E66" s="24" t="s">
+      <c r="E66" s="23" t="s">
         <v>980</v>
       </c>
       <c r="F66" s="20" t="s">
@@ -30023,15 +30031,15 @@
       <c r="H66" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="I66" s="24" t="s">
+      <c r="I66" s="23" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="12">
-      <c r="A67" s="28" t="s">
+      <c r="A67" s="27" t="s">
         <v>650</v>
       </c>
-      <c r="B67" s="24" t="s">
+      <c r="B67" s="23" t="s">
         <v>1027</v>
       </c>
       <c r="C67" s="20" t="s">
@@ -30040,7 +30048,7 @@
       <c r="D67" s="20" t="s">
         <v>758</v>
       </c>
-      <c r="E67" s="24" t="s">
+      <c r="E67" s="23" t="s">
         <v>980</v>
       </c>
       <c r="F67" s="20" t="s">
@@ -30052,15 +30060,15 @@
       <c r="H67" s="20" t="s">
         <v>727</v>
       </c>
-      <c r="I67" s="24" t="s">
+      <c r="I67" s="23" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="12">
-      <c r="A68" s="28" t="s">
+      <c r="A68" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="B68" s="24" t="s">
+      <c r="B68" s="23" t="s">
         <v>1027</v>
       </c>
       <c r="C68" s="20" t="s">
@@ -30069,7 +30077,7 @@
       <c r="D68" s="20" t="s">
         <v>847</v>
       </c>
-      <c r="E68" s="24" t="s">
+      <c r="E68" s="23" t="s">
         <v>980</v>
       </c>
       <c r="F68" s="20" t="s">
@@ -30081,15 +30089,15 @@
       <c r="H68" s="20" t="s">
         <v>722</v>
       </c>
-      <c r="I68" s="24" t="s">
+      <c r="I68" s="23" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="12">
-      <c r="A69" s="28" t="s">
+      <c r="A69" s="27" t="s">
         <v>653</v>
       </c>
-      <c r="B69" s="24" t="s">
+      <c r="B69" s="23" t="s">
         <v>1027</v>
       </c>
       <c r="C69" s="20" t="s">
@@ -30098,7 +30106,7 @@
       <c r="D69" s="20" t="s">
         <v>704</v>
       </c>
-      <c r="E69" s="24" t="s">
+      <c r="E69" s="23" t="s">
         <v>980</v>
       </c>
       <c r="F69" s="20" t="s">
@@ -30110,15 +30118,15 @@
       <c r="H69" s="20" t="s">
         <v>740</v>
       </c>
-      <c r="I69" s="24" t="s">
+      <c r="I69" s="23" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="12">
-      <c r="A70" s="28" t="s">
+      <c r="A70" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="B70" s="24" t="s">
+      <c r="B70" s="23" t="s">
         <v>1027</v>
       </c>
       <c r="C70" s="20" t="s">
@@ -30127,7 +30135,7 @@
       <c r="D70" s="20" t="s">
         <v>655</v>
       </c>
-      <c r="E70" s="24" t="s">
+      <c r="E70" s="23" t="s">
         <v>980</v>
       </c>
       <c r="F70" s="20" t="s">
@@ -30139,15 +30147,15 @@
       <c r="H70" s="20" t="s">
         <v>855</v>
       </c>
-      <c r="I70" s="24" t="s">
+      <c r="I70" s="23" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="12">
-      <c r="A71" s="28" t="s">
+      <c r="A71" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="B71" s="24" t="s">
+      <c r="B71" s="23" t="s">
         <v>1027</v>
       </c>
       <c r="C71" s="20" t="s">
@@ -30156,7 +30164,7 @@
       <c r="D71" s="20" t="s">
         <v>721</v>
       </c>
-      <c r="E71" s="24" t="s">
+      <c r="E71" s="23" t="s">
         <v>980</v>
       </c>
       <c r="F71" s="20" t="s">
@@ -30168,15 +30176,15 @@
       <c r="H71" s="20" t="s">
         <v>726</v>
       </c>
-      <c r="I71" s="24" t="s">
+      <c r="I71" s="23" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="12">
-      <c r="A72" s="28" t="s">
+      <c r="A72" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="B72" s="24" t="s">
+      <c r="B72" s="23" t="s">
         <v>1027</v>
       </c>
       <c r="C72" s="20" t="s">
@@ -30185,7 +30193,7 @@
       <c r="D72" s="20" t="s">
         <v>788</v>
       </c>
-      <c r="E72" s="24" t="s">
+      <c r="E72" s="23" t="s">
         <v>980</v>
       </c>
       <c r="F72" s="20" t="s">
@@ -30197,15 +30205,15 @@
       <c r="H72" s="20" t="s">
         <v>775</v>
       </c>
-      <c r="I72" s="24" t="s">
+      <c r="I72" s="23" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="12">
-      <c r="A73" s="28" t="s">
+      <c r="A73" s="27" t="s">
         <v>660</v>
       </c>
-      <c r="B73" s="24" t="s">
+      <c r="B73" s="23" t="s">
         <v>1027</v>
       </c>
       <c r="C73" s="20" t="s">
@@ -30214,7 +30222,7 @@
       <c r="D73" s="20" t="s">
         <v>848</v>
       </c>
-      <c r="E73" s="24" t="s">
+      <c r="E73" s="23" t="s">
         <v>980</v>
       </c>
       <c r="F73" s="20" t="s">
@@ -30226,15 +30234,15 @@
       <c r="H73" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="I73" s="24" t="s">
+      <c r="I73" s="23" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="12">
-      <c r="A74" s="28" t="s">
+      <c r="A74" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="B74" s="24" t="s">
+      <c r="B74" s="23" t="s">
         <v>1027</v>
       </c>
       <c r="C74" s="20" t="s">
@@ -30243,7 +30251,7 @@
       <c r="D74" s="20" t="s">
         <v>847</v>
       </c>
-      <c r="E74" s="24" t="s">
+      <c r="E74" s="23" t="s">
         <v>980</v>
       </c>
       <c r="F74" s="20" t="s">
@@ -30255,15 +30263,15 @@
       <c r="H74" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="I74" s="24" t="s">
+      <c r="I74" s="23" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="12">
-      <c r="A75" s="28" t="s">
+      <c r="A75" s="27" t="s">
         <v>662</v>
       </c>
-      <c r="B75" s="24" t="s">
+      <c r="B75" s="23" t="s">
         <v>1027</v>
       </c>
       <c r="C75" s="20" t="s">
@@ -30272,7 +30280,7 @@
       <c r="D75" s="20" t="s">
         <v>875</v>
       </c>
-      <c r="E75" s="24" t="s">
+      <c r="E75" s="23" t="s">
         <v>980</v>
       </c>
       <c r="F75" s="20" t="s">
@@ -30284,15 +30292,15 @@
       <c r="H75" s="20" t="s">
         <v>858</v>
       </c>
-      <c r="I75" s="24" t="s">
+      <c r="I75" s="23" t="s">
         <v>746</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="12">
-      <c r="A76" s="28" t="s">
+      <c r="A76" s="27" t="s">
         <v>664</v>
       </c>
-      <c r="B76" s="24" t="s">
+      <c r="B76" s="23" t="s">
         <v>1027</v>
       </c>
       <c r="C76" s="20" t="s">
@@ -30301,7 +30309,7 @@
       <c r="D76" s="20" t="s">
         <v>772</v>
       </c>
-      <c r="E76" s="24" t="s">
+      <c r="E76" s="23" t="s">
         <v>980</v>
       </c>
       <c r="F76" s="20" t="s">
@@ -30313,15 +30321,15 @@
       <c r="H76" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="I76" s="24" t="s">
+      <c r="I76" s="23" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="12">
-      <c r="A77" s="28" t="s">
+      <c r="A77" s="27" t="s">
         <v>665</v>
       </c>
-      <c r="B77" s="24" t="s">
+      <c r="B77" s="23" t="s">
         <v>1027</v>
       </c>
       <c r="C77" s="20" t="s">
@@ -30330,7 +30338,7 @@
       <c r="D77" s="20" t="s">
         <v>793</v>
       </c>
-      <c r="E77" s="24" t="s">
+      <c r="E77" s="23" t="s">
         <v>980</v>
       </c>
       <c r="F77" s="20" t="s">
@@ -30342,15 +30350,15 @@
       <c r="H77" s="20" t="s">
         <v>857</v>
       </c>
-      <c r="I77" s="24" t="s">
+      <c r="I77" s="23" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="12">
-      <c r="A78" s="28" t="s">
+      <c r="A78" s="27" t="s">
         <v>666</v>
       </c>
-      <c r="B78" s="24" t="s">
+      <c r="B78" s="23" t="s">
         <v>1027</v>
       </c>
       <c r="C78" s="20" t="s">
@@ -30359,7 +30367,7 @@
       <c r="D78" s="20" t="s">
         <v>667</v>
       </c>
-      <c r="E78" s="24" t="s">
+      <c r="E78" s="23" t="s">
         <v>980</v>
       </c>
       <c r="F78" s="20" t="s">
@@ -30371,15 +30379,15 @@
       <c r="H78" s="20" t="s">
         <v>800</v>
       </c>
-      <c r="I78" s="24" t="s">
+      <c r="I78" s="23" t="s">
         <v>866</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="12">
-      <c r="A79" s="28" t="s">
+      <c r="A79" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="B79" s="24" t="s">
+      <c r="B79" s="23" t="s">
         <v>1027</v>
       </c>
       <c r="C79" s="20" t="s">
@@ -30388,7 +30396,7 @@
       <c r="D79" s="20" t="s">
         <v>868</v>
       </c>
-      <c r="E79" s="24" t="s">
+      <c r="E79" s="23" t="s">
         <v>980</v>
       </c>
       <c r="F79" s="20" t="s">
@@ -30400,15 +30408,15 @@
       <c r="H79" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="I79" s="24" t="s">
+      <c r="I79" s="23" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="12">
-      <c r="A80" s="28" t="s">
+      <c r="A80" s="27" t="s">
         <v>669</v>
       </c>
-      <c r="B80" s="24" t="s">
+      <c r="B80" s="23" t="s">
         <v>1027</v>
       </c>
       <c r="C80" s="20" t="s">
@@ -30417,7 +30425,7 @@
       <c r="D80" s="20" t="s">
         <v>835</v>
       </c>
-      <c r="E80" s="24" t="s">
+      <c r="E80" s="23" t="s">
         <v>860</v>
       </c>
       <c r="F80" s="20" t="s">
@@ -30429,15 +30437,15 @@
       <c r="H80" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="I80" s="24" t="s">
+      <c r="I80" s="23" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="12">
-      <c r="A81" s="28" t="s">
+      <c r="A81" s="27" t="s">
         <v>672</v>
       </c>
-      <c r="B81" s="24" t="s">
+      <c r="B81" s="23" t="s">
         <v>1027</v>
       </c>
       <c r="C81" s="20" t="s">
@@ -30446,7 +30454,7 @@
       <c r="D81" s="20" t="s">
         <v>780</v>
       </c>
-      <c r="E81" s="24" t="s">
+      <c r="E81" s="23" t="s">
         <v>980</v>
       </c>
       <c r="F81" s="20" t="s">
@@ -30458,15 +30466,15 @@
       <c r="H81" s="20" t="s">
         <v>802</v>
       </c>
-      <c r="I81" s="24" t="s">
+      <c r="I81" s="23" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="12">
-      <c r="A82" s="28" t="s">
+      <c r="A82" s="27" t="s">
         <v>674</v>
       </c>
-      <c r="B82" s="24" t="s">
+      <c r="B82" s="23" t="s">
         <v>1027</v>
       </c>
       <c r="C82" s="20" t="s">
@@ -30475,7 +30483,7 @@
       <c r="D82" s="20" t="s">
         <v>804</v>
       </c>
-      <c r="E82" s="24" t="s">
+      <c r="E82" s="23" t="s">
         <v>980</v>
       </c>
       <c r="F82" s="20" t="s">
@@ -30487,15 +30495,15 @@
       <c r="H82" s="20" t="s">
         <v>282</v>
       </c>
-      <c r="I82" s="24" t="s">
+      <c r="I82" s="23" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="83" spans="1:9" s="19" customFormat="1" ht="12">
-      <c r="A83" s="28" t="s">
+      <c r="A83" s="27" t="s">
         <v>692</v>
       </c>
-      <c r="B83" s="24" t="s">
+      <c r="B83" s="23" t="s">
         <v>1027</v>
       </c>
       <c r="C83" s="20" t="s">
@@ -30516,12 +30524,12 @@
       <c r="H83" s="20" t="s">
         <v>852</v>
       </c>
-      <c r="I83" s="24" t="s">
+      <c r="I83" s="23" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="12">
-      <c r="A84" s="28" t="s">
+      <c r="A84" s="27" t="s">
         <v>974</v>
       </c>
       <c r="B84" s="15" t="s">
@@ -30545,12 +30553,12 @@
       <c r="H84" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="I84" s="34" t="s">
+      <c r="I84" s="33" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="12">
-      <c r="A85" s="28" t="s">
+      <c r="A85" s="27" t="s">
         <v>676</v>
       </c>
       <c r="B85" s="20" t="s">
@@ -30574,12 +30582,12 @@
       <c r="H85" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I85" s="34" t="s">
+      <c r="I85" s="33" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="12">
-      <c r="A86" s="28" t="s">
+      <c r="A86" s="27" t="s">
         <v>678</v>
       </c>
       <c r="B86" s="20" t="s">
@@ -30603,12 +30611,12 @@
       <c r="H86" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I86" s="34" t="s">
+      <c r="I86" s="33" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="87" spans="1:9" s="18" customFormat="1" ht="12">
-      <c r="A87" s="28" t="s">
+      <c r="A87" s="27" t="s">
         <v>680</v>
       </c>
       <c r="B87" s="20" t="s">
@@ -30632,12 +30640,12 @@
       <c r="H87" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I87" s="34" t="s">
+      <c r="I87" s="33" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="88" spans="1:9" s="18" customFormat="1" ht="12">
-      <c r="A88" s="28" t="s">
+      <c r="A88" s="27" t="s">
         <v>976</v>
       </c>
       <c r="B88" s="15" t="s">
@@ -30661,12 +30669,12 @@
       <c r="H88" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="I88" s="34" t="s">
+      <c r="I88" s="33" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="89" spans="1:9" s="18" customFormat="1" ht="12">
-      <c r="A89" s="28" t="s">
+      <c r="A89" s="27" t="s">
         <v>978</v>
       </c>
       <c r="B89" s="15" t="s">
@@ -30690,12 +30698,12 @@
       <c r="H89" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="I89" s="34" t="s">
+      <c r="I89" s="33" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="12">
-      <c r="A90" s="28" t="s">
+      <c r="A90" s="27" t="s">
         <v>979</v>
       </c>
       <c r="B90" s="15" t="s">
@@ -30719,12 +30727,12 @@
       <c r="H90" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="I90" s="34" t="s">
+      <c r="I90" s="33" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="12">
-      <c r="A91" s="28" t="s">
+      <c r="A91" s="27" t="s">
         <v>682</v>
       </c>
       <c r="B91" s="20" t="s">
@@ -30748,36 +30756,36 @@
       <c r="H91" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="I91" s="34" t="s">
+      <c r="I91" s="33" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="12">
-      <c r="A92" s="29" t="s">
+      <c r="A92" s="28" t="s">
         <v>684</v>
       </c>
-      <c r="B92" s="23" t="s">
-        <v>694</v>
-      </c>
-      <c r="C92" s="23" t="s">
-        <v>694</v>
-      </c>
-      <c r="D92" s="23" t="s">
-        <v>694</v>
-      </c>
-      <c r="E92" s="23" t="s">
-        <v>694</v>
-      </c>
-      <c r="F92" s="23" t="s">
-        <v>694</v>
-      </c>
-      <c r="G92" s="23" t="s">
-        <v>694</v>
-      </c>
-      <c r="H92" s="23" t="s">
-        <v>694</v>
-      </c>
-      <c r="I92" s="35" t="s">
+      <c r="B92" s="22" t="s">
+        <v>694</v>
+      </c>
+      <c r="C92" s="22" t="s">
+        <v>694</v>
+      </c>
+      <c r="D92" s="22" t="s">
+        <v>694</v>
+      </c>
+      <c r="E92" s="22" t="s">
+        <v>694</v>
+      </c>
+      <c r="F92" s="22" t="s">
+        <v>694</v>
+      </c>
+      <c r="G92" s="22" t="s">
+        <v>694</v>
+      </c>
+      <c r="H92" s="22" t="s">
+        <v>694</v>
+      </c>
+      <c r="I92" s="34" t="s">
         <v>694</v>
       </c>
     </row>

--- a/shortcut_keys.xlsx
+++ b/shortcut_keys.xlsx
@@ -4,9 +4,9 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B572D912-9F1C-4F80-B098-78D02D8FC1A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54CAAEF5-4941-4499-9B36-AEFC69455D08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="26700" windowHeight="16440" activeTab="3" xr2:uid="{43490DDC-BDDE-46A2-A177-1DE0A5EB93B9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="26700" windowHeight="16440" firstSheet="6" activeTab="16" xr2:uid="{43490DDC-BDDE-46A2-A177-1DE0A5EB93B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Windows10" sheetId="7" r:id="rId1"/>
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4203" uniqueCount="1129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4203" uniqueCount="1130">
   <si>
     <t>Ctrl</t>
   </si>
@@ -2944,9 +2944,6 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>(標準の動作:単語補完)</t>
-  </si>
-  <si>
     <t>単語左/右</t>
     <rPh sb="4" eb="5">
       <t>ミギ</t>
@@ -5315,6 +5312,14 @@
   </si>
   <si>
     <t>フォント色をトグル</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>(標準の動作:単語補完)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>単語補完</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -14276,7 +14281,7 @@
     </row>
     <row r="6" spans="1:6" ht="11.25" customHeight="1">
       <c r="D6" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>263</v>
@@ -15090,28 +15095,28 @@
         <v>218</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I2" s="31" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="17" customFormat="1" ht="12">
@@ -15119,28 +15124,28 @@
         <v>154</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I3" s="31" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="17" customFormat="1" ht="12">
@@ -15148,28 +15153,28 @@
         <v>156</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I4" s="31" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="17" customFormat="1" ht="12">
@@ -15177,28 +15182,28 @@
         <v>150</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I5" s="31" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="17" customFormat="1" ht="12">
@@ -15206,28 +15211,28 @@
         <v>159</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I6" s="31" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="17" customFormat="1" ht="12">
@@ -15235,28 +15240,28 @@
         <v>53</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H7" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="17" customFormat="1" ht="12">
@@ -15264,28 +15269,28 @@
         <v>227</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I8" s="31" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="17" customFormat="1" ht="12">
@@ -15293,28 +15298,28 @@
         <v>241</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I9" s="31" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="17" customFormat="1" ht="12">
@@ -15322,28 +15327,28 @@
         <v>238</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I10" s="31" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="17" customFormat="1" ht="12">
@@ -15351,28 +15356,28 @@
         <v>141</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I11" s="31" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="17" customFormat="1" ht="12">
@@ -15380,28 +15385,28 @@
         <v>224</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I12" s="31" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="17" customFormat="1" ht="12">
@@ -15409,28 +15414,28 @@
         <v>228</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H13" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I13" s="31" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="12">
@@ -15438,28 +15443,28 @@
         <v>1</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I14" s="31" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="12">
@@ -15467,28 +15472,28 @@
         <v>2</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I15" s="31" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="12">
@@ -15496,28 +15501,28 @@
         <v>3</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I16" s="31" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="12">
@@ -15525,28 +15530,28 @@
         <v>4</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I17" s="31" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="12">
@@ -15554,28 +15559,28 @@
         <v>5</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H18" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I18" s="31" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="12">
@@ -15583,28 +15588,28 @@
         <v>6</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H19" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I19" s="31" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="12">
@@ -15612,28 +15617,28 @@
         <v>7</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H20" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I20" s="31" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="12">
@@ -15641,28 +15646,28 @@
         <v>8</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H21" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I21" s="31" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="12">
@@ -15670,28 +15675,28 @@
         <v>9</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I22" s="31" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="12">
@@ -15699,126 +15704,126 @@
         <v>0</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H23" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I23" s="31" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="17" customFormat="1" ht="12">
       <c r="A24" s="25" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="H24" s="20" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="I24" s="31" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="17" customFormat="1" ht="12">
       <c r="A25" s="25" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="H25" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I25" s="31" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="12">
       <c r="A26" s="25" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D26" s="20" t="s">
         <v>286</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H26" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I26" s="31" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="12">
       <c r="A27" s="25" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D27" s="20" t="s">
         <v>285</v>
@@ -15827,16 +15832,16 @@
         <v>282</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H27" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I27" s="31" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="12">
@@ -15844,28 +15849,28 @@
         <v>608</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D28" s="20" t="s">
         <v>286</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F28" s="20" t="s">
         <v>285</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H28" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I28" s="31" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="12">
@@ -15876,25 +15881,25 @@
         <v>292</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F29" s="20" t="s">
         <v>293</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H29" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I29" s="31" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="12">
@@ -15902,28 +15907,28 @@
         <v>613</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H30" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I30" s="31" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="12">
@@ -15931,57 +15936,57 @@
         <v>617</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E31" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G31" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H31" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I31" s="31" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="12">
       <c r="A32" s="27" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H32" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I32" s="31" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="12">
@@ -15989,28 +15994,28 @@
         <v>620</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F33" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H33" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I33" s="31" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="12">
@@ -16018,28 +16023,28 @@
         <v>621</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="E34" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F34" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G34" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H34" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I34" s="31" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="12">
@@ -16047,33 +16052,33 @@
         <v>622</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E35" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F35" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G35" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H35" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I35" s="31" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="12">
       <c r="A36" s="41" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B36" s="20" t="s">
         <v>270</v>
@@ -16082,230 +16087,230 @@
         <v>271</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E36" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H36" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I36" s="31" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="12">
       <c r="A37" s="27" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E37" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F37" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G37" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H37" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I37" s="31" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="12">
       <c r="A38" s="27" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B38" s="20" t="s">
         <v>259</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E38" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F38" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G38" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H38" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I38" s="31" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="12">
       <c r="A39" s="41" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B39" s="20" t="s">
         <v>263</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E39" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F39" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G39" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H39" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I39" s="31" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="12">
       <c r="A40" s="27" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B40" s="20" t="s">
         <v>277</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E40" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F40" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G40" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H40" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I40" s="31" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="12">
       <c r="A41" s="27" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E41" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F41" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G41" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H41" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I41" s="31" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="12">
       <c r="A42" s="27" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E42" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F42" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G42" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H42" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I42" s="31" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="12">
       <c r="A43" s="27" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C43" s="20" t="s">
         <v>262</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E43" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F43" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G43" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H43" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I43" s="31" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="12">
       <c r="A44" s="27" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B44" s="20" t="s">
         <v>266</v>
@@ -16314,27 +16319,27 @@
         <v>278</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E44" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F44" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G44" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H44" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I44" s="31" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="12">
       <c r="A45" s="27" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B45" s="20" t="s">
         <v>268</v>
@@ -16343,27 +16348,27 @@
         <v>279</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E45" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F45" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G45" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H45" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I45" s="31" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="12">
       <c r="A46" s="27" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B46" s="20" t="s">
         <v>261</v>
@@ -16372,341 +16377,341 @@
         <v>273</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E46" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F46" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G46" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H46" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I46" s="31" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="12">
       <c r="A47" s="27" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B47" s="20" t="s">
         <v>259</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E47" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F47" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G47" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H47" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I47" s="31" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="12">
       <c r="A48" s="27" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C48" s="20" t="s">
         <v>290</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E48" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F48" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G48" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H48" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I48" s="31" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="12">
       <c r="A49" s="27" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E49" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F49" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G49" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H49" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I49" s="31" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="12">
       <c r="A50" s="27" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E50" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F50" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G50" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H50" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I50" s="31" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="12">
       <c r="A51" s="27" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E51" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F51" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G51" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H51" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I51" s="31" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="12">
       <c r="A52" s="27" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E52" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F52" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G52" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H52" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I52" s="31" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="12">
       <c r="A53" s="27" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E53" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F53" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G53" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H53" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I53" s="31" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="12">
       <c r="A54" s="27" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E54" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F54" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G54" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H54" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I54" s="31" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="12">
       <c r="A55" s="27" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="E55" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F55" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G55" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H55" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I55" s="31" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="12">
       <c r="A56" s="27" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B56" s="23" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D56" s="20" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E56" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F56" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G56" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H56" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I56" s="31" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="12">
       <c r="A57" s="27" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E57" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F57" s="20" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="G57" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H57" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I57" s="31" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="12">
@@ -16714,28 +16719,28 @@
         <v>168</v>
       </c>
       <c r="B58" s="23" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D58" s="20" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="E58" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F58" s="20" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="G58" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H58" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I58" s="31" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="12">
@@ -16743,28 +16748,28 @@
         <v>115</v>
       </c>
       <c r="B59" s="23" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D59" s="20" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="E59" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F59" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G59" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H59" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I59" s="31" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="12">
@@ -16772,57 +16777,57 @@
         <v>49</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="E60" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F60" s="20" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="G60" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H60" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I60" s="31" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="12">
       <c r="A61" s="27" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B61" s="23" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D61" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E61" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F61" s="20" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="G61" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H61" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I61" s="31" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="12">
@@ -16830,28 +16835,28 @@
         <v>99</v>
       </c>
       <c r="B62" s="23" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E62" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F62" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G62" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H62" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I62" s="31" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="12">
@@ -16859,86 +16864,86 @@
         <v>119</v>
       </c>
       <c r="B63" s="23" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E63" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F63" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G63" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H63" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I63" s="31" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="64" spans="1:9" s="18" customFormat="1" ht="12">
       <c r="A64" s="27" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B64" s="23" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C64" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D64" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E64" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F64" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G64" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H64" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I64" s="31" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="65" spans="1:9" s="18" customFormat="1" ht="12">
       <c r="A65" s="27" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B65" s="23" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C65" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D65" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E65" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F65" s="20" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="G65" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H65" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I65" s="31" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="12">
@@ -16946,57 +16951,57 @@
         <v>121</v>
       </c>
       <c r="B66" s="23" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D66" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E66" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F66" s="20" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="G66" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H66" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I66" s="31" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="12">
       <c r="A67" s="27" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B67" s="23" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C67" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D67" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E67" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F67" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G67" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H67" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I67" s="31" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="12">
@@ -17004,28 +17009,28 @@
         <v>50</v>
       </c>
       <c r="B68" s="23" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D68" s="20" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="E68" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F68" s="20" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="G68" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H68" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I68" s="31" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="12">
@@ -17033,28 +17038,28 @@
         <v>124</v>
       </c>
       <c r="B69" s="23" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C69" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D69" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E69" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F69" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G69" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H69" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I69" s="31" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="12">
@@ -17062,57 +17067,57 @@
         <v>51</v>
       </c>
       <c r="B70" s="23" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C70" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D70" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E70" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F70" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G70" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H70" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I70" s="31" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="12">
       <c r="A71" s="27" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B71" s="23" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C71" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D71" s="20" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E71" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F71" s="20" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="G71" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H71" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I71" s="31" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="12">
@@ -17120,144 +17125,144 @@
         <v>48</v>
       </c>
       <c r="B72" s="23" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C72" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D72" s="20" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="E72" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F72" s="20" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="G72" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H72" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I72" s="31" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="12">
       <c r="A73" s="27" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B73" s="23" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C73" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D73" s="20" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E73" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F73" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G73" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H73" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I73" s="31" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="12">
       <c r="A74" s="27" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B74" s="23" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C74" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D74" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E74" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F74" s="20" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="G74" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H74" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I74" s="31" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="12">
       <c r="A75" s="27" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B75" s="23" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C75" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D75" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E75" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F75" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G75" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H75" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I75" s="31" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="12">
       <c r="A76" s="27" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B76" s="23" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C76" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D76" s="20" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="E76" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F76" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G76" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H76" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I76" s="31" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="12">
@@ -17265,152 +17270,152 @@
         <v>128</v>
       </c>
       <c r="B77" s="23" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C77" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D77" s="20" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="E77" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F77" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G77" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H77" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I77" s="31" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="12">
       <c r="A78" s="27" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B78" s="23" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C78" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D78" s="20" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E78" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F78" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G78" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H78" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I78" s="31" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="12">
       <c r="A79" s="27" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B79" s="23" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C79" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D79" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E79" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F79" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G79" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H79" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I79" s="31" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="12">
       <c r="A80" s="27" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B80" s="23" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C80" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D80" s="20" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="E80" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F80" s="20" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="G80" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H80" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I80" s="31" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="12">
       <c r="A81" s="27" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B81" s="20" t="s">
         <v>280</v>
       </c>
       <c r="C81" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D81" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E81" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F81" s="20" t="s">
         <v>289</v>
       </c>
       <c r="G81" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H81" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I81" s="31" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="12">
       <c r="A82" s="27" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C82" s="15" t="s">
         <v>269</v>
@@ -17436,97 +17441,97 @@
     </row>
     <row r="83" spans="1:9" s="19" customFormat="1" ht="12">
       <c r="A83" s="27" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B83" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C83" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D83" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E83" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F83" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G83" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H83" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I83" s="31" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="12">
       <c r="A84" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B84" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C84" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D84" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E84" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F84" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G84" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H84" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I84" s="31" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="12">
       <c r="A85" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B85" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C85" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D85" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E85" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F85" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G85" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H85" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I85" s="31" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="12">
       <c r="A86" s="27" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C86" s="15" t="s">
         <v>269</v>
@@ -17552,10 +17557,10 @@
     </row>
     <row r="87" spans="1:9" ht="12">
       <c r="A87" s="27" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C87" s="15" t="s">
         <v>269</v>
@@ -17581,10 +17586,10 @@
     </row>
     <row r="88" spans="1:9" ht="12">
       <c r="A88" s="27" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C88" s="15" t="s">
         <v>269</v>
@@ -17610,60 +17615,60 @@
     </row>
     <row r="89" spans="1:9" ht="12">
       <c r="A89" s="27" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B89" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C89" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D89" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E89" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F89" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G89" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H89" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I89" s="31" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="90" spans="1:9" s="18" customFormat="1" ht="12">
       <c r="A90" s="28" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B90" s="22" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C90" s="22" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D90" s="22" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E90" s="22" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F90" s="22" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G90" s="22" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H90" s="22" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I90" s="32" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="91" spans="1:9" s="18" customFormat="1">
@@ -17745,11 +17750,11 @@
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:I99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -18025,7 +18030,7 @@
         <v>238</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>269</v>
@@ -18060,7 +18065,7 @@
         <v>269</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>269</v>
@@ -18089,7 +18094,7 @@
         <v>269</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>269</v>
@@ -18498,13 +18503,13 @@
         <v>609</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F26" s="16" t="s">
         <v>609</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H26" s="15" t="s">
         <v>269</v>
@@ -18602,7 +18607,7 @@
     </row>
     <row r="30" spans="1:9" ht="12">
       <c r="A30" s="37" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B30" s="15" t="s">
         <v>269</v>
@@ -18701,7 +18706,7 @@
         <v>269</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>624</v>
+        <v>1128</v>
       </c>
       <c r="F33" s="15" t="s">
         <v>612</v>
@@ -18718,7 +18723,7 @@
     </row>
     <row r="34" spans="1:9" ht="12">
       <c r="A34" s="38" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B34" s="16" t="s">
         <v>572</v>
@@ -18747,7 +18752,7 @@
     </row>
     <row r="35" spans="1:9" ht="12">
       <c r="A35" s="37" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B35" s="16" t="s">
         <v>572</v>
@@ -18776,7 +18781,7 @@
     </row>
     <row r="36" spans="1:9" ht="12">
       <c r="A36" s="37" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B36" s="16" t="s">
         <v>572</v>
@@ -18805,7 +18810,7 @@
     </row>
     <row r="37" spans="1:9" ht="12">
       <c r="A37" s="38" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B37" s="16" t="s">
         <v>572</v>
@@ -18834,7 +18839,7 @@
     </row>
     <row r="38" spans="1:9" ht="12">
       <c r="A38" s="37" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B38" s="16" t="s">
         <v>572</v>
@@ -18843,10 +18848,10 @@
         <v>572</v>
       </c>
       <c r="D38" s="15" t="s">
+        <v>626</v>
+      </c>
+      <c r="E38" s="15" t="s">
         <v>627</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>628</v>
       </c>
       <c r="F38" s="15" t="s">
         <v>269</v>
@@ -18863,7 +18868,7 @@
     </row>
     <row r="39" spans="1:9" ht="12">
       <c r="A39" s="37" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B39" s="16" t="s">
         <v>572</v>
@@ -18892,7 +18897,7 @@
     </row>
     <row r="40" spans="1:9" ht="12">
       <c r="A40" s="37" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B40" s="16" t="s">
         <v>572</v>
@@ -18921,7 +18926,7 @@
     </row>
     <row r="41" spans="1:9" ht="12">
       <c r="A41" s="37" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B41" s="16" t="s">
         <v>572</v>
@@ -18930,13 +18935,13 @@
         <v>572</v>
       </c>
       <c r="D41" s="15" t="s">
+        <v>624</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="F41" s="15" t="s">
         <v>625</v>
-      </c>
-      <c r="E41" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="F41" s="15" t="s">
-        <v>626</v>
       </c>
       <c r="G41" s="15" t="s">
         <v>269</v>
@@ -18950,7 +18955,7 @@
     </row>
     <row r="42" spans="1:9" ht="12">
       <c r="A42" s="37" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B42" s="16" t="s">
         <v>572</v>
@@ -18979,7 +18984,7 @@
     </row>
     <row r="43" spans="1:9" ht="12">
       <c r="A43" s="37" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B43" s="16" t="s">
         <v>572</v>
@@ -19008,7 +19013,7 @@
     </row>
     <row r="44" spans="1:9" ht="12">
       <c r="A44" s="37" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B44" s="15" t="s">
         <v>269</v>
@@ -19037,10 +19042,10 @@
     </row>
     <row r="45" spans="1:9" ht="12">
       <c r="A45" s="37" t="s">
+        <v>628</v>
+      </c>
+      <c r="B45" s="16" t="s">
         <v>629</v>
-      </c>
-      <c r="B45" s="16" t="s">
-        <v>630</v>
       </c>
       <c r="C45" s="15" t="s">
         <v>269</v>
@@ -19066,7 +19071,7 @@
     </row>
     <row r="46" spans="1:9" ht="12">
       <c r="A46" s="37" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B46" s="15" t="s">
         <v>269</v>
@@ -19095,7 +19100,7 @@
     </row>
     <row r="47" spans="1:9" ht="12">
       <c r="A47" s="37" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B47" s="15" t="s">
         <v>269</v>
@@ -19124,7 +19129,7 @@
     </row>
     <row r="48" spans="1:9" ht="12">
       <c r="A48" s="37" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B48" s="15" t="s">
         <v>269</v>
@@ -19153,7 +19158,7 @@
     </row>
     <row r="49" spans="1:9" ht="12">
       <c r="A49" s="37" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B49" s="15" t="s">
         <v>269</v>
@@ -19182,7 +19187,7 @@
     </row>
     <row r="50" spans="1:9" ht="12">
       <c r="A50" s="37" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B50" s="15" t="s">
         <v>269</v>
@@ -19211,7 +19216,7 @@
     </row>
     <row r="51" spans="1:9" ht="12">
       <c r="A51" s="37" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B51" s="16" t="s">
         <v>572</v>
@@ -19220,7 +19225,7 @@
         <v>572</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E51" s="15" t="s">
         <v>269</v>
@@ -19240,7 +19245,7 @@
     </row>
     <row r="52" spans="1:9" ht="12">
       <c r="A52" s="37" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B52" s="16" t="s">
         <v>572</v>
@@ -19269,7 +19274,7 @@
     </row>
     <row r="53" spans="1:9" ht="12">
       <c r="A53" s="37" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B53" s="16" t="s">
         <v>572</v>
@@ -19278,13 +19283,13 @@
         <v>572</v>
       </c>
       <c r="D53" s="15" t="s">
+        <v>638</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="F53" s="15" t="s">
         <v>639</v>
-      </c>
-      <c r="E53" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="F53" s="15" t="s">
-        <v>640</v>
       </c>
       <c r="G53" s="15" t="s">
         <v>269</v>
@@ -19365,13 +19370,13 @@
         <v>572</v>
       </c>
       <c r="D56" s="15" t="s">
+        <v>640</v>
+      </c>
+      <c r="E56" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="F56" s="15" t="s">
         <v>641</v>
-      </c>
-      <c r="E56" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="F56" s="15" t="s">
-        <v>642</v>
       </c>
       <c r="G56" s="15" t="s">
         <v>269</v>
@@ -19385,7 +19390,7 @@
     </row>
     <row r="57" spans="1:9" ht="12">
       <c r="A57" s="37" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B57" s="16" t="s">
         <v>572</v>
@@ -19394,13 +19399,13 @@
         <v>572</v>
       </c>
       <c r="D57" s="15" t="s">
+        <v>643</v>
+      </c>
+      <c r="E57" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="F57" s="15" t="s">
         <v>644</v>
-      </c>
-      <c r="E57" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="F57" s="15" t="s">
-        <v>645</v>
       </c>
       <c r="G57" s="15" t="s">
         <v>269</v>
@@ -19423,7 +19428,7 @@
         <v>572</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E58" s="15" t="s">
         <v>269</v>
@@ -19452,7 +19457,7 @@
         <v>572</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E59" s="15" t="s">
         <v>269</v>
@@ -19472,7 +19477,7 @@
     </row>
     <row r="60" spans="1:9" ht="12">
       <c r="A60" s="37" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B60" s="16" t="s">
         <v>572</v>
@@ -19481,7 +19486,7 @@
         <v>572</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E60" s="15" t="s">
         <v>269</v>
@@ -19501,7 +19506,7 @@
     </row>
     <row r="61" spans="1:9" ht="12">
       <c r="A61" s="37" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B61" s="16" t="s">
         <v>572</v>
@@ -19510,7 +19515,7 @@
         <v>572</v>
       </c>
       <c r="D61" s="15" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E61" s="15" t="s">
         <v>269</v>
@@ -19539,7 +19544,7 @@
         <v>572</v>
       </c>
       <c r="D62" s="15" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E62" s="15" t="s">
         <v>269</v>
@@ -19559,7 +19564,7 @@
     </row>
     <row r="63" spans="1:9" ht="12">
       <c r="A63" s="37" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B63" s="16" t="s">
         <v>572</v>
@@ -19568,7 +19573,7 @@
         <v>572</v>
       </c>
       <c r="D63" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E63" s="15" t="s">
         <v>269</v>
@@ -19597,13 +19602,13 @@
         <v>572</v>
       </c>
       <c r="D64" s="15" t="s">
+        <v>654</v>
+      </c>
+      <c r="E64" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="F64" s="15" t="s">
         <v>655</v>
-      </c>
-      <c r="E64" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="F64" s="15" t="s">
-        <v>656</v>
       </c>
       <c r="G64" s="15" t="s">
         <v>269</v>
@@ -19626,7 +19631,7 @@
         <v>572</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E65" s="15" t="s">
         <v>269</v>
@@ -19655,13 +19660,13 @@
         <v>572</v>
       </c>
       <c r="D66" s="15" t="s">
+        <v>657</v>
+      </c>
+      <c r="E66" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="F66" s="15" t="s">
         <v>658</v>
-      </c>
-      <c r="E66" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="F66" s="15" t="s">
-        <v>659</v>
       </c>
       <c r="G66" s="15" t="s">
         <v>269</v>
@@ -19675,7 +19680,7 @@
     </row>
     <row r="67" spans="1:9" ht="12">
       <c r="A67" s="37" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B67" s="16" t="s">
         <v>572</v>
@@ -19684,7 +19689,7 @@
         <v>572</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E67" s="15" t="s">
         <v>269</v>
@@ -19733,7 +19738,7 @@
     </row>
     <row r="69" spans="1:9" ht="12">
       <c r="A69" s="37" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B69" s="16" t="s">
         <v>572</v>
@@ -19742,7 +19747,7 @@
         <v>572</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E69" s="15" t="s">
         <v>269</v>
@@ -19762,7 +19767,7 @@
     </row>
     <row r="70" spans="1:9" ht="12">
       <c r="A70" s="37" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B70" s="16" t="s">
         <v>572</v>
@@ -19791,7 +19796,7 @@
     </row>
     <row r="71" spans="1:9" ht="12">
       <c r="A71" s="37" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B71" s="16" t="s">
         <v>572</v>
@@ -19820,7 +19825,7 @@
     </row>
     <row r="72" spans="1:9" ht="12">
       <c r="A72" s="37" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B72" s="16" t="s">
         <v>572</v>
@@ -19829,13 +19834,13 @@
         <v>572</v>
       </c>
       <c r="D72" s="15" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E72" s="15" t="s">
         <v>269</v>
       </c>
       <c r="F72" s="15" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="G72" s="15" t="s">
         <v>269</v>
@@ -19858,7 +19863,7 @@
         <v>572</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E73" s="15" t="s">
         <v>269</v>
@@ -19878,7 +19883,7 @@
     </row>
     <row r="74" spans="1:9" ht="12">
       <c r="A74" s="37" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B74" s="16" t="s">
         <v>572</v>
@@ -19887,13 +19892,13 @@
         <v>572</v>
       </c>
       <c r="D74" s="15" t="s">
+        <v>669</v>
+      </c>
+      <c r="E74" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="F74" s="15" t="s">
         <v>670</v>
-      </c>
-      <c r="E74" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="F74" s="15" t="s">
-        <v>671</v>
       </c>
       <c r="G74" s="15" t="s">
         <v>269</v>
@@ -19907,7 +19912,7 @@
     </row>
     <row r="75" spans="1:9" ht="12">
       <c r="A75" s="37" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B75" s="16" t="s">
         <v>572</v>
@@ -19916,7 +19921,7 @@
         <v>572</v>
       </c>
       <c r="D75" s="15" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E75" s="15" t="s">
         <v>269</v>
@@ -19936,7 +19941,7 @@
     </row>
     <row r="76" spans="1:9" ht="12">
       <c r="A76" s="37" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B76" s="16" t="s">
         <v>572</v>
@@ -19945,7 +19950,7 @@
         <v>572</v>
       </c>
       <c r="D76" s="15" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E76" s="15" t="s">
         <v>269</v>
@@ -19965,7 +19970,7 @@
     </row>
     <row r="77" spans="1:9" ht="12">
       <c r="A77" s="37" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B77" s="15" t="s">
         <v>269</v>
@@ -19974,7 +19979,7 @@
         <v>269</v>
       </c>
       <c r="D77" s="15" t="s">
-        <v>269</v>
+        <v>1129</v>
       </c>
       <c r="E77" s="15" t="s">
         <v>269</v>
@@ -19994,10 +19999,10 @@
     </row>
     <row r="78" spans="1:9" ht="12">
       <c r="A78" s="37" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C78" s="15" t="s">
         <v>269</v>
@@ -20023,10 +20028,10 @@
     </row>
     <row r="79" spans="1:9" ht="12">
       <c r="A79" s="37" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C79" s="15" t="s">
         <v>269</v>
@@ -20052,10 +20057,10 @@
     </row>
     <row r="80" spans="1:9" ht="12">
       <c r="A80" s="37" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C80" s="15" t="s">
         <v>269</v>
@@ -20081,10 +20086,10 @@
     </row>
     <row r="81" spans="1:9" ht="12">
       <c r="A81" s="37" t="s">
+        <v>679</v>
+      </c>
+      <c r="B81" s="15" t="s">
         <v>680</v>
-      </c>
-      <c r="B81" s="15" t="s">
-        <v>681</v>
       </c>
       <c r="C81" s="15" t="s">
         <v>269</v>
@@ -20110,10 +20115,10 @@
     </row>
     <row r="82" spans="1:9" ht="12">
       <c r="A82" s="37" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C82" s="15" t="s">
         <v>269</v>
@@ -20139,10 +20144,10 @@
     </row>
     <row r="83" spans="1:9" s="19" customFormat="1" ht="12">
       <c r="A83" s="37" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C83" s="15" t="s">
         <v>269</v>
@@ -20168,10 +20173,10 @@
     </row>
     <row r="84" spans="1:9" ht="12">
       <c r="A84" s="37" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C84" s="15" t="s">
         <v>269</v>
@@ -20197,16 +20202,16 @@
     </row>
     <row r="85" spans="1:9" ht="12">
       <c r="A85" s="37" t="s">
+        <v>681</v>
+      </c>
+      <c r="B85" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="C85" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="D85" s="15" t="s">
         <v>682</v>
-      </c>
-      <c r="B85" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="C85" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="D85" s="15" t="s">
-        <v>683</v>
       </c>
       <c r="E85" s="15" t="s">
         <v>269</v>
@@ -20226,16 +20231,16 @@
     </row>
     <row r="86" spans="1:9" ht="12">
       <c r="A86" s="37" t="s">
+        <v>683</v>
+      </c>
+      <c r="B86" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="C86" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="D86" s="15" t="s">
         <v>684</v>
-      </c>
-      <c r="B86" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="C86" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="D86" s="15" t="s">
-        <v>685</v>
       </c>
       <c r="E86" s="15" t="s">
         <v>269</v>
@@ -20255,10 +20260,10 @@
     </row>
     <row r="87" spans="1:9" ht="12">
       <c r="A87" s="37" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C87" s="15" t="s">
         <v>269</v>
@@ -22226,7 +22231,7 @@
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:K104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -22245,7 +22250,7 @@
         <v>543</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C1" s="29" t="s">
         <v>545</v>
@@ -22266,7 +22271,7 @@
         <v>549</v>
       </c>
       <c r="I1" s="30" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="17" customFormat="1" ht="12">
@@ -22274,28 +22279,28 @@
         <v>218</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="E2" s="20" t="s">
         <v>219</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I2" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="17" customFormat="1" ht="12">
@@ -22303,28 +22308,28 @@
         <v>154</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="D3" s="45" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="17" customFormat="1" ht="12">
@@ -22332,28 +22337,28 @@
         <v>156</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I4" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="17" customFormat="1" ht="12">
@@ -22361,28 +22366,28 @@
         <v>150</v>
       </c>
       <c r="B5" s="20" t="s">
+        <v>987</v>
+      </c>
+      <c r="C5" s="20" t="s">
         <v>988</v>
       </c>
-      <c r="C5" s="20" t="s">
-        <v>989</v>
-      </c>
       <c r="D5" s="20" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I5" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="17" customFormat="1" ht="12">
@@ -22390,28 +22395,28 @@
         <v>159</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I6" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="17" customFormat="1" ht="12">
@@ -22419,28 +22424,28 @@
         <v>53</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H7" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I7" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="17" customFormat="1" ht="12">
@@ -22448,28 +22453,28 @@
         <v>227</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="17" customFormat="1" ht="12">
@@ -22477,28 +22482,28 @@
         <v>241</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="17" customFormat="1" ht="12">
@@ -22506,28 +22511,28 @@
         <v>238</v>
       </c>
       <c r="B10" s="20" t="s">
+        <v>990</v>
+      </c>
+      <c r="C10" s="20" t="s">
         <v>991</v>
       </c>
-      <c r="C10" s="20" t="s">
-        <v>992</v>
-      </c>
       <c r="D10" s="20" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H10" s="20" t="s">
+        <v>1010</v>
+      </c>
+      <c r="I10" s="23" t="s">
         <v>1011</v>
-      </c>
-      <c r="I10" s="23" t="s">
-        <v>1012</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="17" customFormat="1" ht="12">
@@ -22535,28 +22540,28 @@
         <v>141</v>
       </c>
       <c r="B11" s="46" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I11" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="17" customFormat="1" ht="12">
@@ -22564,28 +22569,28 @@
         <v>224</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C12" s="20" t="s">
         <v>225</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="F12" s="49" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I12" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="17" customFormat="1" ht="12">
@@ -22596,25 +22601,25 @@
         <v>229</v>
       </c>
       <c r="C13" s="46" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="D13" s="46" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F13" s="46" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H13" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="12">
@@ -22622,28 +22627,28 @@
         <v>1</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H14" s="43" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I14" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="12">
@@ -22651,28 +22656,28 @@
         <v>2</v>
       </c>
       <c r="B15" s="23" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D15" s="49" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>693</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>693</v>
+      </c>
+      <c r="H15" s="49" t="s">
         <v>1028</v>
       </c>
-      <c r="C15" s="23" t="s">
-        <v>1028</v>
-      </c>
-      <c r="D15" s="49" t="s">
-        <v>1127</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>694</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>1061</v>
-      </c>
-      <c r="G15" s="20" t="s">
-        <v>694</v>
-      </c>
-      <c r="H15" s="49" t="s">
-        <v>1029</v>
-      </c>
       <c r="I15" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="12">
@@ -22680,28 +22685,28 @@
         <v>3</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D16" s="49" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F16" s="42" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H16" s="49" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="I16" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="K16" s="44"/>
     </row>
@@ -22710,28 +22715,28 @@
         <v>4</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F17" s="42" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I17" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="12">
@@ -22739,28 +22744,28 @@
         <v>5</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H18" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I18" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="12">
@@ -22768,28 +22773,28 @@
         <v>6</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H19" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I19" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="12">
@@ -22797,28 +22802,28 @@
         <v>7</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="H20" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I20" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="12">
@@ -22826,28 +22831,28 @@
         <v>8</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H21" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I21" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="12">
@@ -22855,28 +22860,28 @@
         <v>9</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D22" s="20" t="s">
+        <v>996</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>693</v>
+      </c>
+      <c r="F22" s="20" t="s">
         <v>997</v>
       </c>
-      <c r="E22" s="23" t="s">
-        <v>694</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>998</v>
-      </c>
       <c r="G22" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I22" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="12">
@@ -22884,260 +22889,260 @@
         <v>0</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D23" s="20" t="s">
+        <v>998</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>693</v>
+      </c>
+      <c r="F23" s="20" t="s">
         <v>999</v>
       </c>
-      <c r="E23" s="23" t="s">
-        <v>694</v>
-      </c>
-      <c r="F23" s="20" t="s">
-        <v>1000</v>
-      </c>
       <c r="G23" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H23" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I23" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="17" customFormat="1" ht="12">
       <c r="A24" s="25" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="D24" s="42" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H24" s="49" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="I24" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="17" customFormat="1" ht="12">
       <c r="A25" s="25" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H25" s="49" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="I25" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="12">
       <c r="A26" s="25" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="H26" s="49" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="I26" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="12">
       <c r="A27" s="25" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="H27" s="49" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="I27" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="12">
       <c r="A28" s="27" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H28" s="49" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="I28" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="12">
       <c r="A29" s="27" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H29" s="49" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="I29" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="12">
       <c r="A30" s="27" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H30" s="49" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="I30" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="12">
       <c r="A31" s="27" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="E31" s="20" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="G31" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H31" s="49" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="I31" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="12">
@@ -23145,28 +23150,28 @@
         <v>608</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H32" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I32" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="12">
@@ -23174,28 +23179,28 @@
         <v>610</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F33" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H33" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I33" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="12">
@@ -23203,28 +23208,28 @@
         <v>613</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E34" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F34" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G34" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H34" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I34" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="12">
@@ -23232,57 +23237,57 @@
         <v>617</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E35" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F35" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G35" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H35" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I35" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="12">
       <c r="A36" s="27" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E36" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H36" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I36" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="12">
@@ -23290,666 +23295,666 @@
         <v>622</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E37" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F37" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G37" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H37" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I37" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="12">
       <c r="A38" s="27" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D38" s="47" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="E38" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F38" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G38" s="20" t="s">
         <v>223</v>
       </c>
       <c r="H38" s="20" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="I38" s="23" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="12">
       <c r="A39" s="27" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D39" s="48" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E39" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F39" s="20" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="G39" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H39" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I39" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="12">
       <c r="A40" s="27" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="E40" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F40" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G40" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H40" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I40" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="12">
       <c r="A41" s="27" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C41" s="23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E41" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F41" s="20" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="G41" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H41" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I41" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="12">
       <c r="A42" s="27" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C42" s="23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E42" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F42" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G42" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H42" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I42" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="12">
       <c r="A43" s="27" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C43" s="23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E43" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F43" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G43" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H43" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I43" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="12">
       <c r="A44" s="27" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C44" s="23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="E44" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F44" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G44" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H44" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I44" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="12">
       <c r="A45" s="27" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C45" s="23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="E45" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F45" s="20" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="G45" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H45" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I45" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="12">
       <c r="A46" s="27" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C46" s="23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E46" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F46" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G46" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H46" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I46" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="12">
       <c r="A47" s="27" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C47" s="23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E47" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F47" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G47" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H47" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I47" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="12">
       <c r="A48" s="27" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C48" s="23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E48" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F48" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G48" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H48" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I48" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="12">
       <c r="A49" s="27" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C49" s="23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E49" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F49" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G49" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H49" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I49" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="12">
       <c r="A50" s="27" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E50" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F50" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G50" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H50" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I50" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="12">
       <c r="A51" s="27" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E51" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F51" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G51" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H51" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I51" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="12">
       <c r="A52" s="27" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E52" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F52" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G52" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H52" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I52" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="12">
       <c r="A53" s="27" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E53" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F53" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G53" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H53" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I53" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="12">
       <c r="A54" s="27" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E54" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F54" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G54" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H54" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I54" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="12">
       <c r="A55" s="27" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E55" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F55" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G55" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H55" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I55" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="12">
       <c r="A56" s="27" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D56" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E56" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F56" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G56" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H56" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I56" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="12">
       <c r="A57" s="27" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C57" s="23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="E57" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F57" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G57" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H57" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I57" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="12">
       <c r="A58" s="27" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B58" s="23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C58" s="23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D58" s="20" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="E58" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F58" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G58" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H58" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I58" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="12">
       <c r="A59" s="27" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B59" s="23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C59" s="23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D59" s="20" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E59" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F59" s="49" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="G59" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H59" s="49" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="I59" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="12">
@@ -23957,28 +23962,28 @@
         <v>168</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C60" s="23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="E60" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F60" s="49" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="G60" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H60" s="49" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="I60" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="12">
@@ -23986,28 +23991,28 @@
         <v>115</v>
       </c>
       <c r="B61" s="23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C61" s="23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D61" s="20" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="E61" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F61" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G61" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H61" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I61" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="12">
@@ -24015,57 +24020,57 @@
         <v>49</v>
       </c>
       <c r="B62" s="23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C62" s="23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="E62" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F62" s="20" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="G62" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H62" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I62" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="12">
       <c r="A63" s="27" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B63" s="23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C63" s="23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="E63" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F63" s="20" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="G63" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H63" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I63" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="64" spans="1:9" s="18" customFormat="1" ht="12">
@@ -24073,28 +24078,28 @@
         <v>99</v>
       </c>
       <c r="B64" s="23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C64" s="23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D64" s="20" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="E64" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F64" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G64" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H64" s="49" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="I64" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="65" spans="1:9" s="18" customFormat="1" ht="12">
@@ -24102,86 +24107,86 @@
         <v>119</v>
       </c>
       <c r="B65" s="23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C65" s="23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D65" s="20" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="E65" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F65" s="49" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="G65" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H65" s="49" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="I65" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="12">
       <c r="A66" s="27" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B66" s="23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C66" s="23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D66" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E66" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F66" s="49" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="G66" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H66" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I66" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="12">
       <c r="A67" s="27" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B67" s="23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C67" s="23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D67" s="20" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="E67" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F67" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G67" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H67" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I67" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="12">
@@ -24189,57 +24194,57 @@
         <v>121</v>
       </c>
       <c r="B68" s="23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C68" s="23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D68" s="20" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="E68" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F68" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G68" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H68" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I68" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="12">
       <c r="A69" s="27" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B69" s="23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C69" s="23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D69" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E69" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F69" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G69" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H69" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I69" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="12">
@@ -24247,28 +24252,28 @@
         <v>50</v>
       </c>
       <c r="B70" s="23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C70" s="23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D70" s="20" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="E70" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F70" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G70" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H70" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I70" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="12">
@@ -24276,28 +24281,28 @@
         <v>124</v>
       </c>
       <c r="B71" s="23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C71" s="23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D71" s="20" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="E71" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F71" s="20" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="G71" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H71" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I71" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="12">
@@ -24305,57 +24310,57 @@
         <v>51</v>
       </c>
       <c r="B72" s="23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C72" s="23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D72" s="20" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="E72" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F72" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G72" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H72" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I72" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="12">
       <c r="A73" s="27" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B73" s="23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C73" s="23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D73" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E73" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F73" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G73" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H73" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I73" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="12">
@@ -24363,144 +24368,144 @@
         <v>48</v>
       </c>
       <c r="B74" s="23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C74" s="23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D74" s="20" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E74" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F74" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G74" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H74" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I74" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="12">
       <c r="A75" s="27" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B75" s="23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C75" s="23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D75" s="20" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="E75" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F75" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G75" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H75" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I75" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="12">
       <c r="A76" s="27" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B76" s="23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C76" s="23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D76" s="20" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E76" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F76" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G76" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H76" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I76" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="12">
       <c r="A77" s="27" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B77" s="23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C77" s="23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D77" s="20" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="E77" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F77" s="20" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="G77" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H77" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I77" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="12">
       <c r="A78" s="27" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B78" s="23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C78" s="23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D78" s="20" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="E78" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F78" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G78" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H78" s="20" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="I78" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="12">
@@ -24508,405 +24513,405 @@
         <v>128</v>
       </c>
       <c r="B79" s="23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C79" s="23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D79" s="20" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="E79" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F79" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G79" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H79" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I79" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="12">
       <c r="A80" s="27" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B80" s="23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C80" s="23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D80" s="20" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E80" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F80" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G80" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H80" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I80" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="12">
       <c r="A81" s="27" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B81" s="23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C81" s="23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D81" s="20" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="E81" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F81" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G81" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H81" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I81" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="12">
       <c r="A82" s="27" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B82" s="23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C82" s="23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D82" s="20" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="E82" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F82" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G82" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H82" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I82" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="83" spans="1:9" s="19" customFormat="1" ht="12">
       <c r="A83" s="27" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B83" s="23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="D83" s="20" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="E83" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F83" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G83" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H83" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I83" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="12">
       <c r="A84" s="27" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C84" s="15" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D84" s="15" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E84" s="15" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F84" s="15" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G84" s="15" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H84" s="15" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I84" s="33" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="12">
       <c r="A85" s="27" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B85" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C85" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D85" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E85" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F85" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G85" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H85" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I85" s="33" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="12">
       <c r="A86" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B86" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C86" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D86" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E86" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F86" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G86" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H86" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I86" s="33" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="87" spans="1:9" s="18" customFormat="1" ht="12">
       <c r="A87" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B87" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C87" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D87" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E87" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F87" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G87" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H87" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I87" s="33" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="88" spans="1:9" s="18" customFormat="1" ht="12">
       <c r="A88" s="27" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D88" s="15" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E88" s="15" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F88" s="15" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G88" s="15" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H88" s="15" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I88" s="33" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="89" spans="1:9" s="18" customFormat="1" ht="12">
       <c r="A89" s="27" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C89" s="15" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D89" s="15" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E89" s="15" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F89" s="15" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G89" s="15" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H89" s="15" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I89" s="33" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="12">
       <c r="A90" s="27" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C90" s="15" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D90" s="15" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E90" s="15" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F90" s="15" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G90" s="15" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H90" s="15" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I90" s="33" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="12">
       <c r="A91" s="27" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B91" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C91" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D91" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E91" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F91" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G91" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H91" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I91" s="33" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="12">
       <c r="A92" s="28" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B92" s="22" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C92" s="22" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D92" s="22" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E92" s="22" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F92" s="22" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G92" s="22" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H92" s="22" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I92" s="34" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -28126,7 +28131,7 @@
         <v>543</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C1" s="29" t="s">
         <v>545</v>
@@ -28147,7 +28152,7 @@
         <v>549</v>
       </c>
       <c r="I1" s="30" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="17" customFormat="1" ht="12">
@@ -28155,25 +28160,25 @@
         <v>218</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="F2" s="20" t="s">
         <v>269</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="I2" s="23" t="s">
         <v>269</v>
@@ -28184,13 +28189,13 @@
         <v>154</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E3" s="20" t="s">
         <v>269</v>
@@ -28199,10 +28204,10 @@
         <v>269</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="I3" s="23" t="s">
         <v>269</v>
@@ -28213,19 +28218,19 @@
         <v>156</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="G4" s="20" t="s">
         <v>269</v>
@@ -28242,16 +28247,16 @@
         <v>150</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="F5" s="20" t="s">
         <v>269</v>
@@ -28271,19 +28276,19 @@
         <v>159</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>282</v>
       </c>
       <c r="D6" s="20" t="s">
+        <v>804</v>
+      </c>
+      <c r="E6" s="20" t="s">
         <v>805</v>
       </c>
-      <c r="E6" s="20" t="s">
-        <v>806</v>
-      </c>
       <c r="F6" s="20" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="G6" s="20" t="s">
         <v>269</v>
@@ -28300,22 +28305,22 @@
         <v>53</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="H7" s="20" t="s">
         <v>269</v>
@@ -28329,25 +28334,25 @@
         <v>227</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>269</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I8" s="23" t="s">
         <v>269</v>
@@ -28358,19 +28363,19 @@
         <v>241</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="G9" s="20" t="s">
         <v>269</v>
@@ -28387,22 +28392,22 @@
         <v>238</v>
       </c>
       <c r="B10" s="20" t="s">
+        <v>763</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>765</v>
+      </c>
+      <c r="D10" s="20" t="s">
         <v>764</v>
       </c>
-      <c r="C10" s="20" t="s">
-        <v>766</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>765</v>
-      </c>
       <c r="E10" s="20" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H10" s="20" t="s">
         <v>269</v>
@@ -28422,7 +28427,7 @@
         <v>269</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E11" s="20" t="s">
         <v>269</v>
@@ -28445,19 +28450,19 @@
         <v>224</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G12" s="20" t="s">
         <v>269</v>
@@ -28477,16 +28482,16 @@
         <v>229</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G13" s="20" t="s">
         <v>269</v>
@@ -28503,25 +28508,25 @@
         <v>1</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C14" s="20" t="s">
         <v>269</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F14" s="20" t="s">
         <v>269</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="I14" s="23" t="s">
         <v>269</v>
@@ -28532,25 +28537,25 @@
         <v>2</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C15" s="20" t="s">
         <v>269</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F15" s="20" t="s">
         <v>269</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="I15" s="23" t="s">
         <v>269</v>
@@ -28561,25 +28566,25 @@
         <v>3</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C16" s="20" t="s">
         <v>269</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F16" s="20" t="s">
         <v>269</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="I16" s="23" t="s">
         <v>269</v>
@@ -28590,22 +28595,22 @@
         <v>4</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C17" s="20" t="s">
         <v>269</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F17" s="20" t="s">
         <v>269</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H17" s="20" t="s">
         <v>269</v>
@@ -28619,25 +28624,25 @@
         <v>5</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C18" s="20" t="s">
         <v>269</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F18" s="20" t="s">
         <v>269</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H18" s="20" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I18" s="23" t="s">
         <v>269</v>
@@ -28648,22 +28653,22 @@
         <v>6</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C19" s="20" t="s">
         <v>269</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F19" s="20" t="s">
         <v>269</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H19" s="20" t="s">
         <v>269</v>
@@ -28677,7 +28682,7 @@
         <v>7</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C20" s="20" t="s">
         <v>269</v>
@@ -28686,13 +28691,13 @@
         <v>269</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F20" s="20" t="s">
         <v>269</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H20" s="20" t="s">
         <v>269</v>
@@ -28706,7 +28711,7 @@
         <v>8</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C21" s="20" t="s">
         <v>269</v>
@@ -28715,13 +28720,13 @@
         <v>269</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H21" s="20" t="s">
         <v>269</v>
@@ -28735,7 +28740,7 @@
         <v>9</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C22" s="20" t="s">
         <v>269</v>
@@ -28744,13 +28749,13 @@
         <v>269</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F22" s="20" t="s">
         <v>269</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H22" s="20" t="s">
         <v>269</v>
@@ -28764,16 +28769,16 @@
         <v>0</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C23" s="20" t="s">
         <v>269</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F23" s="20" t="s">
         <v>269</v>
@@ -28790,28 +28795,28 @@
     </row>
     <row r="24" spans="1:9" s="17" customFormat="1" ht="12">
       <c r="A24" s="25" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D24" s="20" t="s">
+        <v>710</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>838</v>
+      </c>
+      <c r="F24" s="20" t="s">
         <v>711</v>
       </c>
-      <c r="E24" s="20" t="s">
-        <v>839</v>
-      </c>
-      <c r="F24" s="20" t="s">
-        <v>712</v>
-      </c>
       <c r="G24" s="20" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H24" s="20" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="I24" s="23" t="s">
         <v>269</v>
@@ -28819,28 +28824,28 @@
     </row>
     <row r="25" spans="1:9" s="17" customFormat="1" ht="12">
       <c r="A25" s="25" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D25" s="20" t="s">
+        <v>708</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>820</v>
+      </c>
+      <c r="F25" s="20" t="s">
         <v>709</v>
       </c>
-      <c r="E25" s="20" t="s">
-        <v>821</v>
-      </c>
-      <c r="F25" s="20" t="s">
-        <v>710</v>
-      </c>
       <c r="G25" s="20" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H25" s="20" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="I25" s="23" t="s">
         <v>269</v>
@@ -28848,25 +28853,25 @@
     </row>
     <row r="26" spans="1:9" ht="12">
       <c r="A26" s="25" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H26" s="20" t="s">
         <v>269</v>
@@ -28877,25 +28882,25 @@
     </row>
     <row r="27" spans="1:9" ht="12">
       <c r="A27" s="25" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E27" s="20" t="s">
         <v>282</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H27" s="20" t="s">
         <v>269</v>
@@ -28941,13 +28946,13 @@
         <v>269</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="F29" s="20" t="s">
         <v>269</v>
@@ -28967,13 +28972,13 @@
         <v>613</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E30" s="20" t="s">
         <v>269</v>
@@ -29022,7 +29027,7 @@
     </row>
     <row r="32" spans="1:9" ht="12">
       <c r="A32" s="27" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B32" s="20" t="s">
         <v>269</v>
@@ -29051,28 +29056,28 @@
     </row>
     <row r="33" spans="1:9" ht="12">
       <c r="A33" s="27" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B33" s="20" t="s">
+        <v>806</v>
+      </c>
+      <c r="C33" s="20" t="s">
         <v>807</v>
       </c>
-      <c r="C33" s="20" t="s">
-        <v>808</v>
-      </c>
       <c r="D33" s="20" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F33" s="20" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H33" s="20" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="I33" s="23" t="s">
         <v>269</v>
@@ -29080,25 +29085,25 @@
     </row>
     <row r="34" spans="1:9" ht="12">
       <c r="A34" s="27" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B34" s="20" t="s">
+        <v>810</v>
+      </c>
+      <c r="C34" s="20" t="s">
         <v>811</v>
       </c>
-      <c r="C34" s="20" t="s">
-        <v>812</v>
-      </c>
       <c r="D34" s="20" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E34" s="20" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F34" s="20" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="G34" s="20" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="H34" s="20" t="s">
         <v>269</v>
@@ -29109,7 +29114,7 @@
     </row>
     <row r="35" spans="1:9" ht="12">
       <c r="A35" s="27" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B35" s="20" t="s">
         <v>269</v>
@@ -29138,7 +29143,7 @@
     </row>
     <row r="36" spans="1:9" ht="12">
       <c r="A36" s="27" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B36" s="20" t="s">
         <v>269</v>
@@ -29176,19 +29181,19 @@
         <v>269</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E37" s="20" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F37" s="20" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="G37" s="20" t="s">
         <v>269</v>
       </c>
       <c r="H37" s="20" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="I37" s="23" t="s">
         <v>269</v>
@@ -29196,7 +29201,7 @@
     </row>
     <row r="38" spans="1:9" ht="12">
       <c r="A38" s="27" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B38" s="20" t="s">
         <v>269</v>
@@ -29211,10 +29216,10 @@
         <v>269</v>
       </c>
       <c r="F38" s="20" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="G38" s="20" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="H38" s="20" t="s">
         <v>269</v>
@@ -29225,7 +29230,7 @@
     </row>
     <row r="39" spans="1:9" ht="12">
       <c r="A39" s="27" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B39" s="20" t="s">
         <v>269</v>
@@ -29254,7 +29259,7 @@
     </row>
     <row r="40" spans="1:9" ht="12">
       <c r="A40" s="27" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B40" s="20" t="s">
         <v>269</v>
@@ -29263,7 +29268,7 @@
         <v>269</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E40" s="20" t="s">
         <v>269</v>
@@ -29283,7 +29288,7 @@
     </row>
     <row r="41" spans="1:9" ht="12">
       <c r="A41" s="27" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B41" s="20" t="s">
         <v>269</v>
@@ -29312,7 +29317,7 @@
     </row>
     <row r="42" spans="1:9" ht="12">
       <c r="A42" s="27" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B42" s="20" t="s">
         <v>269</v>
@@ -29321,7 +29326,7 @@
         <v>269</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E42" s="20" t="s">
         <v>269</v>
@@ -29341,7 +29346,7 @@
     </row>
     <row r="43" spans="1:9" ht="12">
       <c r="A43" s="27" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B43" s="20" t="s">
         <v>269</v>
@@ -29350,7 +29355,7 @@
         <v>269</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E43" s="20" t="s">
         <v>269</v>
@@ -29370,7 +29375,7 @@
     </row>
     <row r="44" spans="1:9" ht="12">
       <c r="A44" s="27" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B44" s="20" t="s">
         <v>269</v>
@@ -29385,10 +29390,10 @@
         <v>269</v>
       </c>
       <c r="F44" s="20" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="G44" s="20" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H44" s="20" t="s">
         <v>269</v>
@@ -29399,7 +29404,7 @@
     </row>
     <row r="45" spans="1:9" ht="12">
       <c r="A45" s="27" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B45" s="20" t="s">
         <v>269</v>
@@ -29428,7 +29433,7 @@
     </row>
     <row r="46" spans="1:9" ht="12">
       <c r="A46" s="27" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B46" s="20" t="s">
         <v>269</v>
@@ -29457,7 +29462,7 @@
     </row>
     <row r="47" spans="1:9" ht="12">
       <c r="A47" s="27" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B47" s="20" t="s">
         <v>269</v>
@@ -29486,7 +29491,7 @@
     </row>
     <row r="48" spans="1:9" ht="12">
       <c r="A48" s="27" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B48" s="20" t="s">
         <v>269</v>
@@ -29515,7 +29520,7 @@
     </row>
     <row r="49" spans="1:9" ht="12">
       <c r="A49" s="27" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B49" s="20" t="s">
         <v>269</v>
@@ -29524,7 +29529,7 @@
         <v>269</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E49" s="20" t="s">
         <v>269</v>
@@ -29544,10 +29549,10 @@
     </row>
     <row r="50" spans="1:9" ht="12">
       <c r="A50" s="27" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C50" s="20" t="s">
         <v>269</v>
@@ -29573,7 +29578,7 @@
     </row>
     <row r="51" spans="1:9" ht="12">
       <c r="A51" s="27" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B51" s="20" t="s">
         <v>269</v>
@@ -29602,7 +29607,7 @@
     </row>
     <row r="52" spans="1:9" ht="12">
       <c r="A52" s="27" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B52" s="20" t="s">
         <v>269</v>
@@ -29631,7 +29636,7 @@
     </row>
     <row r="53" spans="1:9" ht="12">
       <c r="A53" s="27" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B53" s="20" t="s">
         <v>269</v>
@@ -29660,7 +29665,7 @@
     </row>
     <row r="54" spans="1:9" ht="12">
       <c r="A54" s="27" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B54" s="20" t="s">
         <v>269</v>
@@ -29689,7 +29694,7 @@
     </row>
     <row r="55" spans="1:9" ht="12">
       <c r="A55" s="27" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B55" s="20" t="s">
         <v>269</v>
@@ -29718,7 +29723,7 @@
     </row>
     <row r="56" spans="1:9" ht="12">
       <c r="A56" s="27" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B56" s="20" t="s">
         <v>269</v>
@@ -29747,25 +29752,25 @@
     </row>
     <row r="57" spans="1:9" ht="12">
       <c r="A57" s="27" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C57" s="20" t="s">
         <v>269</v>
       </c>
       <c r="D57" s="20" t="s">
+        <v>752</v>
+      </c>
+      <c r="E57" s="23" t="s">
+        <v>979</v>
+      </c>
+      <c r="F57" s="20" t="s">
         <v>753</v>
       </c>
-      <c r="E57" s="23" t="s">
-        <v>980</v>
-      </c>
-      <c r="F57" s="20" t="s">
-        <v>754</v>
-      </c>
       <c r="G57" s="20" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H57" s="20" t="s">
         <v>269</v>
@@ -29776,22 +29781,22 @@
     </row>
     <row r="58" spans="1:9" ht="12">
       <c r="A58" s="27" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B58" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C58" s="20" t="s">
         <v>269</v>
       </c>
       <c r="D58" s="20" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="E58" s="23" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F58" s="20" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="G58" s="20" t="s">
         <v>269</v>
@@ -29805,25 +29810,25 @@
     </row>
     <row r="59" spans="1:9" ht="12">
       <c r="A59" s="27" t="s">
+        <v>637</v>
+      </c>
+      <c r="B59" s="23" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C59" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="D59" s="20" t="s">
         <v>638</v>
       </c>
-      <c r="B59" s="23" t="s">
-        <v>1027</v>
-      </c>
-      <c r="C59" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="D59" s="20" t="s">
-        <v>639</v>
-      </c>
       <c r="E59" s="23" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F59" s="20" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="G59" s="20" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H59" s="20" t="s">
         <v>269</v>
@@ -29837,25 +29842,25 @@
         <v>168</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C60" s="20" t="s">
         <v>269</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E60" s="23" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F60" s="20" t="s">
+        <v>852</v>
+      </c>
+      <c r="G60" s="20" t="s">
         <v>853</v>
       </c>
-      <c r="G60" s="20" t="s">
-        <v>854</v>
-      </c>
       <c r="H60" s="20" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="I60" s="23" t="s">
         <v>269</v>
@@ -29866,22 +29871,22 @@
         <v>115</v>
       </c>
       <c r="B61" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C61" s="20" t="s">
         <v>269</v>
       </c>
       <c r="D61" s="20" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E61" s="23" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F61" s="20" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="G61" s="20" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H61" s="20" t="s">
         <v>269</v>
@@ -29895,25 +29900,25 @@
         <v>49</v>
       </c>
       <c r="B62" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C62" s="20" t="s">
         <v>269</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E62" s="23" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F62" s="20" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="G62" s="20" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H62" s="20" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="I62" s="23" t="s">
         <v>269</v>
@@ -29921,22 +29926,22 @@
     </row>
     <row r="63" spans="1:9" ht="12">
       <c r="A63" s="27" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B63" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C63" s="20" t="s">
         <v>269</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E63" s="23" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F63" s="20" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="G63" s="20" t="s">
         <v>269</v>
@@ -29953,25 +29958,25 @@
         <v>99</v>
       </c>
       <c r="B64" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C64" s="20" t="s">
         <v>269</v>
       </c>
       <c r="D64" s="20" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E64" s="23" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F64" s="20" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G64" s="20" t="s">
         <v>269</v>
       </c>
       <c r="H64" s="20" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I64" s="23" t="s">
         <v>269</v>
@@ -29982,25 +29987,25 @@
         <v>119</v>
       </c>
       <c r="B65" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C65" s="20" t="s">
         <v>269</v>
       </c>
       <c r="D65" s="20" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E65" s="23" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F65" s="20" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="G65" s="20" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H65" s="20" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="I65" s="23" t="s">
         <v>269</v>
@@ -30008,22 +30013,22 @@
     </row>
     <row r="66" spans="1:9" ht="12">
       <c r="A66" s="27" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B66" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C66" s="20" t="s">
         <v>269</v>
       </c>
       <c r="D66" s="20" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E66" s="23" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F66" s="20" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G66" s="20" t="s">
         <v>269</v>
@@ -30037,28 +30042,28 @@
     </row>
     <row r="67" spans="1:9" ht="12">
       <c r="A67" s="27" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B67" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C67" s="20" t="s">
         <v>269</v>
       </c>
       <c r="D67" s="20" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E67" s="23" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F67" s="20" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G67" s="20" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H67" s="20" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="I67" s="23" t="s">
         <v>269</v>
@@ -30069,25 +30074,25 @@
         <v>121</v>
       </c>
       <c r="B68" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C68" s="20" t="s">
         <v>269</v>
       </c>
       <c r="D68" s="20" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E68" s="23" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F68" s="20" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="G68" s="20" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H68" s="20" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I68" s="23" t="s">
         <v>269</v>
@@ -30095,28 +30100,28 @@
     </row>
     <row r="69" spans="1:9" ht="12">
       <c r="A69" s="27" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B69" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C69" s="20" t="s">
         <v>269</v>
       </c>
       <c r="D69" s="20" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E69" s="23" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F69" s="20" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="G69" s="20" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H69" s="20" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="I69" s="23" t="s">
         <v>269</v>
@@ -30127,25 +30132,25 @@
         <v>50</v>
       </c>
       <c r="B70" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C70" s="20" t="s">
         <v>269</v>
       </c>
       <c r="D70" s="20" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E70" s="23" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F70" s="20" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="G70" s="20" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="H70" s="20" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="I70" s="23" t="s">
         <v>269</v>
@@ -30156,25 +30161,25 @@
         <v>124</v>
       </c>
       <c r="B71" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C71" s="20" t="s">
         <v>269</v>
       </c>
       <c r="D71" s="20" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E71" s="23" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F71" s="20" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G71" s="20" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="H71" s="20" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="I71" s="23" t="s">
         <v>269</v>
@@ -30185,25 +30190,25 @@
         <v>51</v>
       </c>
       <c r="B72" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C72" s="20" t="s">
         <v>269</v>
       </c>
       <c r="D72" s="20" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E72" s="23" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F72" s="20" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="G72" s="20" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H72" s="20" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="I72" s="23" t="s">
         <v>269</v>
@@ -30211,22 +30216,22 @@
     </row>
     <row r="73" spans="1:9" ht="12">
       <c r="A73" s="27" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B73" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C73" s="20" t="s">
         <v>269</v>
       </c>
       <c r="D73" s="20" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E73" s="23" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F73" s="20" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G73" s="20" t="s">
         <v>269</v>
@@ -30243,22 +30248,22 @@
         <v>48</v>
       </c>
       <c r="B74" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C74" s="20" t="s">
         <v>269</v>
       </c>
       <c r="D74" s="20" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E74" s="23" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F74" s="20" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="G74" s="20" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H74" s="20" t="s">
         <v>269</v>
@@ -30269,54 +30274,54 @@
     </row>
     <row r="75" spans="1:9" ht="12">
       <c r="A75" s="27" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B75" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C75" s="20" t="s">
         <v>269</v>
       </c>
       <c r="D75" s="20" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E75" s="23" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F75" s="20" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="G75" s="20" t="s">
         <v>269</v>
       </c>
       <c r="H75" s="20" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="I75" s="23" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="12">
       <c r="A76" s="27" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B76" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C76" s="20" t="s">
         <v>269</v>
       </c>
       <c r="D76" s="20" t="s">
+        <v>771</v>
+      </c>
+      <c r="E76" s="23" t="s">
+        <v>979</v>
+      </c>
+      <c r="F76" s="20" t="s">
         <v>772</v>
       </c>
-      <c r="E76" s="23" t="s">
-        <v>980</v>
-      </c>
-      <c r="F76" s="20" t="s">
-        <v>773</v>
-      </c>
       <c r="G76" s="20" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="H76" s="20" t="s">
         <v>269</v>
@@ -30327,28 +30332,28 @@
     </row>
     <row r="77" spans="1:9" ht="12">
       <c r="A77" s="27" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B77" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C77" s="20" t="s">
         <v>269</v>
       </c>
       <c r="D77" s="20" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E77" s="23" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F77" s="20" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="G77" s="20" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H77" s="20" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="I77" s="23" t="s">
         <v>269</v>
@@ -30356,31 +30361,31 @@
     </row>
     <row r="78" spans="1:9" ht="12">
       <c r="A78" s="27" t="s">
+        <v>665</v>
+      </c>
+      <c r="B78" s="23" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C78" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="D78" s="20" t="s">
         <v>666</v>
       </c>
-      <c r="B78" s="23" t="s">
-        <v>1027</v>
-      </c>
-      <c r="C78" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="D78" s="20" t="s">
-        <v>667</v>
-      </c>
       <c r="E78" s="23" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F78" s="20" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="G78" s="20" t="s">
         <v>269</v>
       </c>
       <c r="H78" s="20" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="I78" s="23" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="12">
@@ -30388,19 +30393,19 @@
         <v>128</v>
       </c>
       <c r="B79" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C79" s="20" t="s">
         <v>269</v>
       </c>
       <c r="D79" s="20" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E79" s="23" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F79" s="20" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="G79" s="20" t="s">
         <v>269</v>
@@ -30414,25 +30419,25 @@
     </row>
     <row r="80" spans="1:9" ht="12">
       <c r="A80" s="27" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B80" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C80" s="20" t="s">
         <v>269</v>
       </c>
       <c r="D80" s="20" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E80" s="23" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F80" s="20" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G80" s="20" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H80" s="20" t="s">
         <v>269</v>
@@ -30443,19 +30448,19 @@
     </row>
     <row r="81" spans="1:9" ht="12">
       <c r="A81" s="27" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B81" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C81" s="20" t="s">
         <v>269</v>
       </c>
       <c r="D81" s="20" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E81" s="23" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F81" s="20" t="s">
         <v>269</v>
@@ -30464,7 +30469,7 @@
         <v>269</v>
       </c>
       <c r="H81" s="20" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="I81" s="23" t="s">
         <v>269</v>
@@ -30472,22 +30477,22 @@
     </row>
     <row r="82" spans="1:9" ht="12">
       <c r="A82" s="27" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B82" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C82" s="20" t="s">
         <v>269</v>
       </c>
       <c r="D82" s="20" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E82" s="23" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F82" s="20" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="G82" s="20" t="s">
         <v>269</v>
@@ -30501,16 +30506,16 @@
     </row>
     <row r="83" spans="1:9" s="19" customFormat="1" ht="12">
       <c r="A83" s="27" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B83" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C83" s="20" t="s">
         <v>269</v>
       </c>
       <c r="D83" s="20" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E83" s="20" t="s">
         <v>269</v>
@@ -30522,7 +30527,7 @@
         <v>269</v>
       </c>
       <c r="H83" s="20" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="I83" s="23" t="s">
         <v>269</v>
@@ -30530,10 +30535,10 @@
     </row>
     <row r="84" spans="1:9" ht="12">
       <c r="A84" s="27" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C84" s="15" t="s">
         <v>269</v>
@@ -30559,97 +30564,97 @@
     </row>
     <row r="85" spans="1:9" ht="12">
       <c r="A85" s="27" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B85" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C85" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D85" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E85" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F85" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G85" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H85" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I85" s="33" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="12">
       <c r="A86" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B86" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C86" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D86" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E86" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F86" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G86" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H86" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I86" s="33" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="87" spans="1:9" s="18" customFormat="1" ht="12">
       <c r="A87" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B87" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C87" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D87" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E87" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F87" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G87" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H87" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I87" s="33" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="88" spans="1:9" s="18" customFormat="1" ht="12">
       <c r="A88" s="27" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C88" s="15" t="s">
         <v>269</v>
@@ -30675,10 +30680,10 @@
     </row>
     <row r="89" spans="1:9" s="18" customFormat="1" ht="12">
       <c r="A89" s="27" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C89" s="15" t="s">
         <v>269</v>
@@ -30704,10 +30709,10 @@
     </row>
     <row r="90" spans="1:9" ht="12">
       <c r="A90" s="27" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C90" s="15" t="s">
         <v>269</v>
@@ -30733,60 +30738,60 @@
     </row>
     <row r="91" spans="1:9" ht="12">
       <c r="A91" s="27" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B91" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C91" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D91" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E91" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F91" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G91" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H91" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I91" s="33" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="12">
       <c r="A92" s="28" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B92" s="22" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C92" s="22" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D92" s="22" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E92" s="22" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F92" s="22" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G92" s="22" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H92" s="22" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I92" s="34" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="95" spans="1:9">

--- a/shortcut_keys.xlsx
+++ b/shortcut_keys.xlsx
@@ -4,9 +4,9 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54CAAEF5-4941-4499-9B36-AEFC69455D08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B7A72F-AF78-42DE-95B2-1FE7B00736BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="26700" windowHeight="16440" firstSheet="6" activeTab="16" xr2:uid="{43490DDC-BDDE-46A2-A177-1DE0A5EB93B9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="26700" windowHeight="16440" activeTab="3" xr2:uid="{43490DDC-BDDE-46A2-A177-1DE0A5EB93B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Windows10" sheetId="7" r:id="rId1"/>
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4203" uniqueCount="1130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4203" uniqueCount="1131">
   <si>
     <t>Ctrl</t>
   </si>
@@ -4634,25 +4634,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>【オブジェクト選択時】最前面へ移動</t>
-    <rPh sb="7" eb="9">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ゼンメン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>【オブジェクト選択時】最背面へ移動</t>
     <rPh sb="7" eb="9">
       <t>センタク</t>
@@ -5320,6 +5301,29 @@
   </si>
   <si>
     <t>単語補完</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アドインマクロ実行</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>【オブジェクト選択時】最前面へ移動 or 検索文字の文字色を変更</t>
+    <rPh sb="7" eb="9">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ゼンメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イドウ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -17750,7 +17754,7 @@
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:I99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -18030,7 +18034,7 @@
         <v>238</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>269</v>
@@ -18706,7 +18710,7 @@
         <v>269</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="F33" s="15" t="s">
         <v>612</v>
@@ -19840,7 +19844,7 @@
         <v>269</v>
       </c>
       <c r="F72" s="15" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="G72" s="15" t="s">
         <v>269</v>
@@ -19979,7 +19983,7 @@
         <v>269</v>
       </c>
       <c r="D77" s="15" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="E77" s="15" t="s">
         <v>269</v>
@@ -22231,11 +22235,11 @@
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:K104"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -22279,22 +22283,22 @@
         <v>218</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="E2" s="20" t="s">
         <v>219</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="H2" s="20" t="s">
         <v>693</v>
@@ -22311,13 +22315,13 @@
         <v>986</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="D3" s="45" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="F3" s="20" t="s">
         <v>693</v>
@@ -22337,13 +22341,13 @@
         <v>156</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="E4" s="20" t="s">
         <v>693</v>
@@ -22375,10 +22379,10 @@
         <v>867</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="G5" s="20" t="s">
         <v>693</v>
@@ -22395,13 +22399,13 @@
         <v>159</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="E6" s="20" t="s">
         <v>693</v>
@@ -22427,16 +22431,16 @@
         <v>980</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="E7" s="20" t="s">
         <v>693</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="G7" s="20" t="s">
         <v>693</v>
@@ -22453,13 +22457,13 @@
         <v>227</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="E8" s="20" t="s">
         <v>693</v>
@@ -22482,16 +22486,16 @@
         <v>241</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>989</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="F9" s="20" t="s">
         <v>693</v>
@@ -22499,8 +22503,8 @@
       <c r="G9" s="20" t="s">
         <v>693</v>
       </c>
-      <c r="H9" s="20" t="s">
-        <v>693</v>
+      <c r="H9" s="49" t="s">
+        <v>1129</v>
       </c>
       <c r="I9" s="23" t="s">
         <v>693</v>
@@ -22517,7 +22521,7 @@
         <v>991</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="E10" s="20" t="s">
         <v>693</v>
@@ -22540,22 +22544,22 @@
         <v>141</v>
       </c>
       <c r="B11" s="46" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="E11" s="20" t="s">
         <v>693</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="H11" s="20" t="s">
         <v>693</v>
@@ -22569,16 +22573,16 @@
         <v>224</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="C12" s="20" t="s">
         <v>225</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="F12" s="49" t="s">
         <v>1022</v>
@@ -22601,16 +22605,16 @@
         <v>229</v>
       </c>
       <c r="C13" s="46" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="D13" s="46" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="E13" s="20" t="s">
         <v>693</v>
       </c>
       <c r="F13" s="46" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="G13" s="20" t="s">
         <v>693</v>
@@ -22627,19 +22631,19 @@
         <v>1</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="E14" s="23" t="s">
         <v>693</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="G14" s="20" t="s">
         <v>693</v>
@@ -22656,25 +22660,25 @@
         <v>2</v>
       </c>
       <c r="B15" s="23" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D15" s="49" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>693</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>693</v>
+      </c>
+      <c r="H15" s="49" t="s">
         <v>1027</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>1027</v>
-      </c>
-      <c r="D15" s="49" t="s">
-        <v>1126</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>693</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>1060</v>
-      </c>
-      <c r="G15" s="20" t="s">
-        <v>693</v>
-      </c>
-      <c r="H15" s="49" t="s">
-        <v>1028</v>
       </c>
       <c r="I15" s="23" t="s">
         <v>693</v>
@@ -22685,13 +22689,13 @@
         <v>3</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D16" s="49" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="E16" s="23" t="s">
         <v>693</v>
@@ -22703,7 +22707,7 @@
         <v>693</v>
       </c>
       <c r="H16" s="49" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="I16" s="23" t="s">
         <v>693</v>
@@ -22715,19 +22719,19 @@
         <v>4</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="E17" s="23" t="s">
         <v>693</v>
       </c>
       <c r="F17" s="42" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="G17" s="20" t="s">
         <v>693</v>
@@ -22744,13 +22748,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="E18" s="23" t="s">
         <v>693</v>
@@ -22773,10 +22777,10 @@
         <v>6</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D19" s="20" t="s">
         <v>982</v>
@@ -22785,7 +22789,7 @@
         <v>693</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="G19" s="20" t="s">
         <v>693</v>
@@ -22802,19 +22806,19 @@
         <v>7</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="E20" s="23" t="s">
         <v>693</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="G20" s="20" t="s">
         <v>1009</v>
@@ -22831,10 +22835,10 @@
         <v>8</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D21" s="20" t="s">
         <v>983</v>
@@ -22860,10 +22864,10 @@
         <v>9</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D22" s="20" t="s">
         <v>996</v>
@@ -22889,10 +22893,10 @@
         <v>0</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D23" s="20" t="s">
         <v>998</v>
@@ -22918,13 +22922,13 @@
         <v>696</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="D24" s="42" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="E24" s="20" t="s">
         <v>693</v>
@@ -22947,13 +22951,13 @@
         <v>697</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="E25" s="20" t="s">
         <v>693</v>
@@ -22976,13 +22980,13 @@
         <v>694</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E26" s="20" t="s">
         <v>994</v>
@@ -23005,13 +23009,13 @@
         <v>695</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="E27" s="20" t="s">
         <v>995</v>
@@ -23034,13 +23038,13 @@
         <v>878</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="E28" s="20" t="s">
         <v>693</v>
@@ -23063,13 +23067,13 @@
         <v>879</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="E29" s="20" t="s">
         <v>693</v>
@@ -23092,19 +23096,19 @@
         <v>880</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="E30" s="20" t="s">
         <v>992</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="G30" s="20" t="s">
         <v>693</v>
@@ -23121,19 +23125,19 @@
         <v>881</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="E31" s="20" t="s">
         <v>993</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="G31" s="20" t="s">
         <v>693</v>
@@ -23150,10 +23154,10 @@
         <v>608</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="D32" s="20" t="s">
         <v>693</v>
@@ -23179,7 +23183,7 @@
         <v>610</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="C33" s="20" t="s">
         <v>895</v>
@@ -23208,7 +23212,7 @@
         <v>613</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="C34" s="20" t="s">
         <v>897</v>
@@ -23237,7 +23241,7 @@
         <v>617</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="C35" s="20" t="s">
         <v>693</v>
@@ -23295,10 +23299,10 @@
         <v>622</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="D37" s="20" t="s">
         <v>693</v>
@@ -23324,13 +23328,13 @@
         <v>940</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D38" s="47" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="E38" s="20" t="s">
         <v>693</v>
@@ -23342,10 +23346,10 @@
         <v>223</v>
       </c>
       <c r="H38" s="20" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="I38" s="23" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="12">
@@ -23353,10 +23357,10 @@
         <v>942</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D39" s="48" t="s">
         <v>693</v>
@@ -23382,10 +23386,10 @@
         <v>944</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D40" s="20" t="s">
         <v>984</v>
@@ -23411,10 +23415,10 @@
         <v>946</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C41" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D41" s="20" t="s">
         <v>693</v>
@@ -23440,10 +23444,10 @@
         <v>948</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C42" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D42" s="20" t="s">
         <v>693</v>
@@ -23469,10 +23473,10 @@
         <v>950</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C43" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D43" s="20" t="s">
         <v>693</v>
@@ -23498,13 +23502,13 @@
         <v>952</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C44" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="E44" s="20" t="s">
         <v>693</v>
@@ -23527,19 +23531,19 @@
         <v>954</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C45" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="E45" s="20" t="s">
         <v>693</v>
       </c>
       <c r="F45" s="20" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="G45" s="20" t="s">
         <v>693</v>
@@ -23556,10 +23560,10 @@
         <v>956</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C46" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D46" s="20" t="s">
         <v>693</v>
@@ -23585,10 +23589,10 @@
         <v>958</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C47" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D47" s="20" t="s">
         <v>693</v>
@@ -23614,10 +23618,10 @@
         <v>960</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C48" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D48" s="20" t="s">
         <v>693</v>
@@ -23643,10 +23647,10 @@
         <v>962</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C49" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D49" s="20" t="s">
         <v>693</v>
@@ -23875,10 +23879,10 @@
         <v>634</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C57" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D57" s="20" t="s">
         <v>886</v>
@@ -23904,19 +23908,19 @@
         <v>636</v>
       </c>
       <c r="B58" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C58" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D58" s="20" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="E58" s="23" t="s">
         <v>693</v>
       </c>
-      <c r="F58" s="20" t="s">
-        <v>693</v>
+      <c r="F58" s="49" t="s">
+        <v>1024</v>
       </c>
       <c r="G58" s="20" t="s">
         <v>693</v>
@@ -23933,10 +23937,10 @@
         <v>637</v>
       </c>
       <c r="B59" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C59" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D59" s="20" t="s">
         <v>888</v>
@@ -23962,13 +23966,13 @@
         <v>168</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C60" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="E60" s="23" t="s">
         <v>693</v>
@@ -23980,7 +23984,7 @@
         <v>693</v>
       </c>
       <c r="H60" s="49" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="I60" s="23" t="s">
         <v>693</v>
@@ -23991,13 +23995,13 @@
         <v>115</v>
       </c>
       <c r="B61" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C61" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D61" s="20" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="E61" s="23" t="s">
         <v>693</v>
@@ -24020,19 +24024,19 @@
         <v>49</v>
       </c>
       <c r="B62" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C62" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="E62" s="23" t="s">
         <v>693</v>
       </c>
-      <c r="F62" s="20" t="s">
-        <v>1024</v>
+      <c r="F62" s="49" t="s">
+        <v>1130</v>
       </c>
       <c r="G62" s="20" t="s">
         <v>693</v>
@@ -24049,19 +24053,19 @@
         <v>642</v>
       </c>
       <c r="B63" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C63" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="E63" s="23" t="s">
         <v>693</v>
       </c>
       <c r="F63" s="20" t="s">
-        <v>1025</v>
+        <v>693</v>
       </c>
       <c r="G63" s="20" t="s">
         <v>693</v>
@@ -24078,13 +24082,13 @@
         <v>99</v>
       </c>
       <c r="B64" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C64" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D64" s="20" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="E64" s="23" t="s">
         <v>693</v>
@@ -24096,7 +24100,7 @@
         <v>693</v>
       </c>
       <c r="H64" s="49" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="I64" s="23" t="s">
         <v>693</v>
@@ -24107,25 +24111,25 @@
         <v>119</v>
       </c>
       <c r="B65" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C65" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D65" s="20" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="E65" s="23" t="s">
         <v>693</v>
       </c>
       <c r="F65" s="49" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="G65" s="20" t="s">
         <v>693</v>
       </c>
       <c r="H65" s="49" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="I65" s="23" t="s">
         <v>693</v>
@@ -24136,10 +24140,10 @@
         <v>647</v>
       </c>
       <c r="B66" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C66" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D66" s="20" t="s">
         <v>693</v>
@@ -24165,13 +24169,13 @@
         <v>649</v>
       </c>
       <c r="B67" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C67" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D67" s="20" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="E67" s="23" t="s">
         <v>693</v>
@@ -24194,13 +24198,13 @@
         <v>121</v>
       </c>
       <c r="B68" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C68" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D68" s="20" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="E68" s="23" t="s">
         <v>693</v>
@@ -24223,10 +24227,10 @@
         <v>652</v>
       </c>
       <c r="B69" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C69" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D69" s="20" t="s">
         <v>693</v>
@@ -24252,13 +24256,13 @@
         <v>50</v>
       </c>
       <c r="B70" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C70" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D70" s="20" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="E70" s="23" t="s">
         <v>693</v>
@@ -24281,13 +24285,13 @@
         <v>124</v>
       </c>
       <c r="B71" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C71" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D71" s="20" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="E71" s="23" t="s">
         <v>693</v>
@@ -24310,13 +24314,13 @@
         <v>51</v>
       </c>
       <c r="B72" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C72" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D72" s="20" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="E72" s="23" t="s">
         <v>693</v>
@@ -24339,10 +24343,10 @@
         <v>659</v>
       </c>
       <c r="B73" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C73" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D73" s="20" t="s">
         <v>693</v>
@@ -24368,13 +24372,13 @@
         <v>48</v>
       </c>
       <c r="B74" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C74" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D74" s="20" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="E74" s="23" t="s">
         <v>693</v>
@@ -24397,13 +24401,13 @@
         <v>661</v>
       </c>
       <c r="B75" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C75" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D75" s="20" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E75" s="23" t="s">
         <v>693</v>
@@ -24426,10 +24430,10 @@
         <v>663</v>
       </c>
       <c r="B76" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C76" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D76" s="20" t="s">
         <v>981</v>
@@ -24455,13 +24459,13 @@
         <v>664</v>
       </c>
       <c r="B77" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C77" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D77" s="20" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="E77" s="23" t="s">
         <v>693</v>
@@ -24484,10 +24488,10 @@
         <v>665</v>
       </c>
       <c r="B78" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C78" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D78" s="20" t="s">
         <v>895</v>
@@ -24502,7 +24506,7 @@
         <v>693</v>
       </c>
       <c r="H78" s="20" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="I78" s="23" t="s">
         <v>693</v>
@@ -24513,13 +24517,13 @@
         <v>128</v>
       </c>
       <c r="B79" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C79" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D79" s="20" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="E79" s="23" t="s">
         <v>693</v>
@@ -24542,10 +24546,10 @@
         <v>668</v>
       </c>
       <c r="B80" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C80" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D80" s="20" t="s">
         <v>897</v>
@@ -24571,13 +24575,13 @@
         <v>671</v>
       </c>
       <c r="B81" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C81" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D81" s="20" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="E81" s="23" t="s">
         <v>693</v>
@@ -24600,10 +24604,10 @@
         <v>673</v>
       </c>
       <c r="B82" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C82" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D82" s="20" t="s">
         <v>898</v>
@@ -24629,13 +24633,13 @@
         <v>691</v>
       </c>
       <c r="B83" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="D83" s="20" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="E83" s="20" t="s">
         <v>693</v>
@@ -28508,7 +28512,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C14" s="20" t="s">
         <v>269</v>
@@ -28537,7 +28541,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C15" s="20" t="s">
         <v>269</v>
@@ -28566,7 +28570,7 @@
         <v>3</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C16" s="20" t="s">
         <v>269</v>
@@ -28595,7 +28599,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C17" s="20" t="s">
         <v>269</v>
@@ -28624,7 +28628,7 @@
         <v>5</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C18" s="20" t="s">
         <v>269</v>
@@ -28653,7 +28657,7 @@
         <v>6</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C19" s="20" t="s">
         <v>269</v>
@@ -28682,7 +28686,7 @@
         <v>7</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C20" s="20" t="s">
         <v>269</v>
@@ -28711,7 +28715,7 @@
         <v>8</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C21" s="20" t="s">
         <v>269</v>
@@ -28740,7 +28744,7 @@
         <v>9</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C22" s="20" t="s">
         <v>269</v>
@@ -28769,7 +28773,7 @@
         <v>0</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C23" s="20" t="s">
         <v>269</v>
@@ -29755,7 +29759,7 @@
         <v>634</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C57" s="20" t="s">
         <v>269</v>
@@ -29784,7 +29788,7 @@
         <v>636</v>
       </c>
       <c r="B58" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C58" s="20" t="s">
         <v>269</v>
@@ -29813,7 +29817,7 @@
         <v>637</v>
       </c>
       <c r="B59" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C59" s="20" t="s">
         <v>269</v>
@@ -29842,7 +29846,7 @@
         <v>168</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C60" s="20" t="s">
         <v>269</v>
@@ -29871,7 +29875,7 @@
         <v>115</v>
       </c>
       <c r="B61" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C61" s="20" t="s">
         <v>269</v>
@@ -29900,7 +29904,7 @@
         <v>49</v>
       </c>
       <c r="B62" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C62" s="20" t="s">
         <v>269</v>
@@ -29929,7 +29933,7 @@
         <v>642</v>
       </c>
       <c r="B63" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C63" s="20" t="s">
         <v>269</v>
@@ -29958,7 +29962,7 @@
         <v>99</v>
       </c>
       <c r="B64" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C64" s="20" t="s">
         <v>269</v>
@@ -29987,7 +29991,7 @@
         <v>119</v>
       </c>
       <c r="B65" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C65" s="20" t="s">
         <v>269</v>
@@ -30016,7 +30020,7 @@
         <v>647</v>
       </c>
       <c r="B66" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C66" s="20" t="s">
         <v>269</v>
@@ -30045,7 +30049,7 @@
         <v>649</v>
       </c>
       <c r="B67" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C67" s="20" t="s">
         <v>269</v>
@@ -30074,7 +30078,7 @@
         <v>121</v>
       </c>
       <c r="B68" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C68" s="20" t="s">
         <v>269</v>
@@ -30103,7 +30107,7 @@
         <v>652</v>
       </c>
       <c r="B69" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C69" s="20" t="s">
         <v>269</v>
@@ -30132,7 +30136,7 @@
         <v>50</v>
       </c>
       <c r="B70" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C70" s="20" t="s">
         <v>269</v>
@@ -30161,7 +30165,7 @@
         <v>124</v>
       </c>
       <c r="B71" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C71" s="20" t="s">
         <v>269</v>
@@ -30190,7 +30194,7 @@
         <v>51</v>
       </c>
       <c r="B72" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C72" s="20" t="s">
         <v>269</v>
@@ -30219,7 +30223,7 @@
         <v>659</v>
       </c>
       <c r="B73" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C73" s="20" t="s">
         <v>269</v>
@@ -30248,7 +30252,7 @@
         <v>48</v>
       </c>
       <c r="B74" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C74" s="20" t="s">
         <v>269</v>
@@ -30277,7 +30281,7 @@
         <v>661</v>
       </c>
       <c r="B75" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C75" s="20" t="s">
         <v>269</v>
@@ -30306,7 +30310,7 @@
         <v>663</v>
       </c>
       <c r="B76" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C76" s="20" t="s">
         <v>269</v>
@@ -30335,7 +30339,7 @@
         <v>664</v>
       </c>
       <c r="B77" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C77" s="20" t="s">
         <v>269</v>
@@ -30364,7 +30368,7 @@
         <v>665</v>
       </c>
       <c r="B78" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C78" s="20" t="s">
         <v>269</v>
@@ -30393,7 +30397,7 @@
         <v>128</v>
       </c>
       <c r="B79" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C79" s="20" t="s">
         <v>269</v>
@@ -30422,7 +30426,7 @@
         <v>668</v>
       </c>
       <c r="B80" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C80" s="20" t="s">
         <v>269</v>
@@ -30451,7 +30455,7 @@
         <v>671</v>
       </c>
       <c r="B81" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C81" s="20" t="s">
         <v>269</v>
@@ -30480,7 +30484,7 @@
         <v>673</v>
       </c>
       <c r="B82" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C82" s="20" t="s">
         <v>269</v>
@@ -30509,7 +30513,7 @@
         <v>691</v>
       </c>
       <c r="B83" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C83" s="20" t="s">
         <v>269</v>

--- a/shortcut_keys.xlsx
+++ b/shortcut_keys.xlsx
@@ -4,9 +4,9 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B7A72F-AF78-42DE-95B2-1FE7B00736BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB0DEAB-9589-4C8E-8A65-397C03A35706}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="26700" windowHeight="16440" activeTab="3" xr2:uid="{43490DDC-BDDE-46A2-A177-1DE0A5EB93B9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="26700" windowHeight="16440" activeTab="8" xr2:uid="{43490DDC-BDDE-46A2-A177-1DE0A5EB93B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Windows10" sheetId="7" r:id="rId1"/>
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4203" uniqueCount="1131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4203" uniqueCount="1134">
   <si>
     <t>Ctrl</t>
   </si>
@@ -3643,9 +3643,6 @@
     <t>書式の詳細設定</t>
   </si>
   <si>
-    <t>書式の貼り付け</t>
-  </si>
-  <si>
     <t>小型英大文字</t>
   </si>
   <si>
@@ -5323,6 +5320,46 @@
     </rPh>
     <rPh sb="15" eb="17">
       <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>蛍光ペン黄色</t>
+    <rPh sb="0" eb="2">
+      <t>ケイコウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キイロ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>蛍光ペン緑色</t>
+    <rPh sb="0" eb="2">
+      <t>ケイコウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ミドリイロ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>値の貼り付け</t>
+    <rPh sb="0" eb="1">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>書式の貼り付け</t>
+    <rPh sb="0" eb="2">
+      <t>ショシキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ツ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -15099,10 +15136,10 @@
         <v>218</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>693</v>
@@ -15131,7 +15168,7 @@
         <v>693</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D3" s="20" t="s">
         <v>693</v>
@@ -15157,10 +15194,10 @@
         <v>156</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D4" s="20" t="s">
         <v>693</v>
@@ -15189,10 +15226,10 @@
         <v>693</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>693</v>
@@ -15305,7 +15342,7 @@
         <v>693</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D9" s="20" t="s">
         <v>693</v>
@@ -15389,7 +15426,7 @@
         <v>224</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C12" s="20" t="s">
         <v>693</v>
@@ -15418,7 +15455,7 @@
         <v>228</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C13" s="20" t="s">
         <v>693</v>
@@ -15456,7 +15493,7 @@
         <v>693</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="F14" s="20" t="s">
         <v>693</v>
@@ -15485,7 +15522,7 @@
         <v>693</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="F15" s="20" t="s">
         <v>693</v>
@@ -15514,7 +15551,7 @@
         <v>693</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="F16" s="20" t="s">
         <v>693</v>
@@ -15543,7 +15580,7 @@
         <v>693</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F17" s="20" t="s">
         <v>693</v>
@@ -15572,7 +15609,7 @@
         <v>693</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="F18" s="20" t="s">
         <v>693</v>
@@ -15601,7 +15638,7 @@
         <v>693</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="F19" s="20" t="s">
         <v>693</v>
@@ -15630,7 +15667,7 @@
         <v>693</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="F20" s="20" t="s">
         <v>693</v>
@@ -15659,7 +15696,7 @@
         <v>693</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F21" s="20" t="s">
         <v>693</v>
@@ -15688,7 +15725,7 @@
         <v>693</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="F22" s="20" t="s">
         <v>693</v>
@@ -15717,7 +15754,7 @@
         <v>693</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="F23" s="20" t="s">
         <v>693</v>
@@ -15737,25 +15774,25 @@
         <v>696</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F24" s="20" t="s">
         <v>700</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H24" s="20" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="I24" s="31" t="s">
         <v>693</v>
@@ -15766,22 +15803,22 @@
         <v>697</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F25" s="20" t="s">
         <v>701</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="H25" s="20" t="s">
         <v>693</v>
@@ -15795,7 +15832,7 @@
         <v>694</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="C26" s="20" t="s">
         <v>693</v>
@@ -15824,7 +15861,7 @@
         <v>695</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="C27" s="20" t="s">
         <v>693</v>
@@ -15940,7 +15977,7 @@
         <v>617</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C31" s="20" t="s">
         <v>693</v>
@@ -16033,7 +16070,7 @@
         <v>693</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="E34" s="20" t="s">
         <v>693</v>
@@ -16082,7 +16119,7 @@
     </row>
     <row r="36" spans="1:9" ht="12">
       <c r="A36" s="41" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B36" s="20" t="s">
         <v>270</v>
@@ -16111,7 +16148,7 @@
     </row>
     <row r="37" spans="1:9" ht="12">
       <c r="A37" s="27" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B37" s="20" t="s">
         <v>693</v>
@@ -16140,7 +16177,7 @@
     </row>
     <row r="38" spans="1:9" ht="12">
       <c r="A38" s="27" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B38" s="20" t="s">
         <v>259</v>
@@ -16169,7 +16206,7 @@
     </row>
     <row r="39" spans="1:9" ht="12">
       <c r="A39" s="41" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B39" s="20" t="s">
         <v>263</v>
@@ -16198,7 +16235,7 @@
     </row>
     <row r="40" spans="1:9" ht="12">
       <c r="A40" s="27" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B40" s="20" t="s">
         <v>277</v>
@@ -16227,10 +16264,10 @@
     </row>
     <row r="41" spans="1:9" ht="12">
       <c r="A41" s="27" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C41" s="20" t="s">
         <v>693</v>
@@ -16256,13 +16293,13 @@
     </row>
     <row r="42" spans="1:9" ht="12">
       <c r="A42" s="27" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="D42" s="20" t="s">
         <v>693</v>
@@ -16285,10 +16322,10 @@
     </row>
     <row r="43" spans="1:9" ht="12">
       <c r="A43" s="27" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C43" s="20" t="s">
         <v>262</v>
@@ -16314,7 +16351,7 @@
     </row>
     <row r="44" spans="1:9" ht="12">
       <c r="A44" s="27" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B44" s="20" t="s">
         <v>266</v>
@@ -16343,7 +16380,7 @@
     </row>
     <row r="45" spans="1:9" ht="12">
       <c r="A45" s="27" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B45" s="20" t="s">
         <v>268</v>
@@ -16372,7 +16409,7 @@
     </row>
     <row r="46" spans="1:9" ht="12">
       <c r="A46" s="27" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B46" s="20" t="s">
         <v>261</v>
@@ -16401,7 +16438,7 @@
     </row>
     <row r="47" spans="1:9" ht="12">
       <c r="A47" s="27" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B47" s="20" t="s">
         <v>259</v>
@@ -16575,7 +16612,7 @@
     </row>
     <row r="53" spans="1:9" ht="12">
       <c r="A53" s="27" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B53" s="20" t="s">
         <v>693</v>
@@ -16636,13 +16673,13 @@
         <v>634</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C55" s="20" t="s">
         <v>693</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E55" s="20" t="s">
         <v>693</v>
@@ -16665,13 +16702,13 @@
         <v>636</v>
       </c>
       <c r="B56" s="23" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C56" s="20" t="s">
         <v>693</v>
       </c>
       <c r="D56" s="20" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="E56" s="20" t="s">
         <v>693</v>
@@ -16694,19 +16731,19 @@
         <v>637</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C57" s="20" t="s">
         <v>693</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E57" s="20" t="s">
         <v>693</v>
       </c>
       <c r="F57" s="20" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="G57" s="20" t="s">
         <v>693</v>
@@ -16723,19 +16760,19 @@
         <v>168</v>
       </c>
       <c r="B58" s="23" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C58" s="20" t="s">
         <v>693</v>
       </c>
       <c r="D58" s="20" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E58" s="20" t="s">
         <v>693</v>
       </c>
       <c r="F58" s="20" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="G58" s="20" t="s">
         <v>693</v>
@@ -16752,13 +16789,13 @@
         <v>115</v>
       </c>
       <c r="B59" s="23" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C59" s="20" t="s">
         <v>693</v>
       </c>
       <c r="D59" s="20" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="E59" s="20" t="s">
         <v>693</v>
@@ -16781,19 +16818,19 @@
         <v>49</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C60" s="20" t="s">
         <v>693</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="E60" s="20" t="s">
         <v>693</v>
       </c>
       <c r="F60" s="20" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="G60" s="20" t="s">
         <v>693</v>
@@ -16810,7 +16847,7 @@
         <v>642</v>
       </c>
       <c r="B61" s="23" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C61" s="20" t="s">
         <v>693</v>
@@ -16822,7 +16859,7 @@
         <v>693</v>
       </c>
       <c r="F61" s="20" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="G61" s="20" t="s">
         <v>693</v>
@@ -16839,7 +16876,7 @@
         <v>99</v>
       </c>
       <c r="B62" s="23" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C62" s="20" t="s">
         <v>693</v>
@@ -16868,7 +16905,7 @@
         <v>119</v>
       </c>
       <c r="B63" s="23" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C63" s="20" t="s">
         <v>693</v>
@@ -16897,7 +16934,7 @@
         <v>647</v>
       </c>
       <c r="B64" s="23" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C64" s="20" t="s">
         <v>693</v>
@@ -16926,7 +16963,7 @@
         <v>649</v>
       </c>
       <c r="B65" s="23" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C65" s="20" t="s">
         <v>693</v>
@@ -16938,7 +16975,7 @@
         <v>693</v>
       </c>
       <c r="F65" s="20" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="G65" s="20" t="s">
         <v>693</v>
@@ -16955,7 +16992,7 @@
         <v>121</v>
       </c>
       <c r="B66" s="23" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C66" s="20" t="s">
         <v>693</v>
@@ -16967,7 +17004,7 @@
         <v>693</v>
       </c>
       <c r="F66" s="20" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="G66" s="20" t="s">
         <v>693</v>
@@ -16984,7 +17021,7 @@
         <v>652</v>
       </c>
       <c r="B67" s="23" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C67" s="20" t="s">
         <v>693</v>
@@ -17013,19 +17050,19 @@
         <v>50</v>
       </c>
       <c r="B68" s="23" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C68" s="20" t="s">
         <v>693</v>
       </c>
       <c r="D68" s="20" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="E68" s="20" t="s">
         <v>693</v>
       </c>
       <c r="F68" s="20" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="G68" s="20" t="s">
         <v>693</v>
@@ -17042,7 +17079,7 @@
         <v>124</v>
       </c>
       <c r="B69" s="23" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C69" s="20" t="s">
         <v>693</v>
@@ -17071,7 +17108,7 @@
         <v>51</v>
       </c>
       <c r="B70" s="23" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C70" s="20" t="s">
         <v>693</v>
@@ -17100,19 +17137,19 @@
         <v>659</v>
       </c>
       <c r="B71" s="23" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C71" s="20" t="s">
         <v>693</v>
       </c>
       <c r="D71" s="20" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="E71" s="20" t="s">
         <v>693</v>
       </c>
       <c r="F71" s="20" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="G71" s="20" t="s">
         <v>693</v>
@@ -17129,19 +17166,19 @@
         <v>48</v>
       </c>
       <c r="B72" s="23" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C72" s="20" t="s">
         <v>693</v>
       </c>
       <c r="D72" s="20" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E72" s="20" t="s">
         <v>693</v>
       </c>
       <c r="F72" s="20" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="G72" s="20" t="s">
         <v>693</v>
@@ -17158,13 +17195,13 @@
         <v>661</v>
       </c>
       <c r="B73" s="23" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C73" s="20" t="s">
         <v>693</v>
       </c>
       <c r="D73" s="20" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="E73" s="20" t="s">
         <v>693</v>
@@ -17187,7 +17224,7 @@
         <v>663</v>
       </c>
       <c r="B74" s="23" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C74" s="20" t="s">
         <v>693</v>
@@ -17199,7 +17236,7 @@
         <v>693</v>
       </c>
       <c r="F74" s="20" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="G74" s="20" t="s">
         <v>693</v>
@@ -17216,7 +17253,7 @@
         <v>664</v>
       </c>
       <c r="B75" s="23" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C75" s="20" t="s">
         <v>693</v>
@@ -17245,13 +17282,13 @@
         <v>665</v>
       </c>
       <c r="B76" s="23" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C76" s="20" t="s">
         <v>693</v>
       </c>
       <c r="D76" s="20" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E76" s="20" t="s">
         <v>693</v>
@@ -17274,13 +17311,13 @@
         <v>128</v>
       </c>
       <c r="B77" s="23" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C77" s="20" t="s">
         <v>693</v>
       </c>
       <c r="D77" s="20" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="E77" s="20" t="s">
         <v>693</v>
@@ -17303,13 +17340,13 @@
         <v>668</v>
       </c>
       <c r="B78" s="23" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C78" s="20" t="s">
         <v>693</v>
       </c>
       <c r="D78" s="20" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="E78" s="20" t="s">
         <v>693</v>
@@ -17332,7 +17369,7 @@
         <v>671</v>
       </c>
       <c r="B79" s="23" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C79" s="20" t="s">
         <v>693</v>
@@ -17361,19 +17398,19 @@
         <v>673</v>
       </c>
       <c r="B80" s="23" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C80" s="20" t="s">
         <v>693</v>
       </c>
       <c r="D80" s="20" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E80" s="20" t="s">
         <v>693</v>
       </c>
       <c r="F80" s="20" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="G80" s="20" t="s">
         <v>693</v>
@@ -17416,10 +17453,10 @@
     </row>
     <row r="82" spans="1:9" ht="12">
       <c r="A82" s="27" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C82" s="15" t="s">
         <v>269</v>
@@ -17532,10 +17569,10 @@
     </row>
     <row r="86" spans="1:9" ht="12">
       <c r="A86" s="27" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C86" s="15" t="s">
         <v>269</v>
@@ -17561,10 +17598,10 @@
     </row>
     <row r="87" spans="1:9" ht="12">
       <c r="A87" s="27" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C87" s="15" t="s">
         <v>269</v>
@@ -17590,10 +17627,10 @@
     </row>
     <row r="88" spans="1:9" ht="12">
       <c r="A88" s="27" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C88" s="15" t="s">
         <v>269</v>
@@ -18034,7 +18071,7 @@
         <v>238</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>269</v>
@@ -18710,7 +18747,7 @@
         <v>269</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="F33" s="15" t="s">
         <v>612</v>
@@ -18727,7 +18764,7 @@
     </row>
     <row r="34" spans="1:9" ht="12">
       <c r="A34" s="38" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B34" s="16" t="s">
         <v>572</v>
@@ -18756,7 +18793,7 @@
     </row>
     <row r="35" spans="1:9" ht="12">
       <c r="A35" s="37" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B35" s="16" t="s">
         <v>572</v>
@@ -18785,7 +18822,7 @@
     </row>
     <row r="36" spans="1:9" ht="12">
       <c r="A36" s="37" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B36" s="16" t="s">
         <v>572</v>
@@ -18814,7 +18851,7 @@
     </row>
     <row r="37" spans="1:9" ht="12">
       <c r="A37" s="38" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B37" s="16" t="s">
         <v>572</v>
@@ -18843,7 +18880,7 @@
     </row>
     <row r="38" spans="1:9" ht="12">
       <c r="A38" s="37" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B38" s="16" t="s">
         <v>572</v>
@@ -18872,7 +18909,7 @@
     </row>
     <row r="39" spans="1:9" ht="12">
       <c r="A39" s="37" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B39" s="16" t="s">
         <v>572</v>
@@ -18901,7 +18938,7 @@
     </row>
     <row r="40" spans="1:9" ht="12">
       <c r="A40" s="37" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B40" s="16" t="s">
         <v>572</v>
@@ -18930,7 +18967,7 @@
     </row>
     <row r="41" spans="1:9" ht="12">
       <c r="A41" s="37" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B41" s="16" t="s">
         <v>572</v>
@@ -18959,7 +18996,7 @@
     </row>
     <row r="42" spans="1:9" ht="12">
       <c r="A42" s="37" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B42" s="16" t="s">
         <v>572</v>
@@ -18988,7 +19025,7 @@
     </row>
     <row r="43" spans="1:9" ht="12">
       <c r="A43" s="37" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B43" s="16" t="s">
         <v>572</v>
@@ -19162,7 +19199,7 @@
     </row>
     <row r="49" spans="1:9" ht="12">
       <c r="A49" s="37" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B49" s="15" t="s">
         <v>269</v>
@@ -19844,7 +19881,7 @@
         <v>269</v>
       </c>
       <c r="F72" s="15" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="G72" s="15" t="s">
         <v>269</v>
@@ -19983,7 +20020,7 @@
         <v>269</v>
       </c>
       <c r="D77" s="15" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="E77" s="15" t="s">
         <v>269</v>
@@ -20003,10 +20040,10 @@
     </row>
     <row r="78" spans="1:9" ht="12">
       <c r="A78" s="37" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C78" s="15" t="s">
         <v>269</v>
@@ -20032,7 +20069,7 @@
     </row>
     <row r="79" spans="1:9" ht="12">
       <c r="A79" s="37" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B79" s="15" t="s">
         <v>676</v>
@@ -20061,7 +20098,7 @@
     </row>
     <row r="80" spans="1:9" ht="12">
       <c r="A80" s="37" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B80" s="15" t="s">
         <v>678</v>
@@ -20119,10 +20156,10 @@
     </row>
     <row r="82" spans="1:9" ht="12">
       <c r="A82" s="37" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C82" s="15" t="s">
         <v>269</v>
@@ -20148,10 +20185,10 @@
     </row>
     <row r="83" spans="1:9" s="19" customFormat="1" ht="12">
       <c r="A83" s="37" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C83" s="15" t="s">
         <v>269</v>
@@ -20177,10 +20214,10 @@
     </row>
     <row r="84" spans="1:9" ht="12">
       <c r="A84" s="37" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C84" s="15" t="s">
         <v>269</v>
@@ -22235,11 +22272,11 @@
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:K104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -22275,7 +22312,7 @@
         <v>549</v>
       </c>
       <c r="I1" s="30" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="17" customFormat="1" ht="12">
@@ -22283,22 +22320,22 @@
         <v>218</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="E2" s="20" t="s">
         <v>219</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="H2" s="20" t="s">
         <v>693</v>
@@ -22312,16 +22349,16 @@
         <v>154</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="D3" s="45" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="F3" s="20" t="s">
         <v>693</v>
@@ -22341,19 +22378,19 @@
         <v>156</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="E4" s="20" t="s">
         <v>693</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="G4" s="20" t="s">
         <v>693</v>
@@ -22370,19 +22407,19 @@
         <v>150</v>
       </c>
       <c r="B5" s="20" t="s">
+        <v>986</v>
+      </c>
+      <c r="C5" s="20" t="s">
         <v>987</v>
       </c>
-      <c r="C5" s="20" t="s">
-        <v>988</v>
-      </c>
       <c r="D5" s="20" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="G5" s="20" t="s">
         <v>693</v>
@@ -22399,13 +22436,13 @@
         <v>159</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="E6" s="20" t="s">
         <v>693</v>
@@ -22428,19 +22465,19 @@
         <v>53</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="E7" s="20" t="s">
         <v>693</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="G7" s="20" t="s">
         <v>693</v>
@@ -22457,13 +22494,13 @@
         <v>227</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="E8" s="20" t="s">
         <v>693</v>
@@ -22486,16 +22523,16 @@
         <v>241</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="F9" s="20" t="s">
         <v>693</v>
@@ -22504,7 +22541,7 @@
         <v>693</v>
       </c>
       <c r="H9" s="49" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="I9" s="23" t="s">
         <v>693</v>
@@ -22515,13 +22552,13 @@
         <v>238</v>
       </c>
       <c r="B10" s="20" t="s">
+        <v>989</v>
+      </c>
+      <c r="C10" s="20" t="s">
         <v>990</v>
       </c>
-      <c r="C10" s="20" t="s">
-        <v>991</v>
-      </c>
       <c r="D10" s="20" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="E10" s="20" t="s">
         <v>693</v>
@@ -22533,10 +22570,10 @@
         <v>693</v>
       </c>
       <c r="H10" s="20" t="s">
+        <v>1009</v>
+      </c>
+      <c r="I10" s="23" t="s">
         <v>1010</v>
-      </c>
-      <c r="I10" s="23" t="s">
-        <v>1011</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="17" customFormat="1" ht="12">
@@ -22544,22 +22581,22 @@
         <v>141</v>
       </c>
       <c r="B11" s="46" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="E11" s="20" t="s">
         <v>693</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="H11" s="20" t="s">
         <v>693</v>
@@ -22573,19 +22610,19 @@
         <v>224</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="C12" s="20" t="s">
         <v>225</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="F12" s="49" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="G12" s="20" t="s">
         <v>693</v>
@@ -22605,16 +22642,16 @@
         <v>229</v>
       </c>
       <c r="C13" s="46" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="D13" s="46" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="E13" s="20" t="s">
         <v>693</v>
       </c>
       <c r="F13" s="46" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="G13" s="20" t="s">
         <v>693</v>
@@ -22631,19 +22668,19 @@
         <v>1</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="E14" s="23" t="s">
         <v>693</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="G14" s="20" t="s">
         <v>693</v>
@@ -22660,25 +22697,25 @@
         <v>2</v>
       </c>
       <c r="B15" s="23" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D15" s="49" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>693</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>693</v>
+      </c>
+      <c r="H15" s="49" t="s">
         <v>1026</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>1026</v>
-      </c>
-      <c r="D15" s="49" t="s">
-        <v>1125</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>693</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>1059</v>
-      </c>
-      <c r="G15" s="20" t="s">
-        <v>693</v>
-      </c>
-      <c r="H15" s="49" t="s">
-        <v>1027</v>
       </c>
       <c r="I15" s="23" t="s">
         <v>693</v>
@@ -22689,25 +22726,25 @@
         <v>3</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D16" s="49" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="E16" s="23" t="s">
         <v>693</v>
       </c>
       <c r="F16" s="42" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="G16" s="20" t="s">
         <v>693</v>
       </c>
       <c r="H16" s="49" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="I16" s="23" t="s">
         <v>693</v>
@@ -22719,19 +22756,19 @@
         <v>4</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="E17" s="23" t="s">
         <v>693</v>
       </c>
       <c r="F17" s="42" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="G17" s="20" t="s">
         <v>693</v>
@@ -22748,19 +22785,19 @@
         <v>5</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="E18" s="23" t="s">
         <v>693</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="G18" s="20" t="s">
         <v>693</v>
@@ -22777,19 +22814,19 @@
         <v>6</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E19" s="23" t="s">
         <v>693</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="G19" s="20" t="s">
         <v>693</v>
@@ -22806,22 +22843,22 @@
         <v>7</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="E20" s="23" t="s">
         <v>693</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="H20" s="20" t="s">
         <v>693</v>
@@ -22835,13 +22872,13 @@
         <v>8</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="E21" s="23" t="s">
         <v>693</v>
@@ -22864,19 +22901,19 @@
         <v>9</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D22" s="20" t="s">
+        <v>995</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>693</v>
+      </c>
+      <c r="F22" s="20" t="s">
         <v>996</v>
-      </c>
-      <c r="E22" s="23" t="s">
-        <v>693</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>997</v>
       </c>
       <c r="G22" s="20" t="s">
         <v>693</v>
@@ -22893,19 +22930,19 @@
         <v>0</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D23" s="20" t="s">
+        <v>997</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>693</v>
+      </c>
+      <c r="F23" s="20" t="s">
         <v>998</v>
-      </c>
-      <c r="E23" s="23" t="s">
-        <v>693</v>
-      </c>
-      <c r="F23" s="20" t="s">
-        <v>999</v>
       </c>
       <c r="G23" s="20" t="s">
         <v>693</v>
@@ -22922,13 +22959,13 @@
         <v>696</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="D24" s="42" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="E24" s="20" t="s">
         <v>693</v>
@@ -22940,7 +22977,7 @@
         <v>693</v>
       </c>
       <c r="H24" s="49" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="I24" s="23" t="s">
         <v>693</v>
@@ -22951,13 +22988,13 @@
         <v>697</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="E25" s="20" t="s">
         <v>693</v>
@@ -22969,7 +23006,7 @@
         <v>693</v>
       </c>
       <c r="H25" s="49" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="I25" s="23" t="s">
         <v>693</v>
@@ -22980,25 +23017,25 @@
         <v>694</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F26" s="20" t="s">
         <v>693</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="H26" s="49" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="I26" s="23" t="s">
         <v>693</v>
@@ -23009,25 +23046,25 @@
         <v>695</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="F27" s="20" t="s">
         <v>693</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="H27" s="49" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="I27" s="23" t="s">
         <v>693</v>
@@ -23035,16 +23072,16 @@
     </row>
     <row r="28" spans="1:9" ht="12">
       <c r="A28" s="27" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="E28" s="20" t="s">
         <v>693</v>
@@ -23056,7 +23093,7 @@
         <v>693</v>
       </c>
       <c r="H28" s="49" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="I28" s="23" t="s">
         <v>693</v>
@@ -23064,16 +23101,16 @@
     </row>
     <row r="29" spans="1:9" ht="12">
       <c r="A29" s="27" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="E29" s="20" t="s">
         <v>693</v>
@@ -23085,7 +23122,7 @@
         <v>693</v>
       </c>
       <c r="H29" s="49" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="I29" s="23" t="s">
         <v>693</v>
@@ -23093,28 +23130,28 @@
     </row>
     <row r="30" spans="1:9" ht="12">
       <c r="A30" s="27" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="G30" s="20" t="s">
         <v>693</v>
       </c>
       <c r="H30" s="49" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="I30" s="23" t="s">
         <v>693</v>
@@ -23122,28 +23159,28 @@
     </row>
     <row r="31" spans="1:9" ht="12">
       <c r="A31" s="27" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="E31" s="20" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="G31" s="20" t="s">
         <v>693</v>
       </c>
       <c r="H31" s="49" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="I31" s="23" t="s">
         <v>693</v>
@@ -23154,10 +23191,10 @@
         <v>608</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="D32" s="20" t="s">
         <v>693</v>
@@ -23183,13 +23220,13 @@
         <v>610</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E33" s="20" t="s">
         <v>693</v>
@@ -23212,13 +23249,13 @@
         <v>613</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="E34" s="20" t="s">
         <v>693</v>
@@ -23241,7 +23278,7 @@
         <v>617</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="C35" s="20" t="s">
         <v>693</v>
@@ -23299,10 +23336,10 @@
         <v>622</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="D37" s="20" t="s">
         <v>693</v>
@@ -23325,16 +23362,16 @@
     </row>
     <row r="38" spans="1:9" ht="12">
       <c r="A38" s="27" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D38" s="47" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="E38" s="20" t="s">
         <v>693</v>
@@ -23346,21 +23383,21 @@
         <v>223</v>
       </c>
       <c r="H38" s="20" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="I38" s="23" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="12">
       <c r="A39" s="27" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D39" s="48" t="s">
         <v>693</v>
@@ -23369,7 +23406,7 @@
         <v>693</v>
       </c>
       <c r="F39" s="20" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="G39" s="20" t="s">
         <v>693</v>
@@ -23383,16 +23420,16 @@
     </row>
     <row r="40" spans="1:9" ht="12">
       <c r="A40" s="27" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="E40" s="20" t="s">
         <v>693</v>
@@ -23412,13 +23449,13 @@
     </row>
     <row r="41" spans="1:9" ht="12">
       <c r="A41" s="27" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C41" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D41" s="20" t="s">
         <v>693</v>
@@ -23427,7 +23464,7 @@
         <v>693</v>
       </c>
       <c r="F41" s="20" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="G41" s="20" t="s">
         <v>693</v>
@@ -23441,13 +23478,13 @@
     </row>
     <row r="42" spans="1:9" ht="12">
       <c r="A42" s="27" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C42" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D42" s="20" t="s">
         <v>693</v>
@@ -23470,13 +23507,13 @@
     </row>
     <row r="43" spans="1:9" ht="12">
       <c r="A43" s="27" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C43" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D43" s="20" t="s">
         <v>693</v>
@@ -23499,16 +23536,16 @@
     </row>
     <row r="44" spans="1:9" ht="12">
       <c r="A44" s="27" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C44" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="E44" s="20" t="s">
         <v>693</v>
@@ -23528,22 +23565,22 @@
     </row>
     <row r="45" spans="1:9" ht="12">
       <c r="A45" s="27" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C45" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="E45" s="20" t="s">
         <v>693</v>
       </c>
       <c r="F45" s="20" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="G45" s="20" t="s">
         <v>693</v>
@@ -23557,13 +23594,13 @@
     </row>
     <row r="46" spans="1:9" ht="12">
       <c r="A46" s="27" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C46" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D46" s="20" t="s">
         <v>693</v>
@@ -23586,13 +23623,13 @@
     </row>
     <row r="47" spans="1:9" ht="12">
       <c r="A47" s="27" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C47" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D47" s="20" t="s">
         <v>693</v>
@@ -23615,13 +23652,13 @@
     </row>
     <row r="48" spans="1:9" ht="12">
       <c r="A48" s="27" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C48" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D48" s="20" t="s">
         <v>693</v>
@@ -23644,13 +23681,13 @@
     </row>
     <row r="49" spans="1:9" ht="12">
       <c r="A49" s="27" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C49" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D49" s="20" t="s">
         <v>693</v>
@@ -23818,7 +23855,7 @@
     </row>
     <row r="55" spans="1:9" ht="12">
       <c r="A55" s="27" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B55" s="20" t="s">
         <v>693</v>
@@ -23879,13 +23916,13 @@
         <v>634</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C57" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E57" s="23" t="s">
         <v>693</v>
@@ -23908,19 +23945,19 @@
         <v>636</v>
       </c>
       <c r="B58" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C58" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D58" s="20" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="E58" s="23" t="s">
         <v>693</v>
       </c>
       <c r="F58" s="49" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="G58" s="20" t="s">
         <v>693</v>
@@ -23937,25 +23974,25 @@
         <v>637</v>
       </c>
       <c r="B59" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C59" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D59" s="20" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E59" s="23" t="s">
         <v>693</v>
       </c>
       <c r="F59" s="49" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="G59" s="20" t="s">
         <v>693</v>
       </c>
       <c r="H59" s="49" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="I59" s="23" t="s">
         <v>693</v>
@@ -23966,25 +24003,25 @@
         <v>168</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C60" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="E60" s="23" t="s">
         <v>693</v>
       </c>
       <c r="F60" s="49" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="G60" s="20" t="s">
         <v>693</v>
       </c>
       <c r="H60" s="49" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="I60" s="23" t="s">
         <v>693</v>
@@ -23995,13 +24032,13 @@
         <v>115</v>
       </c>
       <c r="B61" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C61" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D61" s="20" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="E61" s="23" t="s">
         <v>693</v>
@@ -24024,19 +24061,19 @@
         <v>49</v>
       </c>
       <c r="B62" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C62" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="E62" s="23" t="s">
         <v>693</v>
       </c>
       <c r="F62" s="49" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="G62" s="20" t="s">
         <v>693</v>
@@ -24053,13 +24090,13 @@
         <v>642</v>
       </c>
       <c r="B63" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C63" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="E63" s="23" t="s">
         <v>693</v>
@@ -24082,13 +24119,13 @@
         <v>99</v>
       </c>
       <c r="B64" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C64" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D64" s="20" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="E64" s="23" t="s">
         <v>693</v>
@@ -24100,7 +24137,7 @@
         <v>693</v>
       </c>
       <c r="H64" s="49" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="I64" s="23" t="s">
         <v>693</v>
@@ -24111,25 +24148,25 @@
         <v>119</v>
       </c>
       <c r="B65" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C65" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D65" s="20" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="E65" s="23" t="s">
         <v>693</v>
       </c>
       <c r="F65" s="49" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="G65" s="20" t="s">
         <v>693</v>
       </c>
       <c r="H65" s="49" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="I65" s="23" t="s">
         <v>693</v>
@@ -24140,10 +24177,10 @@
         <v>647</v>
       </c>
       <c r="B66" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C66" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D66" s="20" t="s">
         <v>693</v>
@@ -24152,7 +24189,7 @@
         <v>693</v>
       </c>
       <c r="F66" s="49" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="G66" s="20" t="s">
         <v>693</v>
@@ -24169,13 +24206,13 @@
         <v>649</v>
       </c>
       <c r="B67" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C67" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D67" s="20" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="E67" s="23" t="s">
         <v>693</v>
@@ -24198,13 +24235,13 @@
         <v>121</v>
       </c>
       <c r="B68" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C68" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D68" s="20" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="E68" s="23" t="s">
         <v>693</v>
@@ -24227,10 +24264,10 @@
         <v>652</v>
       </c>
       <c r="B69" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C69" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D69" s="20" t="s">
         <v>693</v>
@@ -24256,13 +24293,13 @@
         <v>50</v>
       </c>
       <c r="B70" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C70" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D70" s="20" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="E70" s="23" t="s">
         <v>693</v>
@@ -24285,19 +24322,19 @@
         <v>124</v>
       </c>
       <c r="B71" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C71" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D71" s="20" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="E71" s="23" t="s">
         <v>693</v>
       </c>
       <c r="F71" s="20" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="G71" s="20" t="s">
         <v>693</v>
@@ -24314,13 +24351,13 @@
         <v>51</v>
       </c>
       <c r="B72" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C72" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D72" s="20" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="E72" s="23" t="s">
         <v>693</v>
@@ -24343,10 +24380,10 @@
         <v>659</v>
       </c>
       <c r="B73" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C73" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D73" s="20" t="s">
         <v>693</v>
@@ -24372,13 +24409,13 @@
         <v>48</v>
       </c>
       <c r="B74" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C74" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D74" s="20" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="E74" s="23" t="s">
         <v>693</v>
@@ -24401,13 +24438,13 @@
         <v>661</v>
       </c>
       <c r="B75" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C75" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D75" s="20" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="E75" s="23" t="s">
         <v>693</v>
@@ -24430,13 +24467,13 @@
         <v>663</v>
       </c>
       <c r="B76" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C76" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D76" s="20" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E76" s="23" t="s">
         <v>693</v>
@@ -24459,19 +24496,19 @@
         <v>664</v>
       </c>
       <c r="B77" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C77" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D77" s="20" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E77" s="23" t="s">
         <v>693</v>
       </c>
       <c r="F77" s="20" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="G77" s="20" t="s">
         <v>693</v>
@@ -24488,13 +24525,13 @@
         <v>665</v>
       </c>
       <c r="B78" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C78" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D78" s="20" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E78" s="23" t="s">
         <v>693</v>
@@ -24506,7 +24543,7 @@
         <v>693</v>
       </c>
       <c r="H78" s="20" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="I78" s="23" t="s">
         <v>693</v>
@@ -24517,13 +24554,13 @@
         <v>128</v>
       </c>
       <c r="B79" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C79" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D79" s="20" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="E79" s="23" t="s">
         <v>693</v>
@@ -24546,13 +24583,13 @@
         <v>668</v>
       </c>
       <c r="B80" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C80" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D80" s="20" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="E80" s="23" t="s">
         <v>693</v>
@@ -24575,13 +24612,13 @@
         <v>671</v>
       </c>
       <c r="B81" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C81" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D81" s="20" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="E81" s="23" t="s">
         <v>693</v>
@@ -24604,13 +24641,13 @@
         <v>673</v>
       </c>
       <c r="B82" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C82" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D82" s="20" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E82" s="23" t="s">
         <v>693</v>
@@ -24633,13 +24670,13 @@
         <v>691</v>
       </c>
       <c r="B83" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="D83" s="20" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="E83" s="20" t="s">
         <v>693</v>
@@ -24659,7 +24696,7 @@
     </row>
     <row r="84" spans="1:9" ht="12">
       <c r="A84" s="27" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B84" s="15" t="s">
         <v>693</v>
@@ -24775,7 +24812,7 @@
     </row>
     <row r="88" spans="1:9" s="18" customFormat="1" ht="12">
       <c r="A88" s="27" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B88" s="15" t="s">
         <v>693</v>
@@ -24804,7 +24841,7 @@
     </row>
     <row r="89" spans="1:9" s="18" customFormat="1" ht="12">
       <c r="A89" s="27" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B89" s="15" t="s">
         <v>693</v>
@@ -24833,7 +24870,7 @@
     </row>
     <row r="90" spans="1:9" ht="12">
       <c r="A90" s="27" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B90" s="15" t="s">
         <v>693</v>
@@ -28116,11 +28153,11 @@
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:I104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B46" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="F78" sqref="F78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -28156,7 +28193,7 @@
         <v>549</v>
       </c>
       <c r="I1" s="30" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="17" customFormat="1" ht="12">
@@ -28179,7 +28216,7 @@
         <v>269</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="H2" s="20" t="s">
         <v>742</v>
@@ -28196,7 +28233,7 @@
         <v>785</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D3" s="20" t="s">
         <v>787</v>
@@ -28208,7 +28245,7 @@
         <v>269</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H3" s="20" t="s">
         <v>796</v>
@@ -28222,16 +28259,16 @@
         <v>156</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D4" s="20" t="s">
         <v>749</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="F4" s="20" t="s">
         <v>748</v>
@@ -28257,10 +28294,10 @@
         <v>801</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="F5" s="20" t="s">
         <v>269</v>
@@ -28312,7 +28349,7 @@
         <v>823</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D7" s="20" t="s">
         <v>819</v>
@@ -28321,10 +28358,10 @@
         <v>819</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H7" s="20" t="s">
         <v>269</v>
@@ -28338,10 +28375,10 @@
         <v>227</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>269</v>
@@ -28353,7 +28390,7 @@
         <v>782</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="H8" s="20" t="s">
         <v>759</v>
@@ -28367,7 +28404,7 @@
         <v>241</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>825</v>
@@ -28457,7 +28494,7 @@
         <v>822</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D12" s="20" t="s">
         <v>762</v>
@@ -28486,7 +28523,7 @@
         <v>229</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D13" s="20" t="s">
         <v>796</v>
@@ -28512,19 +28549,19 @@
         <v>1</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C14" s="20" t="s">
         <v>269</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>979</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>269</v>
+        <v>978</v>
+      </c>
+      <c r="F14" s="49" t="s">
+        <v>1130</v>
       </c>
       <c r="G14" s="20" t="s">
         <v>704</v>
@@ -28541,19 +28578,19 @@
         <v>2</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C15" s="20" t="s">
         <v>269</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>979</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>269</v>
+        <v>978</v>
+      </c>
+      <c r="F15" s="49" t="s">
+        <v>1131</v>
       </c>
       <c r="G15" s="20" t="s">
         <v>712</v>
@@ -28570,7 +28607,7 @@
         <v>3</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C16" s="20" t="s">
         <v>269</v>
@@ -28579,7 +28616,7 @@
         <v>762</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F16" s="20" t="s">
         <v>269</v>
@@ -28599,7 +28636,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C17" s="20" t="s">
         <v>269</v>
@@ -28608,7 +28645,7 @@
         <v>760</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F17" s="20" t="s">
         <v>269</v>
@@ -28628,16 +28665,16 @@
         <v>5</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C18" s="20" t="s">
         <v>269</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F18" s="20" t="s">
         <v>269</v>
@@ -28657,7 +28694,7 @@
         <v>6</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C19" s="20" t="s">
         <v>269</v>
@@ -28666,7 +28703,7 @@
         <v>761</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F19" s="20" t="s">
         <v>269</v>
@@ -28686,7 +28723,7 @@
         <v>7</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C20" s="20" t="s">
         <v>269</v>
@@ -28695,7 +28732,7 @@
         <v>269</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F20" s="20" t="s">
         <v>269</v>
@@ -28715,7 +28752,7 @@
         <v>8</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C21" s="20" t="s">
         <v>269</v>
@@ -28724,7 +28761,7 @@
         <v>269</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F21" s="20" t="s">
         <v>754</v>
@@ -28744,7 +28781,7 @@
         <v>9</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C22" s="20" t="s">
         <v>269</v>
@@ -28753,7 +28790,7 @@
         <v>269</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F22" s="20" t="s">
         <v>269</v>
@@ -28773,16 +28810,16 @@
         <v>0</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C23" s="20" t="s">
         <v>269</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F23" s="20" t="s">
         <v>269</v>
@@ -28811,16 +28848,16 @@
         <v>710</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="F24" s="20" t="s">
         <v>711</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="H24" s="20" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="I24" s="23" t="s">
         <v>269</v>
@@ -28849,7 +28886,7 @@
         <v>791</v>
       </c>
       <c r="H25" s="20" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="I25" s="23" t="s">
         <v>269</v>
@@ -28869,7 +28906,7 @@
         <v>732</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="F26" s="20" t="s">
         <v>728</v>
@@ -28956,7 +28993,7 @@
         <v>638</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="F29" s="20" t="s">
         <v>269</v>
@@ -28979,10 +29016,10 @@
         <v>737</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="E30" s="20" t="s">
         <v>269</v>
@@ -29060,7 +29097,7 @@
     </row>
     <row r="33" spans="1:9" ht="12">
       <c r="A33" s="27" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B33" s="20" t="s">
         <v>806</v>
@@ -29069,13 +29106,13 @@
         <v>807</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E33" s="20" t="s">
         <v>809</v>
       </c>
       <c r="F33" s="20" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="G33" s="20" t="s">
         <v>809</v>
@@ -29089,7 +29126,7 @@
     </row>
     <row r="34" spans="1:9" ht="12">
       <c r="A34" s="27" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B34" s="20" t="s">
         <v>810</v>
@@ -29098,13 +29135,13 @@
         <v>811</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="E34" s="20" t="s">
         <v>808</v>
       </c>
       <c r="F34" s="20" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="G34" s="20" t="s">
         <v>808</v>
@@ -29118,7 +29155,7 @@
     </row>
     <row r="35" spans="1:9" ht="12">
       <c r="A35" s="27" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B35" s="20" t="s">
         <v>269</v>
@@ -29147,7 +29184,7 @@
     </row>
     <row r="36" spans="1:9" ht="12">
       <c r="A36" s="27" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B36" s="20" t="s">
         <v>269</v>
@@ -29191,7 +29228,7 @@
         <v>779</v>
       </c>
       <c r="F37" s="20" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="G37" s="20" t="s">
         <v>269</v>
@@ -29205,7 +29242,7 @@
     </row>
     <row r="38" spans="1:9" ht="12">
       <c r="A38" s="27" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B38" s="20" t="s">
         <v>269</v>
@@ -29223,7 +29260,7 @@
         <v>793</v>
       </c>
       <c r="G38" s="20" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="H38" s="20" t="s">
         <v>269</v>
@@ -29234,7 +29271,7 @@
     </row>
     <row r="39" spans="1:9" ht="12">
       <c r="A39" s="27" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B39" s="20" t="s">
         <v>269</v>
@@ -29263,7 +29300,7 @@
     </row>
     <row r="40" spans="1:9" ht="12">
       <c r="A40" s="27" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B40" s="20" t="s">
         <v>269</v>
@@ -29292,7 +29329,7 @@
     </row>
     <row r="41" spans="1:9" ht="12">
       <c r="A41" s="27" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B41" s="20" t="s">
         <v>269</v>
@@ -29321,7 +29358,7 @@
     </row>
     <row r="42" spans="1:9" ht="12">
       <c r="A42" s="27" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B42" s="20" t="s">
         <v>269</v>
@@ -29350,7 +29387,7 @@
     </row>
     <row r="43" spans="1:9" ht="12">
       <c r="A43" s="27" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B43" s="20" t="s">
         <v>269</v>
@@ -29379,7 +29416,7 @@
     </row>
     <row r="44" spans="1:9" ht="12">
       <c r="A44" s="27" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B44" s="20" t="s">
         <v>269</v>
@@ -29394,7 +29431,7 @@
         <v>269</v>
       </c>
       <c r="F44" s="20" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="G44" s="20" t="s">
         <v>802</v>
@@ -29408,7 +29445,7 @@
     </row>
     <row r="45" spans="1:9" ht="12">
       <c r="A45" s="27" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B45" s="20" t="s">
         <v>269</v>
@@ -29437,7 +29474,7 @@
     </row>
     <row r="46" spans="1:9" ht="12">
       <c r="A46" s="27" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B46" s="20" t="s">
         <v>269</v>
@@ -29466,7 +29503,7 @@
     </row>
     <row r="47" spans="1:9" ht="12">
       <c r="A47" s="27" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B47" s="20" t="s">
         <v>269</v>
@@ -29495,7 +29532,7 @@
     </row>
     <row r="48" spans="1:9" ht="12">
       <c r="A48" s="27" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B48" s="20" t="s">
         <v>269</v>
@@ -29524,7 +29561,7 @@
     </row>
     <row r="49" spans="1:9" ht="12">
       <c r="A49" s="27" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B49" s="20" t="s">
         <v>269</v>
@@ -29698,7 +29735,7 @@
     </row>
     <row r="55" spans="1:9" ht="12">
       <c r="A55" s="27" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B55" s="20" t="s">
         <v>269</v>
@@ -29759,7 +29796,7 @@
         <v>634</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C57" s="20" t="s">
         <v>269</v>
@@ -29768,7 +29805,7 @@
         <v>752</v>
       </c>
       <c r="E57" s="23" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F57" s="20" t="s">
         <v>753</v>
@@ -29788,19 +29825,19 @@
         <v>636</v>
       </c>
       <c r="B58" s="23" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C58" s="20" t="s">
         <v>269</v>
       </c>
       <c r="D58" s="20" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E58" s="23" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F58" s="20" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="G58" s="20" t="s">
         <v>269</v>
@@ -29817,7 +29854,7 @@
         <v>637</v>
       </c>
       <c r="B59" s="23" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C59" s="20" t="s">
         <v>269</v>
@@ -29826,13 +29863,13 @@
         <v>638</v>
       </c>
       <c r="E59" s="23" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F59" s="20" t="s">
         <v>826</v>
       </c>
       <c r="G59" s="20" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="H59" s="20" t="s">
         <v>269</v>
@@ -29846,7 +29883,7 @@
         <v>168</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C60" s="20" t="s">
         <v>269</v>
@@ -29855,16 +29892,16 @@
         <v>766</v>
       </c>
       <c r="E60" s="23" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F60" s="20" t="s">
+        <v>851</v>
+      </c>
+      <c r="G60" s="20" t="s">
         <v>852</v>
       </c>
-      <c r="G60" s="20" t="s">
-        <v>853</v>
-      </c>
       <c r="H60" s="20" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="I60" s="23" t="s">
         <v>269</v>
@@ -29875,19 +29912,19 @@
         <v>115</v>
       </c>
       <c r="B61" s="23" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C61" s="20" t="s">
         <v>269</v>
       </c>
       <c r="D61" s="20" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E61" s="23" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F61" s="20" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="G61" s="20" t="s">
         <v>756</v>
@@ -29904,7 +29941,7 @@
         <v>49</v>
       </c>
       <c r="B62" s="23" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C62" s="20" t="s">
         <v>269</v>
@@ -29913,7 +29950,7 @@
         <v>800</v>
       </c>
       <c r="E62" s="23" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F62" s="20" t="s">
         <v>766</v>
@@ -29933,7 +29970,7 @@
         <v>642</v>
       </c>
       <c r="B63" s="23" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C63" s="20" t="s">
         <v>269</v>
@@ -29942,10 +29979,10 @@
         <v>743</v>
       </c>
       <c r="E63" s="23" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F63" s="20" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="G63" s="20" t="s">
         <v>269</v>
@@ -29962,16 +29999,16 @@
         <v>99</v>
       </c>
       <c r="B64" s="23" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C64" s="20" t="s">
         <v>269</v>
       </c>
       <c r="D64" s="20" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E64" s="23" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F64" s="20" t="s">
         <v>789</v>
@@ -29991,7 +30028,7 @@
         <v>119</v>
       </c>
       <c r="B65" s="23" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C65" s="20" t="s">
         <v>269</v>
@@ -30000,7 +30037,7 @@
         <v>824</v>
       </c>
       <c r="E65" s="23" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F65" s="20" t="s">
         <v>824</v>
@@ -30020,16 +30057,16 @@
         <v>647</v>
       </c>
       <c r="B66" s="23" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C66" s="20" t="s">
         <v>269</v>
       </c>
       <c r="D66" s="20" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E66" s="23" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F66" s="20" t="s">
         <v>798</v>
@@ -30049,7 +30086,7 @@
         <v>649</v>
       </c>
       <c r="B67" s="23" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C67" s="20" t="s">
         <v>269</v>
@@ -30058,10 +30095,10 @@
         <v>757</v>
       </c>
       <c r="E67" s="23" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F67" s="20" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="G67" s="20" t="s">
         <v>813</v>
@@ -30078,16 +30115,16 @@
         <v>121</v>
       </c>
       <c r="B68" s="23" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C68" s="20" t="s">
         <v>269</v>
       </c>
       <c r="D68" s="20" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E68" s="23" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F68" s="20" t="s">
         <v>794</v>
@@ -30107,7 +30144,7 @@
         <v>652</v>
       </c>
       <c r="B69" s="23" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C69" s="20" t="s">
         <v>269</v>
@@ -30116,7 +30153,7 @@
         <v>703</v>
       </c>
       <c r="E69" s="23" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F69" s="20" t="s">
         <v>702</v>
@@ -30136,7 +30173,7 @@
         <v>50</v>
       </c>
       <c r="B70" s="23" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C70" s="20" t="s">
         <v>269</v>
@@ -30145,16 +30182,16 @@
         <v>654</v>
       </c>
       <c r="E70" s="23" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F70" s="20" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="G70" s="20" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H70" s="20" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="I70" s="23" t="s">
         <v>269</v>
@@ -30165,7 +30202,7 @@
         <v>124</v>
       </c>
       <c r="B71" s="23" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C71" s="20" t="s">
         <v>269</v>
@@ -30174,13 +30211,13 @@
         <v>720</v>
       </c>
       <c r="E71" s="23" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F71" s="20" t="s">
         <v>780</v>
       </c>
       <c r="G71" s="20" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="H71" s="20" t="s">
         <v>725</v>
@@ -30194,7 +30231,7 @@
         <v>51</v>
       </c>
       <c r="B72" s="23" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C72" s="20" t="s">
         <v>269</v>
@@ -30203,7 +30240,7 @@
         <v>787</v>
       </c>
       <c r="E72" s="23" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F72" s="20" t="s">
         <v>767</v>
@@ -30223,16 +30260,16 @@
         <v>659</v>
       </c>
       <c r="B73" s="23" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C73" s="20" t="s">
         <v>269</v>
       </c>
       <c r="D73" s="20" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E73" s="23" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F73" s="20" t="s">
         <v>722</v>
@@ -30252,22 +30289,22 @@
         <v>48</v>
       </c>
       <c r="B74" s="23" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C74" s="20" t="s">
         <v>269</v>
       </c>
       <c r="D74" s="20" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E74" s="23" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F74" s="20" t="s">
         <v>815</v>
       </c>
       <c r="G74" s="20" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H74" s="20" t="s">
         <v>269</v>
@@ -30281,16 +30318,16 @@
         <v>661</v>
       </c>
       <c r="B75" s="23" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C75" s="20" t="s">
         <v>269</v>
       </c>
       <c r="D75" s="20" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="E75" s="23" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F75" s="20" t="s">
         <v>746</v>
@@ -30299,7 +30336,7 @@
         <v>269</v>
       </c>
       <c r="H75" s="20" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="I75" s="23" t="s">
         <v>745</v>
@@ -30310,7 +30347,7 @@
         <v>663</v>
       </c>
       <c r="B76" s="23" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C76" s="20" t="s">
         <v>269</v>
@@ -30319,7 +30356,7 @@
         <v>771</v>
       </c>
       <c r="E76" s="23" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F76" s="20" t="s">
         <v>772</v>
@@ -30339,7 +30376,7 @@
         <v>664</v>
       </c>
       <c r="B77" s="23" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C77" s="20" t="s">
         <v>269</v>
@@ -30348,7 +30385,7 @@
         <v>792</v>
       </c>
       <c r="E77" s="23" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F77" s="20" t="s">
         <v>792</v>
@@ -30357,7 +30394,7 @@
         <v>763</v>
       </c>
       <c r="H77" s="20" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I77" s="23" t="s">
         <v>269</v>
@@ -30368,7 +30405,7 @@
         <v>665</v>
       </c>
       <c r="B78" s="23" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C78" s="20" t="s">
         <v>269</v>
@@ -30377,19 +30414,19 @@
         <v>666</v>
       </c>
       <c r="E78" s="23" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F78" s="20" t="s">
-        <v>828</v>
+        <v>1132</v>
       </c>
       <c r="G78" s="20" t="s">
-        <v>269</v>
+        <v>1133</v>
       </c>
       <c r="H78" s="20" t="s">
         <v>799</v>
       </c>
       <c r="I78" s="23" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="12">
@@ -30397,16 +30434,16 @@
         <v>128</v>
       </c>
       <c r="B79" s="23" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C79" s="20" t="s">
         <v>269</v>
       </c>
       <c r="D79" s="20" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="E79" s="23" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F79" s="20" t="s">
         <v>786</v>
@@ -30426,16 +30463,16 @@
         <v>668</v>
       </c>
       <c r="B80" s="23" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C80" s="20" t="s">
         <v>269</v>
       </c>
       <c r="D80" s="20" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E80" s="23" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="F80" s="20" t="s">
         <v>724</v>
@@ -30455,7 +30492,7 @@
         <v>671</v>
       </c>
       <c r="B81" s="23" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C81" s="20" t="s">
         <v>269</v>
@@ -30464,7 +30501,7 @@
         <v>779</v>
       </c>
       <c r="E81" s="23" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F81" s="20" t="s">
         <v>269</v>
@@ -30484,7 +30521,7 @@
         <v>673</v>
       </c>
       <c r="B82" s="23" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C82" s="20" t="s">
         <v>269</v>
@@ -30493,10 +30530,10 @@
         <v>803</v>
       </c>
       <c r="E82" s="23" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F82" s="20" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="G82" s="20" t="s">
         <v>269</v>
@@ -30513,13 +30550,13 @@
         <v>691</v>
       </c>
       <c r="B83" s="23" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C83" s="20" t="s">
         <v>269</v>
       </c>
       <c r="D83" s="20" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E83" s="20" t="s">
         <v>269</v>
@@ -30531,7 +30568,7 @@
         <v>269</v>
       </c>
       <c r="H83" s="20" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="I83" s="23" t="s">
         <v>269</v>
@@ -30539,10 +30576,10 @@
     </row>
     <row r="84" spans="1:9" ht="12">
       <c r="A84" s="27" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C84" s="15" t="s">
         <v>269</v>
@@ -30655,10 +30692,10 @@
     </row>
     <row r="88" spans="1:9" s="18" customFormat="1" ht="12">
       <c r="A88" s="27" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C88" s="15" t="s">
         <v>269</v>
@@ -30684,10 +30721,10 @@
     </row>
     <row r="89" spans="1:9" s="18" customFormat="1" ht="12">
       <c r="A89" s="27" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C89" s="15" t="s">
         <v>269</v>
@@ -30713,10 +30750,10 @@
     </row>
     <row r="90" spans="1:9" ht="12">
       <c r="A90" s="27" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C90" s="15" t="s">
         <v>269</v>

--- a/shortcut_keys.xlsx
+++ b/shortcut_keys.xlsx
@@ -4,9 +4,9 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB0DEAB-9589-4C8E-8A65-397C03A35706}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4EE4B7F-CEE4-4F6E-B727-8F402F6DC350}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="26700" windowHeight="16440" activeTab="8" xr2:uid="{43490DDC-BDDE-46A2-A177-1DE0A5EB93B9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="26700" windowHeight="16440" firstSheet="1" activeTab="11" xr2:uid="{43490DDC-BDDE-46A2-A177-1DE0A5EB93B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Windows10" sheetId="7" r:id="rId1"/>
@@ -5344,24 +5344,11 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
+    <t>書式の貼り付け</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
     <t>値の貼り付け</t>
-    <rPh sb="0" eb="1">
-      <t>アタイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>書式の貼り付け</t>
-    <rPh sb="0" eb="2">
-      <t>ショシキ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ハ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ツ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -12026,7 +12013,9 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2" defaultRowHeight="11.25" customHeight="1"/>
   <cols>
@@ -28153,8 +28142,8 @@
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:I104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B46" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="F78" sqref="F78"/>
@@ -28554,14 +28543,14 @@
       <c r="C14" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="D14" s="20" t="s">
-        <v>844</v>
+      <c r="D14" s="49" t="s">
+        <v>1130</v>
       </c>
       <c r="E14" s="23" t="s">
         <v>978</v>
       </c>
-      <c r="F14" s="49" t="s">
-        <v>1130</v>
+      <c r="F14" s="20" t="s">
+        <v>269</v>
       </c>
       <c r="G14" s="20" t="s">
         <v>704</v>
@@ -28583,14 +28572,14 @@
       <c r="C15" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="D15" s="20" t="s">
-        <v>844</v>
+      <c r="D15" s="49" t="s">
+        <v>1131</v>
       </c>
       <c r="E15" s="23" t="s">
         <v>978</v>
       </c>
-      <c r="F15" s="49" t="s">
-        <v>1131</v>
+      <c r="F15" s="20" t="s">
+        <v>269</v>
       </c>
       <c r="G15" s="20" t="s">
         <v>712</v>
